--- a/config_4.6/task_xiaoxiaole_tower_week_server.xlsx
+++ b/config_4.6/task_xiaoxiaole_tower_week_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -4686,11 +4686,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W739"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4776,7 +4776,7 @@
         <v>16501</v>
       </c>
       <c r="B2" s="126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="118" t="s">
         <v>482</v>
@@ -4820,7 +4820,7 @@
         <v>16502</v>
       </c>
       <c r="B3" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="118" t="s">
         <v>482</v>
@@ -4863,7 +4863,7 @@
         <v>16503</v>
       </c>
       <c r="B4" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="118" t="s">
         <v>482</v>
@@ -4906,7 +4906,7 @@
         <v>16504</v>
       </c>
       <c r="B5" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="118" t="s">
         <v>482</v>
@@ -4949,7 +4949,7 @@
         <v>16505</v>
       </c>
       <c r="B6" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="118" t="s">
         <v>482</v>
@@ -4991,7 +4991,7 @@
         <v>16506</v>
       </c>
       <c r="B7" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="118" t="s">
         <v>482</v>
@@ -5033,7 +5033,7 @@
         <v>16507</v>
       </c>
       <c r="B8" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="119" t="s">
         <v>488</v>
@@ -5075,7 +5075,7 @@
         <v>16508</v>
       </c>
       <c r="B9" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="119" t="s">
         <v>488</v>
@@ -5117,7 +5117,7 @@
         <v>16509</v>
       </c>
       <c r="B10" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="119" t="s">
         <v>488</v>
@@ -5159,7 +5159,7 @@
         <v>16510</v>
       </c>
       <c r="B11" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="119" t="s">
         <v>488</v>
@@ -5201,7 +5201,7 @@
         <v>16511</v>
       </c>
       <c r="B12" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="119" t="s">
         <v>488</v>
@@ -5245,7 +5245,7 @@
         <v>16512</v>
       </c>
       <c r="B13" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="119" t="s">
         <v>488</v>
@@ -5289,7 +5289,7 @@
         <v>16513</v>
       </c>
       <c r="B14" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="119" t="s">
         <v>488</v>
@@ -5331,7 +5331,7 @@
         <v>16514</v>
       </c>
       <c r="B15" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="119" t="s">
         <v>488</v>
@@ -5373,7 +5373,7 @@
         <v>16515</v>
       </c>
       <c r="B16" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="119" t="s">
         <v>488</v>
@@ -5415,7 +5415,7 @@
         <v>16516</v>
       </c>
       <c r="B17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="119" t="s">
         <v>488</v>
@@ -5457,7 +5457,7 @@
         <v>16517</v>
       </c>
       <c r="B18" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="118" t="s">
         <v>499</v>
@@ -5499,7 +5499,7 @@
         <v>16518</v>
       </c>
       <c r="B19" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="118" t="s">
         <v>499</v>
@@ -5541,7 +5541,7 @@
         <v>16519</v>
       </c>
       <c r="B20" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="118" t="s">
         <v>499</v>
@@ -5583,7 +5583,7 @@
         <v>16520</v>
       </c>
       <c r="B21" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="118" t="s">
         <v>499</v>
@@ -5625,7 +5625,7 @@
         <v>16521</v>
       </c>
       <c r="B22" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="118" t="s">
         <v>499</v>
@@ -5667,7 +5667,7 @@
         <v>16522</v>
       </c>
       <c r="B23" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="118" t="s">
         <v>499</v>
@@ -5709,7 +5709,7 @@
         <v>16523</v>
       </c>
       <c r="B24" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="118" t="s">
         <v>499</v>
@@ -5751,7 +5751,7 @@
         <v>16524</v>
       </c>
       <c r="B25" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="118" t="s">
         <v>499</v>
@@ -5793,7 +5793,7 @@
         <v>16525</v>
       </c>
       <c r="B26" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="118" t="s">
         <v>499</v>
@@ -5835,7 +5835,7 @@
         <v>16526</v>
       </c>
       <c r="B27" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="118" t="s">
         <v>499</v>
@@ -5877,7 +5877,7 @@
         <v>16527</v>
       </c>
       <c r="B28" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="118" t="s">
         <v>510</v>
@@ -5919,7 +5919,7 @@
         <v>16528</v>
       </c>
       <c r="B29" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="118" t="s">
         <v>510</v>
@@ -5961,7 +5961,7 @@
         <v>16529</v>
       </c>
       <c r="B30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="119" t="s">
         <v>511</v>
@@ -6003,7 +6003,7 @@
         <v>16530</v>
       </c>
       <c r="B31" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="119" t="s">
         <v>511</v>
@@ -6047,7 +6047,7 @@
         <v>16531</v>
       </c>
       <c r="B32" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="119" t="s">
         <v>511</v>
@@ -6091,7 +6091,7 @@
         <v>16532</v>
       </c>
       <c r="B33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="119" t="s">
         <v>511</v>
@@ -6133,7 +6133,7 @@
         <v>16533</v>
       </c>
       <c r="B34" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="119" t="s">
         <v>511</v>
@@ -6175,7 +6175,7 @@
         <v>16534</v>
       </c>
       <c r="B35" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="119" t="s">
         <v>511</v>
@@ -6217,7 +6217,7 @@
         <v>16535</v>
       </c>
       <c r="B36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="119" t="s">
         <v>511</v>
@@ -6259,7 +6259,7 @@
         <v>16536</v>
       </c>
       <c r="B37" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="119" t="s">
         <v>511</v>
@@ -6301,7 +6301,7 @@
         <v>16537</v>
       </c>
       <c r="B38" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="119" t="s">
         <v>511</v>
@@ -6343,7 +6343,7 @@
         <v>16538</v>
       </c>
       <c r="B39" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="119" t="s">
         <v>511</v>
@@ -6385,7 +6385,7 @@
         <v>16539</v>
       </c>
       <c r="B40" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="119" t="s">
         <v>522</v>
@@ -6427,7 +6427,7 @@
         <v>16540</v>
       </c>
       <c r="B41" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="119" t="s">
         <v>522</v>
@@ -6469,7 +6469,7 @@
         <v>16541</v>
       </c>
       <c r="B42" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="118" t="s">
         <v>523</v>
@@ -6511,7 +6511,7 @@
         <v>16542</v>
       </c>
       <c r="B43" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="118" t="s">
         <v>523</v>
@@ -6553,7 +6553,7 @@
         <v>16543</v>
       </c>
       <c r="B44" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="118" t="s">
         <v>523</v>
@@ -6595,7 +6595,7 @@
         <v>16544</v>
       </c>
       <c r="B45" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="118" t="s">
         <v>523</v>
@@ -6637,7 +6637,7 @@
         <v>16545</v>
       </c>
       <c r="B46" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="118" t="s">
         <v>523</v>
@@ -6679,7 +6679,7 @@
         <v>16546</v>
       </c>
       <c r="B47" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="118" t="s">
         <v>523</v>
@@ -6721,7 +6721,7 @@
         <v>16547</v>
       </c>
       <c r="B48" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="118" t="s">
         <v>523</v>
@@ -6763,7 +6763,7 @@
         <v>16548</v>
       </c>
       <c r="B49" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="118" t="s">
         <v>523</v>
@@ -6805,7 +6805,7 @@
         <v>16549</v>
       </c>
       <c r="B50" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="118" t="s">
         <v>523</v>
@@ -6847,7 +6847,7 @@
         <v>16550</v>
       </c>
       <c r="B51" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="118" t="s">
         <v>523</v>
@@ -6889,7 +6889,7 @@
         <v>16551</v>
       </c>
       <c r="B52" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="118" t="s">
         <v>534</v>
@@ -6931,7 +6931,7 @@
         <v>16552</v>
       </c>
       <c r="B53" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="118" t="s">
         <v>534</v>
@@ -6973,7 +6973,7 @@
         <v>16553</v>
       </c>
       <c r="B54" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="119" t="s">
         <v>536</v>
@@ -7016,7 +7016,7 @@
         <v>16554</v>
       </c>
       <c r="B55" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="119" t="s">
         <v>536</v>
@@ -7058,7 +7058,7 @@
         <v>16555</v>
       </c>
       <c r="B56" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="119" t="s">
         <v>536</v>
@@ -7100,7 +7100,7 @@
         <v>16556</v>
       </c>
       <c r="B57" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="119" t="s">
         <v>536</v>
@@ -7142,7 +7142,7 @@
         <v>16557</v>
       </c>
       <c r="B58" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="119" t="s">
         <v>536</v>
@@ -7184,7 +7184,7 @@
         <v>16558</v>
       </c>
       <c r="B59" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="119" t="s">
         <v>536</v>
@@ -7226,7 +7226,7 @@
         <v>16559</v>
       </c>
       <c r="B60" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="119" t="s">
         <v>536</v>
@@ -7268,7 +7268,7 @@
         <v>16560</v>
       </c>
       <c r="B61" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="119" t="s">
         <v>536</v>
@@ -7310,7 +7310,7 @@
         <v>16561</v>
       </c>
       <c r="B62" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="119" t="s">
         <v>536</v>
@@ -7352,7 +7352,7 @@
         <v>16562</v>
       </c>
       <c r="B63" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="119" t="s">
         <v>536</v>
@@ -7394,7 +7394,7 @@
         <v>16563</v>
       </c>
       <c r="B64" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="119" t="s">
         <v>547</v>
@@ -7436,7 +7436,7 @@
         <v>16564</v>
       </c>
       <c r="B65" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="119" t="s">
         <v>547</v>
@@ -7478,7 +7478,7 @@
         <v>16565</v>
       </c>
       <c r="B66" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="119" t="s">
         <v>548</v>
@@ -7520,7 +7520,7 @@
         <v>16566</v>
       </c>
       <c r="B67" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="118" t="s">
         <v>550</v>
@@ -7562,7 +7562,7 @@
         <v>16567</v>
       </c>
       <c r="B68" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="118" t="s">
         <v>550</v>
@@ -7607,7 +7607,7 @@
         <v>16568</v>
       </c>
       <c r="B69" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="118" t="s">
         <v>550</v>
@@ -7652,7 +7652,7 @@
         <v>16569</v>
       </c>
       <c r="B70" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="118" t="s">
         <v>550</v>
@@ -7694,7 +7694,7 @@
         <v>16570</v>
       </c>
       <c r="B71" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="118" t="s">
         <v>550</v>
@@ -7736,7 +7736,7 @@
         <v>16571</v>
       </c>
       <c r="B72" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="118" t="s">
         <v>550</v>
@@ -7778,7 +7778,7 @@
         <v>16572</v>
       </c>
       <c r="B73" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="118" t="s">
         <v>550</v>
@@ -7820,7 +7820,7 @@
         <v>16573</v>
       </c>
       <c r="B74" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="118" t="s">
         <v>550</v>
@@ -7862,7 +7862,7 @@
         <v>16574</v>
       </c>
       <c r="B75" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="118" t="s">
         <v>550</v>
@@ -7905,7 +7905,7 @@
         <v>16575</v>
       </c>
       <c r="B76" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="118" t="s">
         <v>550</v>
@@ -7947,7 +7947,7 @@
         <v>16576</v>
       </c>
       <c r="B77" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="118" t="s">
         <v>561</v>
@@ -7989,7 +7989,7 @@
         <v>16577</v>
       </c>
       <c r="B78" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="118" t="s">
         <v>561</v>
@@ -8031,7 +8031,7 @@
         <v>16578</v>
       </c>
       <c r="B79" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="118" t="s">
         <v>563</v>
@@ -8073,7 +8073,7 @@
         <v>16579</v>
       </c>
       <c r="B80" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="119" t="s">
         <v>564</v>
@@ -8115,7 +8115,7 @@
         <v>16580</v>
       </c>
       <c r="B81" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="119" t="s">
         <v>564</v>
@@ -8157,7 +8157,7 @@
         <v>16581</v>
       </c>
       <c r="B82" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="119" t="s">
         <v>564</v>
@@ -8199,7 +8199,7 @@
         <v>16582</v>
       </c>
       <c r="B83" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="119" t="s">
         <v>564</v>
@@ -8241,7 +8241,7 @@
         <v>16583</v>
       </c>
       <c r="B84" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="119" t="s">
         <v>564</v>
@@ -8283,7 +8283,7 @@
         <v>16584</v>
       </c>
       <c r="B85" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="119" t="s">
         <v>564</v>
@@ -8325,7 +8325,7 @@
         <v>16585</v>
       </c>
       <c r="B86" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="119" t="s">
         <v>564</v>
@@ -8366,7 +8366,7 @@
         <v>16586</v>
       </c>
       <c r="B87" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="119" t="s">
         <v>564</v>
@@ -8407,7 +8407,7 @@
         <v>16587</v>
       </c>
       <c r="B88" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="119" t="s">
         <v>564</v>
@@ -8448,7 +8448,7 @@
         <v>16588</v>
       </c>
       <c r="B89" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="119" t="s">
         <v>564</v>
@@ -8489,7 +8489,7 @@
         <v>16589</v>
       </c>
       <c r="B90" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="119" t="s">
         <v>575</v>
@@ -8530,7 +8530,7 @@
         <v>16590</v>
       </c>
       <c r="B91" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="119" t="s">
         <v>575</v>
@@ -8572,7 +8572,7 @@
         <v>16591</v>
       </c>
       <c r="B92" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="119" t="s">
         <v>576</v>
@@ -8613,7 +8613,7 @@
         <v>16592</v>
       </c>
       <c r="B93" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="118" t="s">
         <v>577</v>
@@ -8654,7 +8654,7 @@
         <v>16593</v>
       </c>
       <c r="B94" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="118" t="s">
         <v>577</v>
@@ -8695,7 +8695,7 @@
         <v>16594</v>
       </c>
       <c r="B95" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="118" t="s">
         <v>577</v>
@@ -8736,7 +8736,7 @@
         <v>16595</v>
       </c>
       <c r="B96" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="118" t="s">
         <v>577</v>
@@ -8777,7 +8777,7 @@
         <v>16596</v>
       </c>
       <c r="B97" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="118" t="s">
         <v>577</v>
@@ -8818,7 +8818,7 @@
         <v>16597</v>
       </c>
       <c r="B98" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="118" t="s">
         <v>577</v>
@@ -8859,7 +8859,7 @@
         <v>16598</v>
       </c>
       <c r="B99" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="118" t="s">
         <v>577</v>
@@ -8900,7 +8900,7 @@
         <v>16599</v>
       </c>
       <c r="B100" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="118" t="s">
         <v>577</v>
@@ -8941,7 +8941,7 @@
         <v>16600</v>
       </c>
       <c r="B101" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" s="118" t="s">
         <v>577</v>
@@ -8982,7 +8982,7 @@
         <v>16601</v>
       </c>
       <c r="B102" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="118" t="s">
         <v>577</v>
@@ -9023,7 +9023,7 @@
         <v>16602</v>
       </c>
       <c r="B103" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="118" t="s">
         <v>588</v>
@@ -9064,7 +9064,7 @@
         <v>16603</v>
       </c>
       <c r="B104" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="118" t="s">
         <v>588</v>
@@ -9105,7 +9105,7 @@
         <v>16604</v>
       </c>
       <c r="B105" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="118" t="s">
         <v>590</v>
@@ -9146,7 +9146,7 @@
         <v>16605</v>
       </c>
       <c r="B106" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="119" t="s">
         <v>591</v>
@@ -9187,7 +9187,7 @@
         <v>16606</v>
       </c>
       <c r="B107" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="119" t="s">
         <v>591</v>
@@ -9228,7 +9228,7 @@
         <v>16607</v>
       </c>
       <c r="B108" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="119" t="s">
         <v>591</v>
@@ -9269,7 +9269,7 @@
         <v>16608</v>
       </c>
       <c r="B109" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="119" t="s">
         <v>591</v>
@@ -9310,7 +9310,7 @@
         <v>16609</v>
       </c>
       <c r="B110" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="119" t="s">
         <v>591</v>
@@ -9351,7 +9351,7 @@
         <v>16610</v>
       </c>
       <c r="B111" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" s="119" t="s">
         <v>591</v>
@@ -9392,7 +9392,7 @@
         <v>16611</v>
       </c>
       <c r="B112" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="119" t="s">
         <v>591</v>
@@ -9433,7 +9433,7 @@
         <v>16612</v>
       </c>
       <c r="B113" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="119" t="s">
         <v>591</v>
@@ -9474,7 +9474,7 @@
         <v>16613</v>
       </c>
       <c r="B114" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="119" t="s">
         <v>591</v>
@@ -9515,7 +9515,7 @@
         <v>16614</v>
       </c>
       <c r="B115" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="119" t="s">
         <v>591</v>
@@ -9556,7 +9556,7 @@
         <v>16615</v>
       </c>
       <c r="B116" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="119" t="s">
         <v>602</v>
@@ -9597,7 +9597,7 @@
         <v>16616</v>
       </c>
       <c r="B117" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="119" t="s">
         <v>602</v>
@@ -9638,7 +9638,7 @@
         <v>16617</v>
       </c>
       <c r="B118" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="119" t="s">
         <v>603</v>
@@ -9679,7 +9679,7 @@
         <v>16618</v>
       </c>
       <c r="B119" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" s="118" t="s">
         <v>605</v>
@@ -9720,7 +9720,7 @@
         <v>16619</v>
       </c>
       <c r="B120" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="118" t="s">
         <v>605</v>
@@ -9761,7 +9761,7 @@
         <v>16620</v>
       </c>
       <c r="B121" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="118" t="s">
         <v>605</v>
@@ -9802,7 +9802,7 @@
         <v>16621</v>
       </c>
       <c r="B122" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="118" t="s">
         <v>605</v>
@@ -9843,7 +9843,7 @@
         <v>16622</v>
       </c>
       <c r="B123" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="118" t="s">
         <v>605</v>
@@ -9884,7 +9884,7 @@
         <v>16623</v>
       </c>
       <c r="B124" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="118" t="s">
         <v>605</v>
@@ -9925,7 +9925,7 @@
         <v>16624</v>
       </c>
       <c r="B125" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="118" t="s">
         <v>605</v>
@@ -9966,7 +9966,7 @@
         <v>16625</v>
       </c>
       <c r="B126" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="118" t="s">
         <v>605</v>
@@ -10007,7 +10007,7 @@
         <v>16626</v>
       </c>
       <c r="B127" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" s="118" t="s">
         <v>605</v>
@@ -10048,7 +10048,7 @@
         <v>16627</v>
       </c>
       <c r="B128" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="118" t="s">
         <v>605</v>
@@ -10089,7 +10089,7 @@
         <v>16628</v>
       </c>
       <c r="B129" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" s="118" t="s">
         <v>616</v>
@@ -10130,7 +10130,7 @@
         <v>16629</v>
       </c>
       <c r="B130" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="118" t="s">
         <v>616</v>
@@ -10171,7 +10171,7 @@
         <v>16630</v>
       </c>
       <c r="B131" s="127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" s="118" t="s">
         <v>617</v>
@@ -41490,7 +41490,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="119" t="str">
-        <f t="shared" ref="F259:F284" ca="1" si="11">INDIRECT("G"&amp;B259+1)</f>
+        <f t="shared" ref="F259:F283" ca="1" si="11">INDIRECT("G"&amp;B259+1)</f>
         <v>累计消除200个苹果，200个7，200个BAR</v>
       </c>
       <c r="G259" s="160"/>
@@ -42088,7 +42088,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="118" t="str">
-        <f t="shared" ref="F285:F336" ca="1" si="12">INDIRECT("G"&amp;B285+2)</f>
+        <f t="shared" ref="F285:F335" ca="1" si="12">INDIRECT("G"&amp;B285+2)</f>
         <v>累计消除300个苹果，300个铃铛，300个西瓜</v>
       </c>
       <c r="G285" s="161"/>
@@ -43283,7 +43283,7 @@
         <v>2</v>
       </c>
       <c r="F337" s="118" t="str">
-        <f t="shared" ref="F337:F388" ca="1" si="14">INDIRECT("G"&amp;B337+3)</f>
+        <f t="shared" ref="F337:F387" ca="1" si="14">INDIRECT("G"&amp;B337+3)</f>
         <v>累计消除400个苹果，400个铃铛，400个西瓜</v>
       </c>
     </row>
@@ -44427,7 +44427,7 @@
         <v>2</v>
       </c>
       <c r="F389" s="118" t="str">
-        <f t="shared" ref="F389:F452" ca="1" si="16">INDIRECT("G"&amp;B389+4)</f>
+        <f t="shared" ref="F389:F439" ca="1" si="16">INDIRECT("G"&amp;B389+4)</f>
         <v>累计消除500个苹果，500个铃铛，500个西瓜</v>
       </c>
     </row>
@@ -45571,7 +45571,7 @@
         <v>2</v>
       </c>
       <c r="F441" s="118" t="str">
-        <f t="shared" ref="F441:F504" ca="1" si="17">INDIRECT("G"&amp;B441+5)</f>
+        <f t="shared" ref="F441:F491" ca="1" si="17">INDIRECT("G"&amp;B441+5)</f>
         <v>累计消除600个苹果，600个铃铛，600个西瓜</v>
       </c>
     </row>
@@ -48088,8 +48088,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C374" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C368" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C389" sqref="C389"/>

--- a/config_4.6/task_xiaoxiaole_tower_week_server.xlsx
+++ b/config_4.6/task_xiaoxiaole_tower_week_server.xlsx
@@ -4687,10 +4687,10 @@
   <dimension ref="A1:W739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B131" sqref="B131"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4791,7 +4791,7 @@
         <v>215</v>
       </c>
       <c r="G2" s="125">
-        <v>16500</v>
+        <v>16501</v>
       </c>
       <c r="H2" s="127" t="b">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>215</v>
       </c>
       <c r="G3" s="125">
-        <v>16501</v>
+        <v>16502</v>
       </c>
       <c r="H3" s="127" t="b">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>215</v>
       </c>
       <c r="G4" s="125">
-        <v>16502</v>
+        <v>16503</v>
       </c>
       <c r="H4" s="127" t="b">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>215</v>
       </c>
       <c r="G5" s="125">
-        <v>16503</v>
+        <v>16504</v>
       </c>
       <c r="H5" s="127" t="b">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>215</v>
       </c>
       <c r="G6" s="125">
-        <v>16504</v>
+        <v>16505</v>
       </c>
       <c r="H6" s="127" t="b">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>215</v>
       </c>
       <c r="G7" s="125">
-        <v>16505</v>
+        <v>16506</v>
       </c>
       <c r="H7" s="127" t="b">
         <v>0</v>
@@ -5047,8 +5047,8 @@
       <c r="F8" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="120">
-        <v>16506</v>
+      <c r="G8" s="125">
+        <v>16507</v>
       </c>
       <c r="H8" s="121" t="b">
         <v>0</v>
@@ -5089,8 +5089,8 @@
       <c r="F9" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="120">
-        <v>16507</v>
+      <c r="G9" s="125">
+        <v>16508</v>
       </c>
       <c r="H9" s="121" t="b">
         <v>0</v>
@@ -5131,8 +5131,8 @@
       <c r="F10" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="120">
-        <v>16508</v>
+      <c r="G10" s="125">
+        <v>16509</v>
       </c>
       <c r="H10" s="121" t="b">
         <v>0</v>
@@ -5173,8 +5173,8 @@
       <c r="F11" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G11" s="120">
-        <v>16509</v>
+      <c r="G11" s="125">
+        <v>16510</v>
       </c>
       <c r="H11" s="121" t="b">
         <v>0</v>
@@ -5215,8 +5215,8 @@
       <c r="F12" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G12" s="120">
-        <v>16510</v>
+      <c r="G12" s="125">
+        <v>16511</v>
       </c>
       <c r="H12" s="121" t="b">
         <v>0</v>
@@ -5259,8 +5259,8 @@
       <c r="F13" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="120">
-        <v>16511</v>
+      <c r="G13" s="125">
+        <v>16512</v>
       </c>
       <c r="H13" s="121" t="b">
         <v>0</v>
@@ -5303,8 +5303,8 @@
       <c r="F14" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="120">
-        <v>16512</v>
+      <c r="G14" s="125">
+        <v>16513</v>
       </c>
       <c r="H14" s="121" t="b">
         <v>0</v>
@@ -5345,8 +5345,8 @@
       <c r="F15" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G15" s="120">
-        <v>16513</v>
+      <c r="G15" s="125">
+        <v>16514</v>
       </c>
       <c r="H15" s="121" t="b">
         <v>0</v>
@@ -5387,8 +5387,8 @@
       <c r="F16" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="120">
-        <v>16514</v>
+      <c r="G16" s="125">
+        <v>16515</v>
       </c>
       <c r="H16" s="121" t="b">
         <v>0</v>
@@ -5429,8 +5429,8 @@
       <c r="F17" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="120">
-        <v>16515</v>
+      <c r="G17" s="125">
+        <v>16516</v>
       </c>
       <c r="H17" s="121" t="b">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>215</v>
       </c>
       <c r="G18" s="125">
-        <v>16516</v>
+        <v>16517</v>
       </c>
       <c r="H18" s="127" t="b">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>215</v>
       </c>
       <c r="G19" s="125">
-        <v>16517</v>
+        <v>16518</v>
       </c>
       <c r="H19" s="127" t="b">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>215</v>
       </c>
       <c r="G20" s="125">
-        <v>16518</v>
+        <v>16519</v>
       </c>
       <c r="H20" s="127" t="b">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>215</v>
       </c>
       <c r="G21" s="125">
-        <v>16519</v>
+        <v>16520</v>
       </c>
       <c r="H21" s="127" t="b">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>215</v>
       </c>
       <c r="G22" s="125">
-        <v>16520</v>
+        <v>16521</v>
       </c>
       <c r="H22" s="127" t="b">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>215</v>
       </c>
       <c r="G23" s="125">
-        <v>16521</v>
+        <v>16522</v>
       </c>
       <c r="H23" s="127" t="b">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>215</v>
       </c>
       <c r="G24" s="125">
-        <v>16522</v>
+        <v>16523</v>
       </c>
       <c r="H24" s="127" t="b">
         <v>0</v>
@@ -5766,7 +5766,7 @@
         <v>215</v>
       </c>
       <c r="G25" s="125">
-        <v>16523</v>
+        <v>16524</v>
       </c>
       <c r="H25" s="127" t="b">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>215</v>
       </c>
       <c r="G26" s="125">
-        <v>16524</v>
+        <v>16525</v>
       </c>
       <c r="H26" s="127" t="b">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>215</v>
       </c>
       <c r="G27" s="125">
-        <v>16525</v>
+        <v>16526</v>
       </c>
       <c r="H27" s="127" t="b">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         <v>215</v>
       </c>
       <c r="G28" s="125">
-        <v>16526</v>
+        <v>16527</v>
       </c>
       <c r="H28" s="127" t="b">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>215</v>
       </c>
       <c r="G29" s="125">
-        <v>16527</v>
+        <v>16528</v>
       </c>
       <c r="H29" s="127" t="b">
         <v>0</v>
@@ -5975,8 +5975,8 @@
       <c r="F30" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="120">
-        <v>16528</v>
+      <c r="G30" s="125">
+        <v>16529</v>
       </c>
       <c r="H30" s="121" t="b">
         <v>0</v>
@@ -6017,8 +6017,8 @@
       <c r="F31" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="120">
-        <v>16529</v>
+      <c r="G31" s="125">
+        <v>16530</v>
       </c>
       <c r="H31" s="121" t="b">
         <v>0</v>
@@ -6061,8 +6061,8 @@
       <c r="F32" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="120">
-        <v>16530</v>
+      <c r="G32" s="125">
+        <v>16531</v>
       </c>
       <c r="H32" s="121" t="b">
         <v>0</v>
@@ -6105,8 +6105,8 @@
       <c r="F33" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G33" s="120">
-        <v>16531</v>
+      <c r="G33" s="125">
+        <v>16532</v>
       </c>
       <c r="H33" s="121" t="b">
         <v>0</v>
@@ -6147,8 +6147,8 @@
       <c r="F34" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="120">
-        <v>16532</v>
+      <c r="G34" s="125">
+        <v>16533</v>
       </c>
       <c r="H34" s="121" t="b">
         <v>0</v>
@@ -6189,8 +6189,8 @@
       <c r="F35" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G35" s="120">
-        <v>16533</v>
+      <c r="G35" s="125">
+        <v>16534</v>
       </c>
       <c r="H35" s="121" t="b">
         <v>0</v>
@@ -6231,8 +6231,8 @@
       <c r="F36" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G36" s="120">
-        <v>16534</v>
+      <c r="G36" s="125">
+        <v>16535</v>
       </c>
       <c r="H36" s="121" t="b">
         <v>0</v>
@@ -6273,8 +6273,8 @@
       <c r="F37" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G37" s="120">
-        <v>16535</v>
+      <c r="G37" s="125">
+        <v>16536</v>
       </c>
       <c r="H37" s="121" t="b">
         <v>0</v>
@@ -6315,8 +6315,8 @@
       <c r="F38" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G38" s="120">
-        <v>16536</v>
+      <c r="G38" s="125">
+        <v>16537</v>
       </c>
       <c r="H38" s="121" t="b">
         <v>0</v>
@@ -6357,8 +6357,8 @@
       <c r="F39" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G39" s="120">
-        <v>16537</v>
+      <c r="G39" s="125">
+        <v>16538</v>
       </c>
       <c r="H39" s="121" t="b">
         <v>0</v>
@@ -6399,8 +6399,8 @@
       <c r="F40" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G40" s="120">
-        <v>16538</v>
+      <c r="G40" s="125">
+        <v>16539</v>
       </c>
       <c r="H40" s="121" t="b">
         <v>0</v>
@@ -6441,8 +6441,8 @@
       <c r="F41" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G41" s="120">
-        <v>16539</v>
+      <c r="G41" s="125">
+        <v>16540</v>
       </c>
       <c r="H41" s="121" t="b">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>215</v>
       </c>
       <c r="G42" s="125">
-        <v>16540</v>
+        <v>16541</v>
       </c>
       <c r="H42" s="127" t="b">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>215</v>
       </c>
       <c r="G43" s="125">
-        <v>16541</v>
+        <v>16542</v>
       </c>
       <c r="H43" s="127" t="b">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>215</v>
       </c>
       <c r="G44" s="125">
-        <v>16542</v>
+        <v>16543</v>
       </c>
       <c r="H44" s="127" t="b">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>215</v>
       </c>
       <c r="G45" s="125">
-        <v>16543</v>
+        <v>16544</v>
       </c>
       <c r="H45" s="127" t="b">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>215</v>
       </c>
       <c r="G46" s="125">
-        <v>16544</v>
+        <v>16545</v>
       </c>
       <c r="H46" s="127" t="b">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>215</v>
       </c>
       <c r="G47" s="125">
-        <v>16545</v>
+        <v>16546</v>
       </c>
       <c r="H47" s="127" t="b">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>215</v>
       </c>
       <c r="G48" s="125">
-        <v>16546</v>
+        <v>16547</v>
       </c>
       <c r="H48" s="127" t="b">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>215</v>
       </c>
       <c r="G49" s="125">
-        <v>16547</v>
+        <v>16548</v>
       </c>
       <c r="H49" s="127" t="b">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>215</v>
       </c>
       <c r="G50" s="125">
-        <v>16548</v>
+        <v>16549</v>
       </c>
       <c r="H50" s="127" t="b">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>215</v>
       </c>
       <c r="G51" s="125">
-        <v>16549</v>
+        <v>16550</v>
       </c>
       <c r="H51" s="127" t="b">
         <v>0</v>
@@ -6904,7 +6904,7 @@
         <v>215</v>
       </c>
       <c r="G52" s="125">
-        <v>16550</v>
+        <v>16551</v>
       </c>
       <c r="H52" s="127" t="b">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>215</v>
       </c>
       <c r="G53" s="125">
-        <v>16551</v>
+        <v>16552</v>
       </c>
       <c r="H53" s="127" t="b">
         <v>0</v>
@@ -6987,8 +6987,8 @@
       <c r="F54" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G54" s="120">
-        <v>16552</v>
+      <c r="G54" s="125">
+        <v>16553</v>
       </c>
       <c r="H54" s="121" t="b">
         <v>0</v>
@@ -7030,8 +7030,8 @@
       <c r="F55" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G55" s="120">
-        <v>16553</v>
+      <c r="G55" s="125">
+        <v>16554</v>
       </c>
       <c r="H55" s="121" t="b">
         <v>0</v>
@@ -7072,8 +7072,8 @@
       <c r="F56" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G56" s="120">
-        <v>16554</v>
+      <c r="G56" s="125">
+        <v>16555</v>
       </c>
       <c r="H56" s="121" t="b">
         <v>0</v>
@@ -7114,8 +7114,8 @@
       <c r="F57" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="120">
-        <v>16555</v>
+      <c r="G57" s="125">
+        <v>16556</v>
       </c>
       <c r="H57" s="121" t="b">
         <v>0</v>
@@ -7156,8 +7156,8 @@
       <c r="F58" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G58" s="120">
-        <v>16556</v>
+      <c r="G58" s="125">
+        <v>16557</v>
       </c>
       <c r="H58" s="121" t="b">
         <v>0</v>
@@ -7198,8 +7198,8 @@
       <c r="F59" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="G59" s="120">
-        <v>16557</v>
+      <c r="G59" s="125">
+        <v>16558</v>
       </c>
       <c r="H59" s="121" t="b">
         <v>0</v>
@@ -7240,8 +7240,8 @@
       <c r="F60" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="120">
-        <v>16558</v>
+      <c r="G60" s="125">
+        <v>16559</v>
       </c>
       <c r="H60" s="121" t="b">
         <v>0</v>
@@ -7282,8 +7282,8 @@
       <c r="F61" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G61" s="120">
-        <v>16559</v>
+      <c r="G61" s="125">
+        <v>16560</v>
       </c>
       <c r="H61" s="121" t="b">
         <v>0</v>
@@ -7324,8 +7324,8 @@
       <c r="F62" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G62" s="120">
-        <v>16560</v>
+      <c r="G62" s="125">
+        <v>16561</v>
       </c>
       <c r="H62" s="121" t="b">
         <v>0</v>
@@ -7366,8 +7366,8 @@
       <c r="F63" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G63" s="120">
-        <v>16561</v>
+      <c r="G63" s="125">
+        <v>16562</v>
       </c>
       <c r="H63" s="121" t="b">
         <v>0</v>
@@ -7408,8 +7408,8 @@
       <c r="F64" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G64" s="120">
-        <v>16562</v>
+      <c r="G64" s="125">
+        <v>16563</v>
       </c>
       <c r="H64" s="121" t="b">
         <v>0</v>
@@ -7450,8 +7450,8 @@
       <c r="F65" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="120">
-        <v>16563</v>
+      <c r="G65" s="125">
+        <v>16564</v>
       </c>
       <c r="H65" s="121" t="b">
         <v>0</v>
@@ -7492,8 +7492,8 @@
       <c r="F66" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G66" s="120">
-        <v>16564</v>
+      <c r="G66" s="125">
+        <v>16565</v>
       </c>
       <c r="H66" s="121" t="b">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>215</v>
       </c>
       <c r="G67" s="125">
-        <v>16565</v>
+        <v>16566</v>
       </c>
       <c r="H67" s="127" t="b">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>215</v>
       </c>
       <c r="G68" s="125">
-        <v>16566</v>
+        <v>16567</v>
       </c>
       <c r="H68" s="127" t="b">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>215</v>
       </c>
       <c r="G69" s="125">
-        <v>16567</v>
+        <v>16568</v>
       </c>
       <c r="H69" s="127" t="b">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>215</v>
       </c>
       <c r="G70" s="125">
-        <v>16568</v>
+        <v>16569</v>
       </c>
       <c r="H70" s="127" t="b">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>215</v>
       </c>
       <c r="G71" s="125">
-        <v>16569</v>
+        <v>16570</v>
       </c>
       <c r="H71" s="127" t="b">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>215</v>
       </c>
       <c r="G72" s="125">
-        <v>16570</v>
+        <v>16571</v>
       </c>
       <c r="H72" s="127" t="b">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>215</v>
       </c>
       <c r="G73" s="125">
-        <v>16571</v>
+        <v>16572</v>
       </c>
       <c r="H73" s="127" t="b">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>215</v>
       </c>
       <c r="G74" s="125">
-        <v>16572</v>
+        <v>16573</v>
       </c>
       <c r="H74" s="127" t="b">
         <v>0</v>
@@ -7877,7 +7877,7 @@
         <v>215</v>
       </c>
       <c r="G75" s="125">
-        <v>16573</v>
+        <v>16574</v>
       </c>
       <c r="H75" s="127" t="b">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>215</v>
       </c>
       <c r="G76" s="125">
-        <v>16574</v>
+        <v>16575</v>
       </c>
       <c r="H76" s="127" t="b">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>215</v>
       </c>
       <c r="G77" s="125">
-        <v>16575</v>
+        <v>16576</v>
       </c>
       <c r="H77" s="127" t="b">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>215</v>
       </c>
       <c r="G78" s="125">
-        <v>16576</v>
+        <v>16577</v>
       </c>
       <c r="H78" s="127" t="b">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>215</v>
       </c>
       <c r="G79" s="125">
-        <v>16577</v>
+        <v>16578</v>
       </c>
       <c r="H79" s="127" t="b">
         <v>0</v>
@@ -8087,8 +8087,8 @@
       <c r="F80" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G80" s="120">
-        <v>16578</v>
+      <c r="G80" s="125">
+        <v>16579</v>
       </c>
       <c r="H80" s="121" t="b">
         <v>0</v>
@@ -8129,8 +8129,8 @@
       <c r="F81" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G81" s="120">
-        <v>16579</v>
+      <c r="G81" s="125">
+        <v>16580</v>
       </c>
       <c r="H81" s="121" t="b">
         <v>0</v>
@@ -8171,8 +8171,8 @@
       <c r="F82" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G82" s="120">
-        <v>16580</v>
+      <c r="G82" s="125">
+        <v>16581</v>
       </c>
       <c r="H82" s="121" t="b">
         <v>0</v>
@@ -8213,8 +8213,8 @@
       <c r="F83" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G83" s="120">
-        <v>16581</v>
+      <c r="G83" s="125">
+        <v>16582</v>
       </c>
       <c r="H83" s="121" t="b">
         <v>0</v>
@@ -8255,8 +8255,8 @@
       <c r="F84" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G84" s="120">
-        <v>16582</v>
+      <c r="G84" s="125">
+        <v>16583</v>
       </c>
       <c r="H84" s="121" t="b">
         <v>0</v>
@@ -8297,8 +8297,8 @@
       <c r="F85" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G85" s="120">
-        <v>16583</v>
+      <c r="G85" s="125">
+        <v>16584</v>
       </c>
       <c r="H85" s="121" t="b">
         <v>0</v>
@@ -8339,8 +8339,8 @@
       <c r="F86" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G86" s="120">
-        <v>16584</v>
+      <c r="G86" s="125">
+        <v>16585</v>
       </c>
       <c r="H86" s="121" t="b">
         <v>0</v>
@@ -8380,8 +8380,8 @@
       <c r="F87" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G87" s="120">
-        <v>16585</v>
+      <c r="G87" s="125">
+        <v>16586</v>
       </c>
       <c r="H87" s="121" t="b">
         <v>0</v>
@@ -8421,8 +8421,8 @@
       <c r="F88" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G88" s="120">
-        <v>16586</v>
+      <c r="G88" s="125">
+        <v>16587</v>
       </c>
       <c r="H88" s="121" t="b">
         <v>0</v>
@@ -8462,8 +8462,8 @@
       <c r="F89" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G89" s="120">
-        <v>16587</v>
+      <c r="G89" s="125">
+        <v>16588</v>
       </c>
       <c r="H89" s="121" t="b">
         <v>0</v>
@@ -8503,8 +8503,8 @@
       <c r="F90" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G90" s="120">
-        <v>16588</v>
+      <c r="G90" s="125">
+        <v>16589</v>
       </c>
       <c r="H90" s="121" t="b">
         <v>0</v>
@@ -8544,8 +8544,8 @@
       <c r="F91" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G91" s="120">
-        <v>16589</v>
+      <c r="G91" s="125">
+        <v>16590</v>
       </c>
       <c r="H91" s="121" t="b">
         <v>0</v>
@@ -8586,8 +8586,8 @@
       <c r="F92" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G92" s="120">
-        <v>16590</v>
+      <c r="G92" s="125">
+        <v>16591</v>
       </c>
       <c r="H92" s="121" t="b">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>215</v>
       </c>
       <c r="G93" s="125">
-        <v>16591</v>
+        <v>16592</v>
       </c>
       <c r="H93" s="127" t="b">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>215</v>
       </c>
       <c r="G94" s="125">
-        <v>16592</v>
+        <v>16593</v>
       </c>
       <c r="H94" s="127" t="b">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>215</v>
       </c>
       <c r="G95" s="125">
-        <v>16593</v>
+        <v>16594</v>
       </c>
       <c r="H95" s="127" t="b">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>215</v>
       </c>
       <c r="G96" s="125">
-        <v>16594</v>
+        <v>16595</v>
       </c>
       <c r="H96" s="127" t="b">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>215</v>
       </c>
       <c r="G97" s="125">
-        <v>16595</v>
+        <v>16596</v>
       </c>
       <c r="H97" s="127" t="b">
         <v>0</v>
@@ -8833,7 +8833,7 @@
         <v>215</v>
       </c>
       <c r="G98" s="125">
-        <v>16596</v>
+        <v>16597</v>
       </c>
       <c r="H98" s="127" t="b">
         <v>0</v>
@@ -8874,7 +8874,7 @@
         <v>215</v>
       </c>
       <c r="G99" s="125">
-        <v>16597</v>
+        <v>16598</v>
       </c>
       <c r="H99" s="127" t="b">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>215</v>
       </c>
       <c r="G100" s="125">
-        <v>16598</v>
+        <v>16599</v>
       </c>
       <c r="H100" s="127" t="b">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>215</v>
       </c>
       <c r="G101" s="125">
-        <v>16599</v>
+        <v>16600</v>
       </c>
       <c r="H101" s="127" t="b">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>215</v>
       </c>
       <c r="G102" s="125">
-        <v>16600</v>
+        <v>16601</v>
       </c>
       <c r="H102" s="127" t="b">
         <v>0</v>
@@ -9038,7 +9038,7 @@
         <v>215</v>
       </c>
       <c r="G103" s="125">
-        <v>16601</v>
+        <v>16602</v>
       </c>
       <c r="H103" s="127" t="b">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>215</v>
       </c>
       <c r="G104" s="125">
-        <v>16602</v>
+        <v>16603</v>
       </c>
       <c r="H104" s="127" t="b">
         <v>0</v>
@@ -9120,7 +9120,7 @@
         <v>215</v>
       </c>
       <c r="G105" s="125">
-        <v>16603</v>
+        <v>16604</v>
       </c>
       <c r="H105" s="127" t="b">
         <v>0</v>
@@ -9160,8 +9160,8 @@
       <c r="F106" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G106" s="120">
-        <v>16604</v>
+      <c r="G106" s="125">
+        <v>16605</v>
       </c>
       <c r="H106" s="121" t="b">
         <v>0</v>
@@ -9201,8 +9201,8 @@
       <c r="F107" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G107" s="120">
-        <v>16605</v>
+      <c r="G107" s="125">
+        <v>16606</v>
       </c>
       <c r="H107" s="121" t="b">
         <v>0</v>
@@ -9242,8 +9242,8 @@
       <c r="F108" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G108" s="120">
-        <v>16606</v>
+      <c r="G108" s="125">
+        <v>16607</v>
       </c>
       <c r="H108" s="121" t="b">
         <v>0</v>
@@ -9283,8 +9283,8 @@
       <c r="F109" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G109" s="120">
-        <v>16607</v>
+      <c r="G109" s="125">
+        <v>16608</v>
       </c>
       <c r="H109" s="121" t="b">
         <v>0</v>
@@ -9324,8 +9324,8 @@
       <c r="F110" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G110" s="120">
-        <v>16608</v>
+      <c r="G110" s="125">
+        <v>16609</v>
       </c>
       <c r="H110" s="121" t="b">
         <v>0</v>
@@ -9365,8 +9365,8 @@
       <c r="F111" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G111" s="120">
-        <v>16609</v>
+      <c r="G111" s="125">
+        <v>16610</v>
       </c>
       <c r="H111" s="121" t="b">
         <v>0</v>
@@ -9406,8 +9406,8 @@
       <c r="F112" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G112" s="120">
-        <v>16610</v>
+      <c r="G112" s="125">
+        <v>16611</v>
       </c>
       <c r="H112" s="121" t="b">
         <v>0</v>
@@ -9447,8 +9447,8 @@
       <c r="F113" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G113" s="120">
-        <v>16611</v>
+      <c r="G113" s="125">
+        <v>16612</v>
       </c>
       <c r="H113" s="121" t="b">
         <v>0</v>
@@ -9488,8 +9488,8 @@
       <c r="F114" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G114" s="120">
-        <v>16612</v>
+      <c r="G114" s="125">
+        <v>16613</v>
       </c>
       <c r="H114" s="121" t="b">
         <v>0</v>
@@ -9529,8 +9529,8 @@
       <c r="F115" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G115" s="120">
-        <v>16613</v>
+      <c r="G115" s="125">
+        <v>16614</v>
       </c>
       <c r="H115" s="121" t="b">
         <v>0</v>
@@ -9570,8 +9570,8 @@
       <c r="F116" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G116" s="120">
-        <v>16614</v>
+      <c r="G116" s="125">
+        <v>16615</v>
       </c>
       <c r="H116" s="121" t="b">
         <v>0</v>
@@ -9611,8 +9611,8 @@
       <c r="F117" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G117" s="120">
-        <v>16615</v>
+      <c r="G117" s="125">
+        <v>16616</v>
       </c>
       <c r="H117" s="121" t="b">
         <v>0</v>
@@ -9652,8 +9652,8 @@
       <c r="F118" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="G118" s="120">
-        <v>16616</v>
+      <c r="G118" s="125">
+        <v>16617</v>
       </c>
       <c r="H118" s="121" t="b">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>215</v>
       </c>
       <c r="G119" s="125">
-        <v>16617</v>
+        <v>16618</v>
       </c>
       <c r="H119" s="127" t="b">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>215</v>
       </c>
       <c r="G120" s="125">
-        <v>16618</v>
+        <v>16619</v>
       </c>
       <c r="H120" s="127" t="b">
         <v>0</v>
@@ -9776,7 +9776,7 @@
         <v>215</v>
       </c>
       <c r="G121" s="125">
-        <v>16619</v>
+        <v>16620</v>
       </c>
       <c r="H121" s="127" t="b">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>215</v>
       </c>
       <c r="G122" s="125">
-        <v>16620</v>
+        <v>16621</v>
       </c>
       <c r="H122" s="127" t="b">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>215</v>
       </c>
       <c r="G123" s="125">
-        <v>16621</v>
+        <v>16622</v>
       </c>
       <c r="H123" s="127" t="b">
         <v>0</v>
@@ -9899,7 +9899,7 @@
         <v>215</v>
       </c>
       <c r="G124" s="125">
-        <v>16622</v>
+        <v>16623</v>
       </c>
       <c r="H124" s="127" t="b">
         <v>0</v>
@@ -9940,7 +9940,7 @@
         <v>215</v>
       </c>
       <c r="G125" s="125">
-        <v>16623</v>
+        <v>16624</v>
       </c>
       <c r="H125" s="127" t="b">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>215</v>
       </c>
       <c r="G126" s="125">
-        <v>16624</v>
+        <v>16625</v>
       </c>
       <c r="H126" s="127" t="b">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>215</v>
       </c>
       <c r="G127" s="125">
-        <v>16625</v>
+        <v>16626</v>
       </c>
       <c r="H127" s="127" t="b">
         <v>0</v>
@@ -10063,7 +10063,7 @@
         <v>215</v>
       </c>
       <c r="G128" s="125">
-        <v>16626</v>
+        <v>16627</v>
       </c>
       <c r="H128" s="127" t="b">
         <v>0</v>
@@ -10104,7 +10104,7 @@
         <v>215</v>
       </c>
       <c r="G129" s="125">
-        <v>16627</v>
+        <v>16628</v>
       </c>
       <c r="H129" s="127" t="b">
         <v>0</v>
@@ -10145,7 +10145,7 @@
         <v>215</v>
       </c>
       <c r="G130" s="125">
-        <v>16628</v>
+        <v>16629</v>
       </c>
       <c r="H130" s="127" t="b">
         <v>0</v>
@@ -10186,7 +10186,7 @@
         <v>215</v>
       </c>
       <c r="G131" s="125">
-        <v>16629</v>
+        <v>16630</v>
       </c>
       <c r="H131" s="127" t="b">
         <v>0</v>

--- a/config_4.6/task_xiaoxiaole_tower_week_server.xlsx
+++ b/config_4.6/task_xiaoxiaole_tower_week_server.xlsx
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="722">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3674,6 +3674,98 @@
     <t>50</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>limit_item_id_4</t>
+  </si>
+  <si>
+    <t>limit_item_id_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_5</t>
+  </si>
+  <si>
+    <t>limit_item_id_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_3</t>
+  </si>
+  <si>
+    <t>limit_item_id_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_item_id_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+  </si>
 </sst>
 </file>
 
@@ -4687,10 +4779,10 @@
   <dimension ref="A1:W739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -34851,10 +34943,10 @@
   <dimension ref="A1:M594"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C518" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C540" sqref="C540"/>
+      <selection pane="bottomRight" activeCell="C534" sqref="C534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -35072,7 +35164,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="151" t="s">
-        <v>634</v>
+        <v>699</v>
       </c>
       <c r="D9" s="153" t="s">
         <v>636</v>
@@ -35172,7 +35264,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>634</v>
+        <v>701</v>
       </c>
       <c r="D13" s="153" t="s">
         <v>636</v>
@@ -35246,8 +35338,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C16" s="149" t="s">
-        <v>67</v>
+      <c r="C16" s="151" t="s">
+        <v>703</v>
       </c>
       <c r="D16" s="153" t="s">
         <v>635</v>
@@ -35272,7 +35364,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="D17" s="153" t="s">
         <v>636</v>
@@ -35346,8 +35438,8 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C20" s="149" t="s">
-        <v>67</v>
+      <c r="C20" s="151" t="s">
+        <v>705</v>
       </c>
       <c r="D20" s="153" t="s">
         <v>635</v>
@@ -35372,7 +35464,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="151" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="D21" s="153" t="s">
         <v>636</v>
@@ -35446,8 +35538,8 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C24" s="149" t="s">
-        <v>67</v>
+      <c r="C24" s="151" t="s">
+        <v>707</v>
       </c>
       <c r="D24" s="153" t="s">
         <v>635</v>
@@ -35472,7 +35564,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="151" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="D25" s="153" t="s">
         <v>636</v>
@@ -35696,7 +35788,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="158" t="s">
-        <v>634</v>
+        <v>699</v>
       </c>
       <c r="D34" s="156">
         <v>80</v>
@@ -35801,8 +35893,8 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C38" s="155" t="s">
-        <v>67</v>
+      <c r="C38" s="158" t="s">
+        <v>709</v>
       </c>
       <c r="D38" s="156">
         <v>80</v>
@@ -35833,7 +35925,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="158" t="s">
-        <v>634</v>
+        <v>701</v>
       </c>
       <c r="D39" s="156">
         <v>80</v>
@@ -35956,8 +36048,8 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C43" s="155" t="s">
-        <v>67</v>
+      <c r="C43" s="158" t="s">
+        <v>710</v>
       </c>
       <c r="D43" s="156">
         <v>80</v>
@@ -35988,7 +36080,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="158" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="D44" s="156">
         <v>80</v>
@@ -36111,8 +36203,8 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C48" s="155" t="s">
-        <v>67</v>
+      <c r="C48" s="158" t="s">
+        <v>712</v>
       </c>
       <c r="D48" s="156">
         <v>80</v>
@@ -36143,7 +36235,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="158" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="D49" s="156">
         <v>80</v>
@@ -36266,8 +36358,8 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C53" s="155" t="s">
-        <v>67</v>
+      <c r="C53" s="158" t="s">
+        <v>713</v>
       </c>
       <c r="D53" s="156">
         <v>80</v>
@@ -36298,7 +36390,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="158" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="D54" s="156">
         <v>80</v>
@@ -36390,8 +36482,8 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C57" s="155" t="s">
-        <v>66</v>
+      <c r="C57" s="158" t="s">
+        <v>709</v>
       </c>
       <c r="D57" s="156">
         <v>80</v>
@@ -36421,8 +36513,8 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C58" s="155" t="s">
-        <v>67</v>
+      <c r="C58" s="158" t="s">
+        <v>713</v>
       </c>
       <c r="D58" s="156">
         <v>80</v>
@@ -36453,7 +36545,7 @@
         <v>13</v>
       </c>
       <c r="C59" s="158" t="s">
-        <v>634</v>
+        <v>714</v>
       </c>
       <c r="D59" s="156">
         <v>80</v>
@@ -36545,8 +36637,8 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="C62" s="155" t="s">
-        <v>66</v>
+      <c r="C62" s="158" t="s">
+        <v>715</v>
       </c>
       <c r="D62" s="156">
         <v>80</v>
@@ -36576,8 +36668,8 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="C63" s="155" t="s">
-        <v>67</v>
+      <c r="C63" s="158" t="s">
+        <v>705</v>
       </c>
       <c r="D63" s="156">
         <v>80</v>
@@ -36608,7 +36700,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="158" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="D64" s="156">
         <v>80</v>
@@ -36700,8 +36792,8 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="C67" s="155" t="s">
-        <v>66</v>
+      <c r="C67" s="158" t="s">
+        <v>717</v>
       </c>
       <c r="D67" s="156">
         <v>80</v>
@@ -36731,8 +36823,8 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="C68" s="155" t="s">
-        <v>67</v>
+      <c r="C68" s="158" t="s">
+        <v>718</v>
       </c>
       <c r="D68" s="156">
         <v>80</v>
@@ -36763,7 +36855,7 @@
         <v>15</v>
       </c>
       <c r="C69" s="158" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="D69" s="156">
         <v>80</v>
@@ -36855,8 +36947,8 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C72" s="155" t="s">
-        <v>66</v>
+      <c r="C72" s="158" t="s">
+        <v>719</v>
       </c>
       <c r="D72" s="156">
         <v>80</v>
@@ -36886,8 +36978,8 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C73" s="155" t="s">
-        <v>67</v>
+      <c r="C73" s="158" t="s">
+        <v>720</v>
       </c>
       <c r="D73" s="156">
         <v>80</v>
@@ -36918,7 +37010,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="158" t="s">
-        <v>634</v>
+        <v>701</v>
       </c>
       <c r="D74" s="156">
         <v>80</v>
@@ -37073,7 +37165,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="151" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D79" s="153">
         <v>100</v>
@@ -37104,7 +37196,7 @@
         <v>17</v>
       </c>
       <c r="C80" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D80" s="153">
         <v>30000</v>
@@ -37228,7 +37320,7 @@
         <v>18</v>
       </c>
       <c r="C84" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D84" s="153">
         <v>100</v>
@@ -37259,7 +37351,7 @@
         <v>18</v>
       </c>
       <c r="C85" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D85" s="153">
         <v>30000</v>
@@ -37383,7 +37475,7 @@
         <v>19</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D89" s="153">
         <v>100</v>
@@ -37414,7 +37506,7 @@
         <v>19</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D90" s="153">
         <v>30000</v>
@@ -37507,7 +37599,7 @@
         <v>20</v>
       </c>
       <c r="C93" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D93" s="153">
         <v>100</v>
@@ -37538,7 +37630,7 @@
         <v>20</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D94" s="153">
         <v>100</v>
@@ -37569,7 +37661,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D95" s="153">
         <v>30000</v>
@@ -37662,7 +37754,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D98" s="153">
         <v>100</v>
@@ -37693,7 +37785,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D99" s="153">
         <v>100</v>
@@ -37724,7 +37816,7 @@
         <v>21</v>
       </c>
       <c r="C100" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D100" s="153">
         <v>30000</v>
@@ -37817,7 +37909,7 @@
         <v>22</v>
       </c>
       <c r="C103" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D103" s="153">
         <v>100</v>
@@ -37848,7 +37940,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D104" s="153">
         <v>100</v>
@@ -37879,7 +37971,7 @@
         <v>22</v>
       </c>
       <c r="C105" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D105" s="153">
         <v>30000</v>
@@ -37935,7 +38027,7 @@
         <v>23</v>
       </c>
       <c r="C107" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D107" s="153">
         <v>100</v>
@@ -37960,7 +38052,7 @@
         <v>23</v>
       </c>
       <c r="C108" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D108" s="153">
         <v>100</v>
@@ -37985,7 +38077,7 @@
         <v>23</v>
       </c>
       <c r="C109" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D109" s="153">
         <v>100</v>
@@ -38010,7 +38102,7 @@
         <v>23</v>
       </c>
       <c r="C110" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D110" s="153">
         <v>30000</v>
@@ -38060,7 +38152,7 @@
         <v>24</v>
       </c>
       <c r="C112" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D112" s="153">
         <v>100</v>
@@ -38085,7 +38177,7 @@
         <v>24</v>
       </c>
       <c r="C113" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D113" s="153">
         <v>100</v>
@@ -38110,7 +38202,7 @@
         <v>24</v>
       </c>
       <c r="C114" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D114" s="153">
         <v>100</v>
@@ -38135,7 +38227,7 @@
         <v>24</v>
       </c>
       <c r="C115" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D115" s="153">
         <v>30000</v>
@@ -38185,7 +38277,7 @@
         <v>25</v>
       </c>
       <c r="C117" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D117" s="153">
         <v>100</v>
@@ -38210,7 +38302,7 @@
         <v>25</v>
       </c>
       <c r="C118" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D118" s="153">
         <v>100</v>
@@ -38235,7 +38327,7 @@
         <v>25</v>
       </c>
       <c r="C119" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D119" s="153">
         <v>100</v>
@@ -38260,7 +38352,7 @@
         <v>25</v>
       </c>
       <c r="C120" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D120" s="153">
         <v>30000</v>
@@ -38310,7 +38402,7 @@
         <v>26</v>
       </c>
       <c r="C122" s="149" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D122" s="153">
         <v>100</v>
@@ -38335,7 +38427,7 @@
         <v>26</v>
       </c>
       <c r="C123" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D123" s="153">
         <v>100</v>
@@ -38360,7 +38452,7 @@
         <v>26</v>
       </c>
       <c r="C124" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D124" s="153">
         <v>100</v>
@@ -38385,7 +38477,7 @@
         <v>26</v>
       </c>
       <c r="C125" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D125" s="153">
         <v>30000</v>
@@ -38535,7 +38627,7 @@
         <v>29</v>
       </c>
       <c r="C131" s="158" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D131" s="156">
         <v>120</v>
@@ -38560,7 +38652,7 @@
         <v>29</v>
       </c>
       <c r="C132" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D132" s="156">
         <v>60000</v>
@@ -38652,7 +38744,7 @@
         <v>30</v>
       </c>
       <c r="C136" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D136" s="156">
         <v>120</v>
@@ -38675,7 +38767,7 @@
         <v>30</v>
       </c>
       <c r="C137" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D137" s="156">
         <v>60000</v>
@@ -38767,7 +38859,7 @@
         <v>31</v>
       </c>
       <c r="C141" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D141" s="156">
         <v>120</v>
@@ -38790,7 +38882,7 @@
         <v>31</v>
       </c>
       <c r="C142" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D142" s="156">
         <v>60000</v>
@@ -38859,7 +38951,7 @@
         <v>32</v>
       </c>
       <c r="C145" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D145" s="156">
         <v>120</v>
@@ -38882,7 +38974,7 @@
         <v>32</v>
       </c>
       <c r="C146" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D146" s="156">
         <v>120</v>
@@ -38905,7 +38997,7 @@
         <v>32</v>
       </c>
       <c r="C147" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D147" s="156">
         <v>60000</v>
@@ -38974,7 +39066,7 @@
         <v>33</v>
       </c>
       <c r="C150" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D150" s="156">
         <v>120</v>
@@ -38997,7 +39089,7 @@
         <v>33</v>
       </c>
       <c r="C151" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D151" s="156">
         <v>120</v>
@@ -39020,7 +39112,7 @@
         <v>33</v>
       </c>
       <c r="C152" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D152" s="156">
         <v>60000</v>
@@ -39089,7 +39181,7 @@
         <v>34</v>
       </c>
       <c r="C155" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D155" s="156">
         <v>120</v>
@@ -39112,7 +39204,7 @@
         <v>34</v>
       </c>
       <c r="C156" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D156" s="156">
         <v>120</v>
@@ -39135,7 +39227,7 @@
         <v>34</v>
       </c>
       <c r="C157" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D157" s="156">
         <v>60000</v>
@@ -39181,7 +39273,7 @@
         <v>35</v>
       </c>
       <c r="C159" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D159" s="156">
         <v>120</v>
@@ -39204,7 +39296,7 @@
         <v>35</v>
       </c>
       <c r="C160" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D160" s="156">
         <v>120</v>
@@ -39227,7 +39319,7 @@
         <v>35</v>
       </c>
       <c r="C161" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D161" s="156">
         <v>120</v>
@@ -39250,7 +39342,7 @@
         <v>35</v>
       </c>
       <c r="C162" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D162" s="156">
         <v>60000</v>
@@ -39296,7 +39388,7 @@
         <v>36</v>
       </c>
       <c r="C164" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D164" s="156">
         <v>120</v>
@@ -39319,7 +39411,7 @@
         <v>36</v>
       </c>
       <c r="C165" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D165" s="156">
         <v>120</v>
@@ -39342,7 +39434,7 @@
         <v>36</v>
       </c>
       <c r="C166" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D166" s="156">
         <v>120</v>
@@ -39365,7 +39457,7 @@
         <v>36</v>
       </c>
       <c r="C167" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D167" s="156">
         <v>60000</v>
@@ -39411,7 +39503,7 @@
         <v>37</v>
       </c>
       <c r="C169" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D169" s="156">
         <v>120</v>
@@ -39434,7 +39526,7 @@
         <v>37</v>
       </c>
       <c r="C170" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D170" s="156">
         <v>120</v>
@@ -39457,7 +39549,7 @@
         <v>37</v>
       </c>
       <c r="C171" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D171" s="156">
         <v>120</v>
@@ -39480,7 +39572,7 @@
         <v>37</v>
       </c>
       <c r="C172" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D172" s="156">
         <v>60000</v>
@@ -39526,7 +39618,7 @@
         <v>38</v>
       </c>
       <c r="C174" s="155" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D174" s="156">
         <v>120</v>
@@ -39549,7 +39641,7 @@
         <v>38</v>
       </c>
       <c r="C175" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D175" s="156">
         <v>120</v>
@@ -39572,7 +39664,7 @@
         <v>38</v>
       </c>
       <c r="C176" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D176" s="156">
         <v>120</v>
@@ -39595,7 +39687,7 @@
         <v>38</v>
       </c>
       <c r="C177" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D177" s="156">
         <v>60000</v>
@@ -39733,7 +39825,7 @@
         <v>41</v>
       </c>
       <c r="C183" s="151" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D183" s="153">
         <v>150</v>
@@ -39756,7 +39848,7 @@
         <v>41</v>
       </c>
       <c r="C184" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D184" s="153">
         <v>120000</v>
@@ -39848,7 +39940,7 @@
         <v>42</v>
       </c>
       <c r="C188" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D188" s="153">
         <v>150</v>
@@ -39871,7 +39963,7 @@
         <v>42</v>
       </c>
       <c r="C189" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D189" s="153">
         <v>120000</v>
@@ -39963,7 +40055,7 @@
         <v>43</v>
       </c>
       <c r="C193" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D193" s="153">
         <v>150</v>
@@ -39986,7 +40078,7 @@
         <v>43</v>
       </c>
       <c r="C194" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D194" s="153">
         <v>120000</v>
@@ -40055,7 +40147,7 @@
         <v>44</v>
       </c>
       <c r="C197" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D197" s="153">
         <v>150</v>
@@ -40078,7 +40170,7 @@
         <v>44</v>
       </c>
       <c r="C198" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D198" s="153">
         <v>150</v>
@@ -40101,7 +40193,7 @@
         <v>44</v>
       </c>
       <c r="C199" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D199" s="153">
         <v>120000</v>
@@ -40170,7 +40262,7 @@
         <v>45</v>
       </c>
       <c r="C202" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D202" s="153">
         <v>150</v>
@@ -40193,7 +40285,7 @@
         <v>45</v>
       </c>
       <c r="C203" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D203" s="153">
         <v>150</v>
@@ -40216,7 +40308,7 @@
         <v>45</v>
       </c>
       <c r="C204" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D204" s="153">
         <v>120000</v>
@@ -40285,7 +40377,7 @@
         <v>46</v>
       </c>
       <c r="C207" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D207" s="153">
         <v>150</v>
@@ -40308,7 +40400,7 @@
         <v>46</v>
       </c>
       <c r="C208" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D208" s="153">
         <v>150</v>
@@ -40331,7 +40423,7 @@
         <v>46</v>
       </c>
       <c r="C209" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D209" s="153">
         <v>120000</v>
@@ -40377,7 +40469,7 @@
         <v>47</v>
       </c>
       <c r="C211" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D211" s="153">
         <v>150</v>
@@ -40400,7 +40492,7 @@
         <v>47</v>
       </c>
       <c r="C212" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D212" s="153">
         <v>150</v>
@@ -40423,7 +40515,7 @@
         <v>47</v>
       </c>
       <c r="C213" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D213" s="153">
         <v>150</v>
@@ -40446,7 +40538,7 @@
         <v>47</v>
       </c>
       <c r="C214" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D214" s="153">
         <v>120000</v>
@@ -40492,7 +40584,7 @@
         <v>48</v>
       </c>
       <c r="C216" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D216" s="153">
         <v>150</v>
@@ -40515,7 +40607,7 @@
         <v>48</v>
       </c>
       <c r="C217" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D217" s="153">
         <v>150</v>
@@ -40538,7 +40630,7 @@
         <v>48</v>
       </c>
       <c r="C218" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D218" s="153">
         <v>150</v>
@@ -40561,7 +40653,7 @@
         <v>48</v>
       </c>
       <c r="C219" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D219" s="153">
         <v>120000</v>
@@ -40607,7 +40699,7 @@
         <v>49</v>
       </c>
       <c r="C221" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D221" s="153">
         <v>150</v>
@@ -40630,7 +40722,7 @@
         <v>49</v>
       </c>
       <c r="C222" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D222" s="153">
         <v>150</v>
@@ -40653,7 +40745,7 @@
         <v>49</v>
       </c>
       <c r="C223" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D223" s="153">
         <v>150</v>
@@ -40676,7 +40768,7 @@
         <v>49</v>
       </c>
       <c r="C224" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D224" s="153">
         <v>120000</v>
@@ -40722,7 +40814,7 @@
         <v>50</v>
       </c>
       <c r="C226" s="149" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D226" s="153">
         <v>150</v>
@@ -40745,7 +40837,7 @@
         <v>50</v>
       </c>
       <c r="C227" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D227" s="153">
         <v>150</v>
@@ -40768,7 +40860,7 @@
         <v>50</v>
       </c>
       <c r="C228" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D228" s="153">
         <v>150</v>
@@ -40791,7 +40883,7 @@
         <v>50</v>
       </c>
       <c r="C229" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D229" s="153">
         <v>120000</v>
@@ -40929,7 +41021,7 @@
         <v>53</v>
       </c>
       <c r="C235" s="158" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D235" s="156">
         <v>200</v>
@@ -40952,7 +41044,7 @@
         <v>53</v>
       </c>
       <c r="C236" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D236" s="156">
         <v>240000</v>
@@ -41044,7 +41136,7 @@
         <v>54</v>
       </c>
       <c r="C240" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D240" s="156">
         <v>200</v>
@@ -41067,7 +41159,7 @@
         <v>54</v>
       </c>
       <c r="C241" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D241" s="156">
         <v>240000</v>
@@ -41159,7 +41251,7 @@
         <v>55</v>
       </c>
       <c r="C245" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D245" s="156">
         <v>200</v>
@@ -41182,7 +41274,7 @@
         <v>55</v>
       </c>
       <c r="C246" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D246" s="156">
         <v>240000</v>
@@ -41251,7 +41343,7 @@
         <v>56</v>
       </c>
       <c r="C249" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D249" s="156">
         <v>200</v>
@@ -41274,7 +41366,7 @@
         <v>56</v>
       </c>
       <c r="C250" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D250" s="156">
         <v>200</v>
@@ -41297,7 +41389,7 @@
         <v>56</v>
       </c>
       <c r="C251" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D251" s="156">
         <v>240000</v>
@@ -41366,7 +41458,7 @@
         <v>57</v>
       </c>
       <c r="C254" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D254" s="156">
         <v>200</v>
@@ -41389,7 +41481,7 @@
         <v>57</v>
       </c>
       <c r="C255" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D255" s="156">
         <v>200</v>
@@ -41412,7 +41504,7 @@
         <v>57</v>
       </c>
       <c r="C256" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D256" s="156">
         <v>240000</v>
@@ -41481,7 +41573,7 @@
         <v>58</v>
       </c>
       <c r="C259" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D259" s="156">
         <v>200</v>
@@ -41504,7 +41596,7 @@
         <v>58</v>
       </c>
       <c r="C260" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D260" s="156">
         <v>200</v>
@@ -41527,7 +41619,7 @@
         <v>58</v>
       </c>
       <c r="C261" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D261" s="156">
         <v>240000</v>
@@ -41573,7 +41665,7 @@
         <v>59</v>
       </c>
       <c r="C263" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D263" s="156">
         <v>200</v>
@@ -41596,7 +41688,7 @@
         <v>59</v>
       </c>
       <c r="C264" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D264" s="156">
         <v>200</v>
@@ -41619,7 +41711,7 @@
         <v>59</v>
       </c>
       <c r="C265" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D265" s="156">
         <v>200</v>
@@ -41642,7 +41734,7 @@
         <v>59</v>
       </c>
       <c r="C266" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D266" s="156">
         <v>240000</v>
@@ -41688,7 +41780,7 @@
         <v>60</v>
       </c>
       <c r="C268" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D268" s="156">
         <v>200</v>
@@ -41711,7 +41803,7 @@
         <v>60</v>
       </c>
       <c r="C269" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D269" s="156">
         <v>200</v>
@@ -41734,7 +41826,7 @@
         <v>60</v>
       </c>
       <c r="C270" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D270" s="156">
         <v>200</v>
@@ -41757,7 +41849,7 @@
         <v>60</v>
       </c>
       <c r="C271" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D271" s="156">
         <v>240000</v>
@@ -41803,7 +41895,7 @@
         <v>61</v>
       </c>
       <c r="C273" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D273" s="156">
         <v>200</v>
@@ -41826,7 +41918,7 @@
         <v>61</v>
       </c>
       <c r="C274" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D274" s="156">
         <v>200</v>
@@ -41849,7 +41941,7 @@
         <v>61</v>
       </c>
       <c r="C275" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D275" s="156">
         <v>200</v>
@@ -41872,7 +41964,7 @@
         <v>61</v>
       </c>
       <c r="C276" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D276" s="156">
         <v>240000</v>
@@ -41918,7 +42010,7 @@
         <v>62</v>
       </c>
       <c r="C278" s="155" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D278" s="156">
         <v>200</v>
@@ -41941,7 +42033,7 @@
         <v>62</v>
       </c>
       <c r="C279" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D279" s="156">
         <v>200</v>
@@ -41964,7 +42056,7 @@
         <v>62</v>
       </c>
       <c r="C280" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D280" s="156">
         <v>200</v>
@@ -41987,7 +42079,7 @@
         <v>62</v>
       </c>
       <c r="C281" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D281" s="156">
         <v>240000</v>
@@ -42125,7 +42217,7 @@
         <v>65</v>
       </c>
       <c r="C287" s="151" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D287" s="153">
         <v>300</v>
@@ -42148,7 +42240,7 @@
         <v>65</v>
       </c>
       <c r="C288" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D288" s="153">
         <v>480000</v>
@@ -42240,7 +42332,7 @@
         <v>66</v>
       </c>
       <c r="C292" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D292" s="153">
         <v>300</v>
@@ -42263,7 +42355,7 @@
         <v>66</v>
       </c>
       <c r="C293" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D293" s="153">
         <v>480000</v>
@@ -42355,7 +42447,7 @@
         <v>67</v>
       </c>
       <c r="C297" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D297" s="153">
         <v>300</v>
@@ -42378,7 +42470,7 @@
         <v>67</v>
       </c>
       <c r="C298" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D298" s="153">
         <v>480000</v>
@@ -42447,7 +42539,7 @@
         <v>68</v>
       </c>
       <c r="C301" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D301" s="153">
         <v>300</v>
@@ -42470,7 +42562,7 @@
         <v>68</v>
       </c>
       <c r="C302" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D302" s="153">
         <v>300</v>
@@ -42493,7 +42585,7 @@
         <v>68</v>
       </c>
       <c r="C303" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D303" s="153">
         <v>480000</v>
@@ -42562,7 +42654,7 @@
         <v>69</v>
       </c>
       <c r="C306" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D306" s="153">
         <v>300</v>
@@ -42585,7 +42677,7 @@
         <v>69</v>
       </c>
       <c r="C307" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D307" s="153">
         <v>300</v>
@@ -42608,7 +42700,7 @@
         <v>69</v>
       </c>
       <c r="C308" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D308" s="153">
         <v>480000</v>
@@ -42677,7 +42769,7 @@
         <v>70</v>
       </c>
       <c r="C311" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D311" s="153">
         <v>300</v>
@@ -42700,7 +42792,7 @@
         <v>70</v>
       </c>
       <c r="C312" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D312" s="153">
         <v>300</v>
@@ -42723,7 +42815,7 @@
         <v>70</v>
       </c>
       <c r="C313" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D313" s="153">
         <v>480000</v>
@@ -42769,7 +42861,7 @@
         <v>71</v>
       </c>
       <c r="C315" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D315" s="153">
         <v>300</v>
@@ -42792,7 +42884,7 @@
         <v>71</v>
       </c>
       <c r="C316" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D316" s="153">
         <v>300</v>
@@ -42815,7 +42907,7 @@
         <v>71</v>
       </c>
       <c r="C317" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D317" s="153">
         <v>300</v>
@@ -42838,7 +42930,7 @@
         <v>71</v>
       </c>
       <c r="C318" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D318" s="153">
         <v>480000</v>
@@ -42884,7 +42976,7 @@
         <v>72</v>
       </c>
       <c r="C320" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D320" s="153">
         <v>300</v>
@@ -42907,7 +42999,7 @@
         <v>72</v>
       </c>
       <c r="C321" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D321" s="153">
         <v>300</v>
@@ -42930,7 +43022,7 @@
         <v>72</v>
       </c>
       <c r="C322" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D322" s="153">
         <v>300</v>
@@ -42953,7 +43045,7 @@
         <v>72</v>
       </c>
       <c r="C323" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D323" s="153">
         <v>480000</v>
@@ -42999,7 +43091,7 @@
         <v>73</v>
       </c>
       <c r="C325" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D325" s="153">
         <v>300</v>
@@ -43022,7 +43114,7 @@
         <v>73</v>
       </c>
       <c r="C326" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D326" s="153">
         <v>300</v>
@@ -43045,7 +43137,7 @@
         <v>73</v>
       </c>
       <c r="C327" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D327" s="153">
         <v>300</v>
@@ -43068,7 +43160,7 @@
         <v>73</v>
       </c>
       <c r="C328" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D328" s="153">
         <v>480000</v>
@@ -43114,7 +43206,7 @@
         <v>74</v>
       </c>
       <c r="C330" s="149" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D330" s="153">
         <v>300</v>
@@ -43137,7 +43229,7 @@
         <v>74</v>
       </c>
       <c r="C331" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D331" s="153">
         <v>300</v>
@@ -43160,7 +43252,7 @@
         <v>74</v>
       </c>
       <c r="C332" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D332" s="153">
         <v>300</v>
@@ -43183,7 +43275,7 @@
         <v>74</v>
       </c>
       <c r="C333" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D333" s="153">
         <v>480000</v>
@@ -43318,7 +43410,7 @@
         <v>77</v>
       </c>
       <c r="C339" s="158" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D339" s="156">
         <v>400</v>
@@ -43340,7 +43432,7 @@
         <v>77</v>
       </c>
       <c r="C340" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D340" s="156">
         <v>960000</v>
@@ -43428,7 +43520,7 @@
         <v>78</v>
       </c>
       <c r="C344" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D344" s="156">
         <v>400</v>
@@ -43450,7 +43542,7 @@
         <v>78</v>
       </c>
       <c r="C345" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D345" s="156">
         <v>960000</v>
@@ -43538,7 +43630,7 @@
         <v>79</v>
       </c>
       <c r="C349" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D349" s="156">
         <v>400</v>
@@ -43560,7 +43652,7 @@
         <v>79</v>
       </c>
       <c r="C350" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D350" s="156">
         <v>960000</v>
@@ -43626,7 +43718,7 @@
         <v>80</v>
       </c>
       <c r="C353" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D353" s="156">
         <v>400</v>
@@ -43648,7 +43740,7 @@
         <v>80</v>
       </c>
       <c r="C354" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D354" s="156">
         <v>400</v>
@@ -43670,7 +43762,7 @@
         <v>80</v>
       </c>
       <c r="C355" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D355" s="156">
         <v>960000</v>
@@ -43736,7 +43828,7 @@
         <v>81</v>
       </c>
       <c r="C358" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D358" s="156">
         <v>400</v>
@@ -43758,7 +43850,7 @@
         <v>81</v>
       </c>
       <c r="C359" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D359" s="156">
         <v>400</v>
@@ -43780,7 +43872,7 @@
         <v>81</v>
       </c>
       <c r="C360" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D360" s="156">
         <v>960000</v>
@@ -43846,7 +43938,7 @@
         <v>82</v>
       </c>
       <c r="C363" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D363" s="156">
         <v>400</v>
@@ -43868,7 +43960,7 @@
         <v>82</v>
       </c>
       <c r="C364" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D364" s="156">
         <v>400</v>
@@ -43890,7 +43982,7 @@
         <v>82</v>
       </c>
       <c r="C365" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D365" s="156">
         <v>960000</v>
@@ -43934,7 +44026,7 @@
         <v>83</v>
       </c>
       <c r="C367" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D367" s="156">
         <v>400</v>
@@ -43956,7 +44048,7 @@
         <v>83</v>
       </c>
       <c r="C368" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D368" s="156">
         <v>400</v>
@@ -43978,7 +44070,7 @@
         <v>83</v>
       </c>
       <c r="C369" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D369" s="156">
         <v>400</v>
@@ -44000,7 +44092,7 @@
         <v>83</v>
       </c>
       <c r="C370" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D370" s="156">
         <v>960000</v>
@@ -44044,7 +44136,7 @@
         <v>84</v>
       </c>
       <c r="C372" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D372" s="156">
         <v>400</v>
@@ -44066,7 +44158,7 @@
         <v>84</v>
       </c>
       <c r="C373" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D373" s="156">
         <v>400</v>
@@ -44088,7 +44180,7 @@
         <v>84</v>
       </c>
       <c r="C374" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D374" s="156">
         <v>400</v>
@@ -44110,7 +44202,7 @@
         <v>84</v>
       </c>
       <c r="C375" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D375" s="156">
         <v>960000</v>
@@ -44154,7 +44246,7 @@
         <v>85</v>
       </c>
       <c r="C377" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D377" s="156">
         <v>400</v>
@@ -44176,7 +44268,7 @@
         <v>85</v>
       </c>
       <c r="C378" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D378" s="156">
         <v>400</v>
@@ -44198,7 +44290,7 @@
         <v>85</v>
       </c>
       <c r="C379" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D379" s="156">
         <v>400</v>
@@ -44220,7 +44312,7 @@
         <v>85</v>
       </c>
       <c r="C380" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D380" s="156">
         <v>960000</v>
@@ -44264,7 +44356,7 @@
         <v>86</v>
       </c>
       <c r="C382" s="155" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D382" s="156">
         <v>400</v>
@@ -44286,7 +44378,7 @@
         <v>86</v>
       </c>
       <c r="C383" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D383" s="156">
         <v>400</v>
@@ -44308,7 +44400,7 @@
         <v>86</v>
       </c>
       <c r="C384" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D384" s="156">
         <v>400</v>
@@ -44330,7 +44422,7 @@
         <v>86</v>
       </c>
       <c r="C385" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D385" s="156">
         <v>960000</v>
@@ -44462,7 +44554,7 @@
         <v>89</v>
       </c>
       <c r="C391" s="151" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D391" s="153">
         <v>500</v>
@@ -44484,7 +44576,7 @@
         <v>89</v>
       </c>
       <c r="C392" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D392" s="153">
         <v>1920000</v>
@@ -44572,7 +44664,7 @@
         <v>90</v>
       </c>
       <c r="C396" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D396" s="153">
         <v>500</v>
@@ -44594,7 +44686,7 @@
         <v>90</v>
       </c>
       <c r="C397" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D397" s="153">
         <v>1920000</v>
@@ -44682,7 +44774,7 @@
         <v>91</v>
       </c>
       <c r="C401" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D401" s="153">
         <v>500</v>
@@ -44704,7 +44796,7 @@
         <v>91</v>
       </c>
       <c r="C402" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D402" s="153">
         <v>1920000</v>
@@ -44770,7 +44862,7 @@
         <v>92</v>
       </c>
       <c r="C405" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D405" s="153">
         <v>500</v>
@@ -44792,7 +44884,7 @@
         <v>92</v>
       </c>
       <c r="C406" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D406" s="153">
         <v>500</v>
@@ -44814,7 +44906,7 @@
         <v>92</v>
       </c>
       <c r="C407" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D407" s="153">
         <v>1920000</v>
@@ -44880,7 +44972,7 @@
         <v>93</v>
       </c>
       <c r="C410" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D410" s="153">
         <v>500</v>
@@ -44902,7 +44994,7 @@
         <v>93</v>
       </c>
       <c r="C411" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D411" s="153">
         <v>500</v>
@@ -44924,7 +45016,7 @@
         <v>93</v>
       </c>
       <c r="C412" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D412" s="153">
         <v>1920000</v>
@@ -44990,7 +45082,7 @@
         <v>94</v>
       </c>
       <c r="C415" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D415" s="153">
         <v>500</v>
@@ -45012,7 +45104,7 @@
         <v>94</v>
       </c>
       <c r="C416" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D416" s="153">
         <v>500</v>
@@ -45034,7 +45126,7 @@
         <v>94</v>
       </c>
       <c r="C417" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D417" s="153">
         <v>1920000</v>
@@ -45078,7 +45170,7 @@
         <v>95</v>
       </c>
       <c r="C419" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D419" s="153">
         <v>500</v>
@@ -45100,7 +45192,7 @@
         <v>95</v>
       </c>
       <c r="C420" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D420" s="153">
         <v>500</v>
@@ -45122,7 +45214,7 @@
         <v>95</v>
       </c>
       <c r="C421" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D421" s="153">
         <v>500</v>
@@ -45144,7 +45236,7 @@
         <v>95</v>
       </c>
       <c r="C422" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D422" s="153">
         <v>1920000</v>
@@ -45188,7 +45280,7 @@
         <v>96</v>
       </c>
       <c r="C424" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D424" s="153">
         <v>500</v>
@@ -45210,7 +45302,7 @@
         <v>96</v>
       </c>
       <c r="C425" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D425" s="153">
         <v>500</v>
@@ -45232,7 +45324,7 @@
         <v>96</v>
       </c>
       <c r="C426" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D426" s="153">
         <v>500</v>
@@ -45254,7 +45346,7 @@
         <v>96</v>
       </c>
       <c r="C427" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D427" s="153">
         <v>1920000</v>
@@ -45298,7 +45390,7 @@
         <v>97</v>
       </c>
       <c r="C429" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D429" s="153">
         <v>500</v>
@@ -45320,7 +45412,7 @@
         <v>97</v>
       </c>
       <c r="C430" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D430" s="153">
         <v>500</v>
@@ -45342,7 +45434,7 @@
         <v>97</v>
       </c>
       <c r="C431" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D431" s="153">
         <v>500</v>
@@ -45364,7 +45456,7 @@
         <v>97</v>
       </c>
       <c r="C432" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D432" s="153">
         <v>1920000</v>
@@ -45408,7 +45500,7 @@
         <v>98</v>
       </c>
       <c r="C434" s="149" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D434" s="153">
         <v>500</v>
@@ -45430,7 +45522,7 @@
         <v>98</v>
       </c>
       <c r="C435" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D435" s="153">
         <v>500</v>
@@ -45452,7 +45544,7 @@
         <v>98</v>
       </c>
       <c r="C436" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D436" s="153">
         <v>500</v>
@@ -45474,7 +45566,7 @@
         <v>98</v>
       </c>
       <c r="C437" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D437" s="153">
         <v>1920000</v>
@@ -45606,7 +45698,7 @@
         <v>101</v>
       </c>
       <c r="C443" s="158" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D443" s="156">
         <v>600</v>
@@ -45628,7 +45720,7 @@
         <v>101</v>
       </c>
       <c r="C444" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D444" s="156">
         <v>5120000</v>
@@ -45716,7 +45808,7 @@
         <v>102</v>
       </c>
       <c r="C448" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D448" s="156">
         <v>600</v>
@@ -45738,7 +45830,7 @@
         <v>102</v>
       </c>
       <c r="C449" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D449" s="156">
         <v>5120000</v>
@@ -45826,7 +45918,7 @@
         <v>103</v>
       </c>
       <c r="C453" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D453" s="156">
         <v>600</v>
@@ -45848,7 +45940,7 @@
         <v>103</v>
       </c>
       <c r="C454" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D454" s="156">
         <v>5120000</v>
@@ -45914,7 +46006,7 @@
         <v>104</v>
       </c>
       <c r="C457" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D457" s="156">
         <v>600</v>
@@ -45936,7 +46028,7 @@
         <v>104</v>
       </c>
       <c r="C458" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D458" s="156">
         <v>600</v>
@@ -45958,7 +46050,7 @@
         <v>104</v>
       </c>
       <c r="C459" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D459" s="156">
         <v>5120000</v>
@@ -46024,7 +46116,7 @@
         <v>105</v>
       </c>
       <c r="C462" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D462" s="156">
         <v>600</v>
@@ -46046,7 +46138,7 @@
         <v>105</v>
       </c>
       <c r="C463" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D463" s="156">
         <v>600</v>
@@ -46068,7 +46160,7 @@
         <v>105</v>
       </c>
       <c r="C464" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D464" s="156">
         <v>5120000</v>
@@ -46134,7 +46226,7 @@
         <v>106</v>
       </c>
       <c r="C467" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D467" s="156">
         <v>600</v>
@@ -46156,7 +46248,7 @@
         <v>106</v>
       </c>
       <c r="C468" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D468" s="156">
         <v>600</v>
@@ -46178,7 +46270,7 @@
         <v>106</v>
       </c>
       <c r="C469" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D469" s="156">
         <v>5120000</v>
@@ -46222,7 +46314,7 @@
         <v>107</v>
       </c>
       <c r="C471" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D471" s="156">
         <v>600</v>
@@ -46244,7 +46336,7 @@
         <v>107</v>
       </c>
       <c r="C472" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D472" s="156">
         <v>600</v>
@@ -46266,7 +46358,7 @@
         <v>107</v>
       </c>
       <c r="C473" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D473" s="156">
         <v>600</v>
@@ -46288,7 +46380,7 @@
         <v>107</v>
       </c>
       <c r="C474" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D474" s="156">
         <v>5120000</v>
@@ -46332,7 +46424,7 @@
         <v>108</v>
       </c>
       <c r="C476" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D476" s="156">
         <v>600</v>
@@ -46354,7 +46446,7 @@
         <v>108</v>
       </c>
       <c r="C477" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D477" s="156">
         <v>600</v>
@@ -46376,7 +46468,7 @@
         <v>108</v>
       </c>
       <c r="C478" s="158" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D478" s="156">
         <v>600</v>
@@ -46398,7 +46490,7 @@
         <v>108</v>
       </c>
       <c r="C479" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D479" s="156">
         <v>5120000</v>
@@ -46442,7 +46534,7 @@
         <v>109</v>
       </c>
       <c r="C481" s="155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D481" s="156">
         <v>600</v>
@@ -46464,7 +46556,7 @@
         <v>109</v>
       </c>
       <c r="C482" s="155" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D482" s="156">
         <v>600</v>
@@ -46486,7 +46578,7 @@
         <v>109</v>
       </c>
       <c r="C483" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D483" s="156">
         <v>600</v>
@@ -46508,7 +46600,7 @@
         <v>109</v>
       </c>
       <c r="C484" s="158" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D484" s="156">
         <v>5120000</v>
@@ -46552,7 +46644,7 @@
         <v>110</v>
       </c>
       <c r="C486" s="155" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D486" s="156">
         <v>600</v>
@@ -46574,7 +46666,7 @@
         <v>110</v>
       </c>
       <c r="C487" s="155" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D487" s="156">
         <v>600</v>
@@ -46597,7 +46689,7 @@
         <v>110</v>
       </c>
       <c r="C488" s="158" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D488" s="156">
         <v>600</v>
@@ -46758,7 +46850,7 @@
         <v>113</v>
       </c>
       <c r="C495" s="151" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="D495" s="153">
         <v>800</v>
@@ -46780,7 +46872,7 @@
         <v>113</v>
       </c>
       <c r="C496" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D496" s="153">
         <v>10240000</v>
@@ -46870,7 +46962,7 @@
         <v>114</v>
       </c>
       <c r="C500" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D500" s="153">
         <v>800</v>
@@ -46893,7 +46985,7 @@
         <v>114</v>
       </c>
       <c r="C501" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D501" s="153">
         <v>10240000</v>
@@ -46985,7 +47077,7 @@
         <v>115</v>
       </c>
       <c r="C505" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D505" s="153">
         <v>800</v>
@@ -47008,7 +47100,7 @@
         <v>115</v>
       </c>
       <c r="C506" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D506" s="153">
         <v>10240000</v>
@@ -47076,7 +47168,7 @@
         <v>116</v>
       </c>
       <c r="C509" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D509" s="153">
         <v>800</v>
@@ -47099,7 +47191,7 @@
         <v>116</v>
       </c>
       <c r="C510" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D510" s="153">
         <v>800</v>
@@ -47122,7 +47214,7 @@
         <v>116</v>
       </c>
       <c r="C511" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D511" s="153">
         <v>10240000</v>
@@ -47191,7 +47283,7 @@
         <v>117</v>
       </c>
       <c r="C514" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D514" s="153">
         <v>800</v>
@@ -47214,7 +47306,7 @@
         <v>117</v>
       </c>
       <c r="C515" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D515" s="153">
         <v>800</v>
@@ -47236,7 +47328,7 @@
         <v>117</v>
       </c>
       <c r="C516" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D516" s="153">
         <v>10240000</v>
@@ -47302,7 +47394,7 @@
         <v>118</v>
       </c>
       <c r="C519" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D519" s="153">
         <v>800</v>
@@ -47324,7 +47416,7 @@
         <v>118</v>
       </c>
       <c r="C520" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D520" s="153">
         <v>800</v>
@@ -47346,7 +47438,7 @@
         <v>118</v>
       </c>
       <c r="C521" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D521" s="153">
         <v>10240000</v>
@@ -47390,7 +47482,7 @@
         <v>119</v>
       </c>
       <c r="C523" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D523" s="153">
         <v>800</v>
@@ -47412,7 +47504,7 @@
         <v>119</v>
       </c>
       <c r="C524" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D524" s="153">
         <v>800</v>
@@ -47434,7 +47526,7 @@
         <v>119</v>
       </c>
       <c r="C525" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D525" s="153">
         <v>800</v>
@@ -47456,7 +47548,7 @@
         <v>119</v>
       </c>
       <c r="C526" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D526" s="153">
         <v>10240000</v>
@@ -47500,7 +47592,7 @@
         <v>120</v>
       </c>
       <c r="C528" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D528" s="153">
         <v>800</v>
@@ -47522,7 +47614,7 @@
         <v>120</v>
       </c>
       <c r="C529" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D529" s="153">
         <v>800</v>
@@ -47544,7 +47636,7 @@
         <v>120</v>
       </c>
       <c r="C530" s="151" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="D530" s="153">
         <v>800</v>
@@ -47566,7 +47658,7 @@
         <v>120</v>
       </c>
       <c r="C531" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D531" s="153">
         <v>10240000</v>
@@ -47610,7 +47702,7 @@
         <v>121</v>
       </c>
       <c r="C533" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D533" s="153">
         <v>800</v>
@@ -47632,7 +47724,7 @@
         <v>121</v>
       </c>
       <c r="C534" s="149" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="D534" s="153">
         <v>800</v>
@@ -47654,7 +47746,7 @@
         <v>121</v>
       </c>
       <c r="C535" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D535" s="153">
         <v>800</v>
@@ -47676,7 +47768,7 @@
         <v>121</v>
       </c>
       <c r="C536" s="151" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="D536" s="153">
         <v>10240000</v>
@@ -47720,7 +47812,7 @@
         <v>122</v>
       </c>
       <c r="C538" s="149" t="s">
-        <v>66</v>
+        <v>702</v>
       </c>
       <c r="D538" s="153">
         <v>800</v>
@@ -47742,7 +47834,7 @@
         <v>122</v>
       </c>
       <c r="C539" s="149" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="D539" s="153">
         <v>800</v>
@@ -47764,7 +47856,7 @@
         <v>122</v>
       </c>
       <c r="C540" s="151" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="D540" s="153">
         <v>800</v>
@@ -48089,10 +48181,10 @@
   <dimension ref="A1:W1631"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C368" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C371" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C389" sqref="C389"/>
+      <selection pane="bottomRight" activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_4.6/task_xiaoxiaole_tower_week_server.xlsx
+++ b/config_4.6/task_xiaoxiaole_tower_week_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="709">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3109,10 +3109,6 @@
     <t>单局消除9个及以上BAR</t>
   </si>
   <si>
-    <t>item_id_5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>item_id_4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3126,14 +3122,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
@@ -3260,10 +3248,6 @@
   </si>
   <si>
     <t>bet_spend</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个铃铛，30个西瓜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>累计消除30个苹果，30个铃铛，15个7</t>
@@ -3401,14 +3385,6 @@
     <t>累计消除150个西瓜，80个7，80个BAR</t>
   </si>
   <si>
-    <t>单局消除6个及以上7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除6个及以上BAR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>累计消除200个苹果，200个铃铛，100个7</t>
   </si>
   <si>
@@ -3434,18 +3410,6 @@
   </si>
   <si>
     <t>累计消除200个西瓜，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上苹果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除9个及以上铃铛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现一次幸运时刻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>累计消除300个苹果，300个铃铛，150个7</t>
@@ -3475,14 +3439,6 @@
     <t>累计消除300个西瓜，150个7，150个BAR</t>
   </si>
   <si>
-    <t>单局消除9个及以上铃铛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除9个及以上西瓜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>累计消除400个苹果，400个铃铛，200个7</t>
   </si>
   <si>
@@ -3510,14 +3466,6 @@
     <t>累计消除400个西瓜，200个7，200个BAR</t>
   </si>
   <si>
-    <t>单局消除9个及以上7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除9个及以上BAR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>累计消除500个苹果，500个铃铛，250个7</t>
   </si>
   <si>
@@ -3543,10 +3491,6 @@
   </si>
   <si>
     <t>累计消除500个西瓜，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>出现两次幸运时刻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>累计消除600个苹果，600个铃铛，300个7</t>
@@ -3639,38 +3583,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>单局消除6个及以上西瓜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除6个及以上BAR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除9个及以上苹果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现一次幸运时刻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除9个及以上西瓜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除9个及以上7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局消除9个及以上BAR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现两次幸运时刻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -3702,6 +3614,85 @@
   </si>
   <si>
     <t>3,4,5</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，30个西瓜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上苹果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上铃铛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上西瓜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上BAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上苹果</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上铃铛</t>
+  </si>
+  <si>
+    <t>出现一次幸运时刻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上西瓜</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上7</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上BAR</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上苹果</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上铃铛</t>
+  </si>
+  <si>
+    <t>出现一次幸运时刻</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上西瓜</t>
+  </si>
+  <si>
+    <t>累计消除30个苹果，30个铃铛，30个西瓜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上铃铛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上BAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现一次幸运时刻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3823,7 +3814,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3881,6 +3872,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3974,7 +3971,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4427,6 +4424,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4714,10 +4714,10 @@
   <dimension ref="A1:W739"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D131"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4809,7 +4809,7 @@
         <v>482</v>
       </c>
       <c r="D2" s="118" t="s">
-        <v>572</v>
+        <v>704</v>
       </c>
       <c r="E2" s="118" t="s">
         <v>214</v>
@@ -4853,7 +4853,7 @@
         <v>482</v>
       </c>
       <c r="D3" s="118" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E3" s="118" t="s">
         <v>214</v>
@@ -4896,7 +4896,7 @@
         <v>482</v>
       </c>
       <c r="D4" s="118" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E4" s="118" t="s">
         <v>214</v>
@@ -4939,7 +4939,7 @@
         <v>482</v>
       </c>
       <c r="D5" s="118" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E5" s="118" t="s">
         <v>214</v>
@@ -4982,7 +4982,7 @@
         <v>482</v>
       </c>
       <c r="D6" s="118" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E6" s="118" t="s">
         <v>214</v>
@@ -5024,7 +5024,7 @@
         <v>482</v>
       </c>
       <c r="D7" s="118" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E7" s="118" t="s">
         <v>214</v>
@@ -5108,7 +5108,7 @@
         <v>483</v>
       </c>
       <c r="D9" s="119" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E9" s="119" t="s">
         <v>214</v>
@@ -5150,7 +5150,7 @@
         <v>483</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E10" s="119" t="s">
         <v>214</v>
@@ -5192,7 +5192,7 @@
         <v>483</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E11" s="119" t="s">
         <v>214</v>
@@ -5234,7 +5234,7 @@
         <v>483</v>
       </c>
       <c r="D12" s="119" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E12" s="119" t="s">
         <v>214</v>
@@ -5278,7 +5278,7 @@
         <v>483</v>
       </c>
       <c r="D13" s="119" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E13" s="119" t="s">
         <v>214</v>
@@ -5322,7 +5322,7 @@
         <v>483</v>
       </c>
       <c r="D14" s="119" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E14" s="119" t="s">
         <v>214</v>
@@ -5364,7 +5364,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="119" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E15" s="119" t="s">
         <v>214</v>
@@ -5406,7 +5406,7 @@
         <v>483</v>
       </c>
       <c r="D16" s="119" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E16" s="119" t="s">
         <v>214</v>
@@ -5448,7 +5448,7 @@
         <v>483</v>
       </c>
       <c r="D17" s="119" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E17" s="119" t="s">
         <v>214</v>
@@ -5532,7 +5532,7 @@
         <v>485</v>
       </c>
       <c r="D19" s="118" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E19" s="118" t="s">
         <v>214</v>
@@ -5574,7 +5574,7 @@
         <v>485</v>
       </c>
       <c r="D20" s="118" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E20" s="118" t="s">
         <v>214</v>
@@ -5616,7 +5616,7 @@
         <v>485</v>
       </c>
       <c r="D21" s="118" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E21" s="118" t="s">
         <v>214</v>
@@ -5658,7 +5658,7 @@
         <v>485</v>
       </c>
       <c r="D22" s="118" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E22" s="118" t="s">
         <v>214</v>
@@ -5700,7 +5700,7 @@
         <v>485</v>
       </c>
       <c r="D23" s="118" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E23" s="118" t="s">
         <v>214</v>
@@ -5742,7 +5742,7 @@
         <v>485</v>
       </c>
       <c r="D24" s="118" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E24" s="118" t="s">
         <v>214</v>
@@ -5784,7 +5784,7 @@
         <v>485</v>
       </c>
       <c r="D25" s="118" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E25" s="118" t="s">
         <v>214</v>
@@ -5826,7 +5826,7 @@
         <v>485</v>
       </c>
       <c r="D26" s="118" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E26" s="118" t="s">
         <v>214</v>
@@ -5868,7 +5868,7 @@
         <v>485</v>
       </c>
       <c r="D27" s="118" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E27" s="118" t="s">
         <v>214</v>
@@ -5904,13 +5904,13 @@
         <v>16527</v>
       </c>
       <c r="B28" s="127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="118" t="s">
         <v>487</v>
       </c>
-      <c r="D28" s="118" t="s">
-        <v>596</v>
+      <c r="D28" s="164" t="s">
+        <v>592</v>
       </c>
       <c r="E28" s="118" t="s">
         <v>214</v>
@@ -5946,13 +5946,13 @@
         <v>16528</v>
       </c>
       <c r="B29" s="127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="118" t="s">
         <v>487</v>
       </c>
-      <c r="D29" s="118" t="s">
-        <v>597</v>
+      <c r="D29" s="164" t="s">
+        <v>705</v>
       </c>
       <c r="E29" s="118" t="s">
         <v>214</v>
@@ -6036,7 +6036,7 @@
         <v>488</v>
       </c>
       <c r="D31" s="119" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E31" s="119" t="s">
         <v>214</v>
@@ -6080,7 +6080,7 @@
         <v>488</v>
       </c>
       <c r="D32" s="119" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E32" s="119" t="s">
         <v>214</v>
@@ -6124,7 +6124,7 @@
         <v>488</v>
       </c>
       <c r="D33" s="119" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E33" s="119" t="s">
         <v>214</v>
@@ -6166,7 +6166,7 @@
         <v>488</v>
       </c>
       <c r="D34" s="119" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E34" s="119" t="s">
         <v>214</v>
@@ -6208,7 +6208,7 @@
         <v>488</v>
       </c>
       <c r="D35" s="119" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E35" s="119" t="s">
         <v>214</v>
@@ -6250,7 +6250,7 @@
         <v>488</v>
       </c>
       <c r="D36" s="119" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E36" s="119" t="s">
         <v>214</v>
@@ -6292,7 +6292,7 @@
         <v>488</v>
       </c>
       <c r="D37" s="119" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E37" s="119" t="s">
         <v>214</v>
@@ -6334,7 +6334,7 @@
         <v>488</v>
       </c>
       <c r="D38" s="119" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E38" s="119" t="s">
         <v>214</v>
@@ -6376,7 +6376,7 @@
         <v>488</v>
       </c>
       <c r="D39" s="119" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E39" s="119" t="s">
         <v>214</v>
@@ -6412,13 +6412,13 @@
         <v>16539</v>
       </c>
       <c r="B40" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="119" t="s">
         <v>490</v>
       </c>
-      <c r="D40" s="119" t="s">
-        <v>597</v>
+      <c r="D40" s="164" t="s">
+        <v>593</v>
       </c>
       <c r="E40" s="119" t="s">
         <v>214</v>
@@ -6454,13 +6454,13 @@
         <v>16540</v>
       </c>
       <c r="B41" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="119" t="s">
         <v>490</v>
       </c>
-      <c r="D41" s="119" t="s">
-        <v>607</v>
+      <c r="D41" s="164" t="s">
+        <v>603</v>
       </c>
       <c r="E41" s="119" t="s">
         <v>214</v>
@@ -6544,7 +6544,7 @@
         <v>491</v>
       </c>
       <c r="D43" s="118" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E43" s="118" t="s">
         <v>214</v>
@@ -6586,7 +6586,7 @@
         <v>491</v>
       </c>
       <c r="D44" s="118" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E44" s="118" t="s">
         <v>214</v>
@@ -6628,7 +6628,7 @@
         <v>491</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E45" s="118" t="s">
         <v>214</v>
@@ -6670,7 +6670,7 @@
         <v>491</v>
       </c>
       <c r="D46" s="118" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E46" s="118" t="s">
         <v>214</v>
@@ -6712,7 +6712,7 @@
         <v>491</v>
       </c>
       <c r="D47" s="118" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E47" s="118" t="s">
         <v>214</v>
@@ -6754,7 +6754,7 @@
         <v>491</v>
       </c>
       <c r="D48" s="118" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E48" s="118" t="s">
         <v>214</v>
@@ -6796,7 +6796,7 @@
         <v>491</v>
       </c>
       <c r="D49" s="118" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E49" s="118" t="s">
         <v>214</v>
@@ -6838,7 +6838,7 @@
         <v>491</v>
       </c>
       <c r="D50" s="118" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E50" s="118" t="s">
         <v>214</v>
@@ -6880,7 +6880,7 @@
         <v>491</v>
       </c>
       <c r="D51" s="118" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E51" s="118" t="s">
         <v>214</v>
@@ -6921,8 +6921,8 @@
       <c r="C52" s="118" t="s">
         <v>493</v>
       </c>
-      <c r="D52" s="118" t="s">
-        <v>617</v>
+      <c r="D52" s="164" t="s">
+        <v>706</v>
       </c>
       <c r="E52" s="118" t="s">
         <v>214</v>
@@ -6963,8 +6963,8 @@
       <c r="C53" s="118" t="s">
         <v>493</v>
       </c>
-      <c r="D53" s="118" t="s">
-        <v>618</v>
+      <c r="D53" s="164" t="s">
+        <v>707</v>
       </c>
       <c r="E53" s="118" t="s">
         <v>214</v>
@@ -7049,7 +7049,7 @@
         <v>494</v>
       </c>
       <c r="D55" s="119" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E55" s="119" t="s">
         <v>214</v>
@@ -7091,7 +7091,7 @@
         <v>494</v>
       </c>
       <c r="D56" s="119" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E56" s="119" t="s">
         <v>214</v>
@@ -7133,7 +7133,7 @@
         <v>494</v>
       </c>
       <c r="D57" s="119" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E57" s="119" t="s">
         <v>214</v>
@@ -7175,7 +7175,7 @@
         <v>494</v>
       </c>
       <c r="D58" s="119" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E58" s="119" t="s">
         <v>214</v>
@@ -7217,7 +7217,7 @@
         <v>494</v>
       </c>
       <c r="D59" s="119" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E59" s="119" t="s">
         <v>214</v>
@@ -7259,7 +7259,7 @@
         <v>494</v>
       </c>
       <c r="D60" s="119" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E60" s="119" t="s">
         <v>214</v>
@@ -7301,7 +7301,7 @@
         <v>494</v>
       </c>
       <c r="D61" s="119" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E61" s="119" t="s">
         <v>214</v>
@@ -7343,7 +7343,7 @@
         <v>494</v>
       </c>
       <c r="D62" s="119" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E62" s="119" t="s">
         <v>214</v>
@@ -7385,7 +7385,7 @@
         <v>494</v>
       </c>
       <c r="D63" s="119" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E63" s="119" t="s">
         <v>214</v>
@@ -7427,7 +7427,7 @@
         <v>496</v>
       </c>
       <c r="D64" s="119" t="s">
-        <v>628</v>
+        <v>694</v>
       </c>
       <c r="E64" s="119" t="s">
         <v>214</v>
@@ -7469,7 +7469,7 @@
         <v>496</v>
       </c>
       <c r="D65" s="119" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="E65" s="119" t="s">
         <v>214</v>
@@ -7505,13 +7505,13 @@
         <v>16565</v>
       </c>
       <c r="B66" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="119" t="s">
         <v>497</v>
       </c>
-      <c r="D66" s="119" t="s">
-        <v>630</v>
+      <c r="D66" s="164" t="s">
+        <v>708</v>
       </c>
       <c r="E66" s="119" t="s">
         <v>214</v>
@@ -7595,7 +7595,7 @@
         <v>498</v>
       </c>
       <c r="D68" s="118" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E68" s="118" t="s">
         <v>214</v>
@@ -7640,7 +7640,7 @@
         <v>498</v>
       </c>
       <c r="D69" s="118" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E69" s="118" t="s">
         <v>214</v>
@@ -7685,7 +7685,7 @@
         <v>498</v>
       </c>
       <c r="D70" s="118" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E70" s="118" t="s">
         <v>214</v>
@@ -7727,7 +7727,7 @@
         <v>498</v>
       </c>
       <c r="D71" s="118" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E71" s="118" t="s">
         <v>214</v>
@@ -7769,7 +7769,7 @@
         <v>498</v>
       </c>
       <c r="D72" s="118" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="E72" s="118" t="s">
         <v>214</v>
@@ -7811,7 +7811,7 @@
         <v>498</v>
       </c>
       <c r="D73" s="118" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E73" s="118" t="s">
         <v>214</v>
@@ -7853,7 +7853,7 @@
         <v>498</v>
       </c>
       <c r="D74" s="118" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E74" s="118" t="s">
         <v>214</v>
@@ -7895,7 +7895,7 @@
         <v>498</v>
       </c>
       <c r="D75" s="118" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E75" s="118" t="s">
         <v>214</v>
@@ -7938,7 +7938,7 @@
         <v>498</v>
       </c>
       <c r="D76" s="118" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E76" s="118" t="s">
         <v>214</v>
@@ -7980,7 +7980,7 @@
         <v>500</v>
       </c>
       <c r="D77" s="118" t="s">
-        <v>640</v>
+        <v>695</v>
       </c>
       <c r="E77" s="118" t="s">
         <v>214</v>
@@ -8022,7 +8022,7 @@
         <v>500</v>
       </c>
       <c r="D78" s="118" t="s">
-        <v>641</v>
+        <v>697</v>
       </c>
       <c r="E78" s="118" t="s">
         <v>214</v>
@@ -8058,13 +8058,13 @@
         <v>16578</v>
       </c>
       <c r="B79" s="127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="118" t="s">
         <v>501</v>
       </c>
-      <c r="D79" s="118" t="s">
-        <v>630</v>
+      <c r="D79" s="164" t="s">
+        <v>708</v>
       </c>
       <c r="E79" s="118" t="s">
         <v>214</v>
@@ -8148,7 +8148,7 @@
         <v>502</v>
       </c>
       <c r="D81" s="119" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E81" s="119" t="s">
         <v>214</v>
@@ -8190,7 +8190,7 @@
         <v>502</v>
       </c>
       <c r="D82" s="119" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="E82" s="119" t="s">
         <v>214</v>
@@ -8232,7 +8232,7 @@
         <v>502</v>
       </c>
       <c r="D83" s="119" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E83" s="119" t="s">
         <v>214</v>
@@ -8274,7 +8274,7 @@
         <v>502</v>
       </c>
       <c r="D84" s="119" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="E84" s="119" t="s">
         <v>214</v>
@@ -8316,7 +8316,7 @@
         <v>502</v>
       </c>
       <c r="D85" s="119" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E85" s="119" t="s">
         <v>214</v>
@@ -8358,7 +8358,7 @@
         <v>502</v>
       </c>
       <c r="D86" s="119" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="E86" s="119" t="s">
         <v>214</v>
@@ -8399,7 +8399,7 @@
         <v>502</v>
       </c>
       <c r="D87" s="119" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="E87" s="119" t="s">
         <v>214</v>
@@ -8440,7 +8440,7 @@
         <v>502</v>
       </c>
       <c r="D88" s="119" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E88" s="119" t="s">
         <v>214</v>
@@ -8481,7 +8481,7 @@
         <v>502</v>
       </c>
       <c r="D89" s="119" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="E89" s="119" t="s">
         <v>214</v>
@@ -8522,7 +8522,7 @@
         <v>504</v>
       </c>
       <c r="D90" s="119" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
       <c r="E90" s="119" t="s">
         <v>214</v>
@@ -8563,7 +8563,7 @@
         <v>504</v>
       </c>
       <c r="D91" s="119" t="s">
-        <v>652</v>
+        <v>699</v>
       </c>
       <c r="E91" s="119" t="s">
         <v>214</v>
@@ -8605,7 +8605,7 @@
         <v>505</v>
       </c>
       <c r="D92" s="119" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="E92" s="119" t="s">
         <v>214</v>
@@ -8687,7 +8687,7 @@
         <v>506</v>
       </c>
       <c r="D94" s="118" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="E94" s="118" t="s">
         <v>214</v>
@@ -8728,7 +8728,7 @@
         <v>506</v>
       </c>
       <c r="D95" s="118" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="E95" s="118" t="s">
         <v>214</v>
@@ -8769,7 +8769,7 @@
         <v>506</v>
       </c>
       <c r="D96" s="118" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="E96" s="118" t="s">
         <v>214</v>
@@ -8810,7 +8810,7 @@
         <v>506</v>
       </c>
       <c r="D97" s="118" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="E97" s="118" t="s">
         <v>214</v>
@@ -8851,7 +8851,7 @@
         <v>506</v>
       </c>
       <c r="D98" s="118" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="E98" s="118" t="s">
         <v>214</v>
@@ -8892,7 +8892,7 @@
         <v>506</v>
       </c>
       <c r="D99" s="118" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="E99" s="118" t="s">
         <v>214</v>
@@ -8933,7 +8933,7 @@
         <v>506</v>
       </c>
       <c r="D100" s="118" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="E100" s="118" t="s">
         <v>214</v>
@@ -8974,7 +8974,7 @@
         <v>506</v>
       </c>
       <c r="D101" s="118" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="E101" s="118" t="s">
         <v>214</v>
@@ -9015,7 +9015,7 @@
         <v>506</v>
       </c>
       <c r="D102" s="118" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="E102" s="118" t="s">
         <v>214</v>
@@ -9056,7 +9056,7 @@
         <v>508</v>
       </c>
       <c r="D103" s="118" t="s">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="E103" s="118" t="s">
         <v>214</v>
@@ -9097,7 +9097,7 @@
         <v>508</v>
       </c>
       <c r="D104" s="118" t="s">
-        <v>531</v>
+        <v>701</v>
       </c>
       <c r="E104" s="118" t="s">
         <v>214</v>
@@ -9138,7 +9138,7 @@
         <v>509</v>
       </c>
       <c r="D105" s="118" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="E105" s="118" t="s">
         <v>214</v>
@@ -9220,7 +9220,7 @@
         <v>510</v>
       </c>
       <c r="D107" s="119" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E107" s="119" t="s">
         <v>214</v>
@@ -9261,7 +9261,7 @@
         <v>510</v>
       </c>
       <c r="D108" s="119" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="E108" s="119" t="s">
         <v>214</v>
@@ -9302,7 +9302,7 @@
         <v>510</v>
       </c>
       <c r="D109" s="119" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="E109" s="119" t="s">
         <v>214</v>
@@ -9343,7 +9343,7 @@
         <v>510</v>
       </c>
       <c r="D110" s="119" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="E110" s="119" t="s">
         <v>214</v>
@@ -9384,7 +9384,7 @@
         <v>510</v>
       </c>
       <c r="D111" s="119" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="E111" s="119" t="s">
         <v>214</v>
@@ -9425,7 +9425,7 @@
         <v>510</v>
       </c>
       <c r="D112" s="119" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="E112" s="119" t="s">
         <v>214</v>
@@ -9466,7 +9466,7 @@
         <v>510</v>
       </c>
       <c r="D113" s="119" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="E113" s="119" t="s">
         <v>214</v>
@@ -9507,7 +9507,7 @@
         <v>510</v>
       </c>
       <c r="D114" s="119" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="E114" s="119" t="s">
         <v>214</v>
@@ -9548,7 +9548,7 @@
         <v>510</v>
       </c>
       <c r="D115" s="119" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="E115" s="119" t="s">
         <v>214</v>
@@ -9589,7 +9589,7 @@
         <v>512</v>
       </c>
       <c r="D116" s="119" t="s">
-        <v>530</v>
+        <v>701</v>
       </c>
       <c r="E116" s="119" t="s">
         <v>214</v>
@@ -9630,7 +9630,7 @@
         <v>512</v>
       </c>
       <c r="D117" s="119" t="s">
-        <v>531</v>
+        <v>703</v>
       </c>
       <c r="E117" s="119" t="s">
         <v>214</v>
@@ -9671,7 +9671,7 @@
         <v>513</v>
       </c>
       <c r="D118" s="119" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="E118" s="119" t="s">
         <v>214</v>
@@ -9753,7 +9753,7 @@
         <v>514</v>
       </c>
       <c r="D120" s="118" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="E120" s="118" t="s">
         <v>214</v>
@@ -9794,7 +9794,7 @@
         <v>514</v>
       </c>
       <c r="D121" s="118" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="E121" s="118" t="s">
         <v>214</v>
@@ -9835,7 +9835,7 @@
         <v>514</v>
       </c>
       <c r="D122" s="118" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E122" s="118" t="s">
         <v>214</v>
@@ -9876,7 +9876,7 @@
         <v>514</v>
       </c>
       <c r="D123" s="118" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="E123" s="118" t="s">
         <v>214</v>
@@ -9917,7 +9917,7 @@
         <v>514</v>
       </c>
       <c r="D124" s="118" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="E124" s="118" t="s">
         <v>214</v>
@@ -9958,7 +9958,7 @@
         <v>514</v>
       </c>
       <c r="D125" s="118" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E125" s="118" t="s">
         <v>214</v>
@@ -9999,7 +9999,7 @@
         <v>514</v>
       </c>
       <c r="D126" s="118" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="E126" s="118" t="s">
         <v>214</v>
@@ -10040,7 +10040,7 @@
         <v>514</v>
       </c>
       <c r="D127" s="118" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="E127" s="118" t="s">
         <v>214</v>
@@ -10081,7 +10081,7 @@
         <v>514</v>
       </c>
       <c r="D128" s="118" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="E128" s="118" t="s">
         <v>214</v>
@@ -10204,7 +10204,7 @@
         <v>517</v>
       </c>
       <c r="D131" s="118" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="E131" s="118" t="s">
         <v>214</v>
@@ -16993,10 +16993,10 @@
   <dimension ref="A1:I733"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -17075,11 +17075,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="135" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E3" s="140"/>
       <c r="F3" s="136" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G3" s="137" t="s">
         <v>210</v>
@@ -17099,11 +17099,11 @@
         <v>3</v>
       </c>
       <c r="D4" s="135" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="E4" s="140"/>
       <c r="F4" s="136" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G4" s="137" t="s">
         <v>208</v>
@@ -17123,11 +17123,11 @@
         <v>4</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="E5" s="140"/>
       <c r="F5" s="136" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G5" s="137" t="s">
         <v>208</v>
@@ -17147,7 +17147,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="135" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E6" s="140"/>
       <c r="F6" s="136" t="s">
@@ -17171,7 +17171,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="E7" s="140"/>
       <c r="F7" s="136" t="s">
@@ -17195,7 +17195,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="143" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E8" s="144"/>
       <c r="F8" s="145" t="s">
@@ -17219,7 +17219,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="143" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E9" s="144"/>
       <c r="F9" s="145" t="s">
@@ -17243,7 +17243,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="143" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E10" s="144"/>
       <c r="F10" s="145" t="s">
@@ -17267,7 +17267,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="143" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E11" s="144"/>
       <c r="F11" s="145" t="s">
@@ -17291,7 +17291,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="143" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E12" s="144"/>
       <c r="F12" s="145" t="s">
@@ -17315,7 +17315,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="E13" s="144"/>
       <c r="F13" s="145" t="s">
@@ -17339,7 +17339,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="143" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="E14" s="144"/>
       <c r="F14" s="145" t="s">
@@ -17363,7 +17363,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="143" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E15" s="144"/>
       <c r="F15" s="145" t="s">
@@ -17387,7 +17387,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="143" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E16" s="144"/>
       <c r="F16" s="145" t="s">
@@ -17411,7 +17411,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="143" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="E17" s="144"/>
       <c r="F17" s="145" t="s">
@@ -17675,7 +17675,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="115" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E28" s="114"/>
       <c r="F28" s="136" t="s">
@@ -17963,7 +17963,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="143" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E40" s="161"/>
       <c r="F40" s="145" t="s">
@@ -18291,7 +18291,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="115" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E52" s="88"/>
       <c r="F52" s="136" t="s">
@@ -18581,7 +18581,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="143" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E64" s="144"/>
       <c r="F64" s="145" t="s">
@@ -18893,7 +18893,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="115" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E77" s="82"/>
       <c r="F77" s="136" t="s">
@@ -19205,7 +19205,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="143" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E90" s="144"/>
       <c r="F90" s="145" t="s">
@@ -19517,7 +19517,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="115" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E103" s="82"/>
       <c r="F103" s="136" t="s">
@@ -19565,7 +19565,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="105" t="s">
-        <v>538</v>
+        <v>211</v>
       </c>
       <c r="E105" s="82"/>
       <c r="F105" s="136" t="s">
@@ -19829,7 +19829,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="143" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E116" s="143"/>
       <c r="F116" s="145" t="s">
@@ -19877,7 +19877,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="143" t="s">
-        <v>538</v>
+        <v>211</v>
       </c>
       <c r="E118" s="143"/>
       <c r="F118" s="145" t="s">
@@ -19901,7 +19901,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="115" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="E119" s="83"/>
       <c r="F119" s="136" t="s">
@@ -20141,7 +20141,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="115" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E129" s="82"/>
       <c r="F129" s="136" t="s">
@@ -20189,7 +20189,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="105" t="s">
-        <v>537</v>
+        <v>687</v>
       </c>
       <c r="E131" s="82"/>
       <c r="F131" s="136" t="s">
@@ -25638,8 +25638,8 @@
   <dimension ref="A1:I959"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -34920,10 +34920,10 @@
   <dimension ref="A1:I594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C458" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D209" sqref="D209"/>
+      <selection pane="bottomRight" activeCell="D470" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -34972,7 +34972,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E2" s="149">
         <v>2</v>
@@ -34982,7 +34982,7 @@
         <v>累计消除30个苹果，30个铃铛，30个西瓜</v>
       </c>
       <c r="G2" s="118" t="s">
-        <v>572</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="131" customFormat="1">
@@ -35006,7 +35006,7 @@
         <v>累计消除30个苹果，30个铃铛，30个西瓜</v>
       </c>
       <c r="G3" s="118" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="131" customFormat="1">
@@ -35030,7 +35030,7 @@
         <v>累计消除30个苹果，30个铃铛，30个西瓜</v>
       </c>
       <c r="G4" s="118" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="131" customFormat="1">
@@ -35054,7 +35054,7 @@
         <v>累计消除30个苹果，30个铃铛，30个西瓜</v>
       </c>
       <c r="G5" s="118" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="131" customFormat="1" ht="15" customHeight="1">
@@ -35069,7 +35069,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E6" s="149">
         <v>2</v>
@@ -35079,7 +35079,7 @@
         <v>累计消除30个苹果，30个铃铛，15个7</v>
       </c>
       <c r="G6" s="118" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="131" customFormat="1" ht="15" customHeight="1">
@@ -35104,7 +35104,7 @@
         <v>累计消除30个苹果，30个铃铛，15个7</v>
       </c>
       <c r="G7" s="118" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="131" customFormat="1">
@@ -35141,7 +35141,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="151" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D9" s="163">
         <v>15</v>
@@ -35154,7 +35154,7 @@
         <v>累计消除30个苹果，30个铃铛，15个7</v>
       </c>
       <c r="G9" s="119" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="131" customFormat="1">
@@ -35169,7 +35169,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E10" s="149">
         <v>2</v>
@@ -35179,7 +35179,7 @@
         <v>累计消除30个苹果，30个铃铛，15个BAR</v>
       </c>
       <c r="G10" s="119" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="131" customFormat="1">
@@ -35204,7 +35204,7 @@
         <v>累计消除30个苹果，30个铃铛，15个BAR</v>
       </c>
       <c r="G11" s="119" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="131" customFormat="1">
@@ -35229,7 +35229,7 @@
         <v>累计消除30个苹果，30个铃铛，15个BAR</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="131" customFormat="1">
@@ -35241,7 +35241,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D13" s="163">
         <v>15</v>
@@ -35254,7 +35254,7 @@
         <v>累计消除30个苹果，30个铃铛，15个BAR</v>
       </c>
       <c r="G13" s="119" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="131" customFormat="1">
@@ -35269,7 +35269,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E14" s="149">
         <v>2</v>
@@ -35279,7 +35279,7 @@
         <v>累计消除30个苹果，30个西瓜，15个7</v>
       </c>
       <c r="G14" s="119" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="131" customFormat="1">
@@ -35304,7 +35304,7 @@
         <v>累计消除30个苹果，30个西瓜，15个7</v>
       </c>
       <c r="G15" s="119" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="131" customFormat="1">
@@ -35316,7 +35316,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="151" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D16" s="163" t="s">
         <v>236</v>
@@ -35329,7 +35329,7 @@
         <v>累计消除30个苹果，30个西瓜，15个7</v>
       </c>
       <c r="G16" s="119" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="131" customFormat="1">
@@ -35341,7 +35341,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D17" s="163">
         <v>15</v>
@@ -35354,7 +35354,7 @@
         <v>累计消除30个苹果，30个西瓜，15个7</v>
       </c>
       <c r="G17" s="119" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="131" customFormat="1">
@@ -35369,7 +35369,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E18" s="149">
         <v>2</v>
@@ -35404,7 +35404,7 @@
         <v>累计消除30个苹果，30个西瓜，15个BAR</v>
       </c>
       <c r="G19" s="118" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="131" customFormat="1">
@@ -35416,7 +35416,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="151" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D20" s="163" t="s">
         <v>236</v>
@@ -35429,7 +35429,7 @@
         <v>累计消除30个苹果，30个西瓜，15个BAR</v>
       </c>
       <c r="G20" s="118" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="131" customFormat="1">
@@ -35441,7 +35441,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="151" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D21" s="163">
         <v>15</v>
@@ -35454,7 +35454,7 @@
         <v>累计消除30个苹果，30个西瓜，15个BAR</v>
       </c>
       <c r="G21" s="118" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="131" customFormat="1">
@@ -35469,7 +35469,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E22" s="149">
         <v>2</v>
@@ -35479,7 +35479,7 @@
         <v>累计消除30个苹果，15个7，15个BAR</v>
       </c>
       <c r="G22" s="118" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="131" customFormat="1">
@@ -35504,7 +35504,7 @@
         <v>累计消除30个苹果，15个7，15个BAR</v>
       </c>
       <c r="G23" s="118" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="131" customFormat="1">
@@ -35516,7 +35516,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="151" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D24" s="163">
         <v>15</v>
@@ -35529,7 +35529,7 @@
         <v>累计消除30个苹果，15个7，15个BAR</v>
       </c>
       <c r="G24" s="118" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="131" customFormat="1">
@@ -35541,7 +35541,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="151" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D25" s="163">
         <v>15</v>
@@ -35554,7 +35554,7 @@
         <v>累计消除30个苹果，15个7，15个BAR</v>
       </c>
       <c r="G25" s="118" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="123" customFormat="1">
@@ -35569,7 +35569,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E26" s="154">
         <v>2</v>
@@ -35579,7 +35579,7 @@
         <v>累计消除80个苹果，80个铃铛，80个西瓜</v>
       </c>
       <c r="G26" s="118" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="123" customFormat="1">
@@ -35604,7 +35604,7 @@
         <v>累计消除80个苹果，80个铃铛，80个西瓜</v>
       </c>
       <c r="G27" s="118" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="123" customFormat="1">
@@ -35628,8 +35628,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>累计消除80个苹果，80个铃铛，80个西瓜</v>
       </c>
-      <c r="G28" s="118" t="s">
-        <v>596</v>
+      <c r="G28" s="164" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="123" customFormat="1">
@@ -35653,8 +35653,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>累计消除80个苹果，80个铃铛，80个西瓜</v>
       </c>
-      <c r="G29" s="118" t="s">
-        <v>597</v>
+      <c r="G29" s="164" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="123" customFormat="1">
@@ -35668,7 +35668,7 @@
         <v>521</v>
       </c>
       <c r="D30" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E30" s="154">
         <v>3</v>
@@ -35693,7 +35693,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E31" s="154">
         <v>2</v>
@@ -35703,7 +35703,7 @@
         <v>累计消除80个苹果，80个铃铛，40个7</v>
       </c>
       <c r="G31" s="119" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -35728,7 +35728,7 @@
         <v>累计消除80个苹果，80个铃铛，40个7</v>
       </c>
       <c r="G32" s="119" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -35753,7 +35753,7 @@
         <v>累计消除80个苹果，80个铃铛，40个7</v>
       </c>
       <c r="G33" s="119" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -35765,7 +35765,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="156" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D34" s="163">
         <v>40</v>
@@ -35778,7 +35778,7 @@
         <v>累计消除80个苹果，80个铃铛，40个7</v>
       </c>
       <c r="G34" s="119" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -35793,7 +35793,7 @@
         <v>521</v>
       </c>
       <c r="D35" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E35" s="154">
         <v>3</v>
@@ -35803,7 +35803,7 @@
         <v>累计消除80个苹果，80个铃铛，40个7</v>
       </c>
       <c r="G35" s="119" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -35818,7 +35818,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E36" s="154">
         <v>2</v>
@@ -35828,7 +35828,7 @@
         <v>累计消除80个苹果，80个铃铛，40个BAR</v>
       </c>
       <c r="G36" s="119" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -35853,7 +35853,7 @@
         <v>累计消除80个苹果，80个铃铛，40个BAR</v>
       </c>
       <c r="G37" s="119" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -35867,7 +35867,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="156" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D38" s="163">
         <v>80</v>
@@ -35880,7 +35880,7 @@
         <v>累计消除80个苹果，80个铃铛，40个BAR</v>
       </c>
       <c r="G38" s="119" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -35894,7 +35894,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="156" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D39" s="163">
         <v>40</v>
@@ -35907,7 +35907,7 @@
         <v>累计消除80个苹果，80个铃铛，40个BAR</v>
       </c>
       <c r="G39" s="119" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -35924,7 +35924,7 @@
         <v>521</v>
       </c>
       <c r="D40" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E40" s="154">
         <v>3</v>
@@ -35933,8 +35933,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>累计消除80个苹果，80个铃铛，40个BAR</v>
       </c>
-      <c r="G40" s="119" t="s">
-        <v>597</v>
+      <c r="G40" s="164" t="s">
+        <v>690</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -35951,7 +35951,7 @@
         <v>31</v>
       </c>
       <c r="D41" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E41" s="154">
         <v>2</v>
@@ -35960,8 +35960,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>累计消除80个苹果，80个西瓜，40个7</v>
       </c>
-      <c r="G41" s="119" t="s">
-        <v>690</v>
+      <c r="G41" s="164" t="s">
+        <v>691</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -36002,7 +36002,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="156" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D43" s="163">
         <v>80</v>
@@ -36015,7 +36015,7 @@
         <v>累计消除80个苹果，80个西瓜，40个7</v>
       </c>
       <c r="G43" s="118" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -36029,7 +36029,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="156" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D44" s="163">
         <v>40</v>
@@ -36042,7 +36042,7 @@
         <v>累计消除80个苹果，80个西瓜，40个7</v>
       </c>
       <c r="G44" s="118" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -36059,7 +36059,7 @@
         <v>521</v>
       </c>
       <c r="D45" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E45" s="154">
         <v>3</v>
@@ -36069,7 +36069,7 @@
         <v>累计消除80个苹果，80个西瓜，40个7</v>
       </c>
       <c r="G45" s="118" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -36086,7 +36086,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E46" s="154">
         <v>2</v>
@@ -36096,7 +36096,7 @@
         <v>累计消除80个苹果，80个西瓜，40个BAR</v>
       </c>
       <c r="G46" s="118" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -36123,7 +36123,7 @@
         <v>累计消除80个苹果，80个西瓜，40个BAR</v>
       </c>
       <c r="G47" s="118" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -36137,7 +36137,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="156" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D48" s="163">
         <v>80</v>
@@ -36150,7 +36150,7 @@
         <v>累计消除80个苹果，80个西瓜，40个BAR</v>
       </c>
       <c r="G48" s="118" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -36164,7 +36164,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="156" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D49" s="163">
         <v>40</v>
@@ -36177,7 +36177,7 @@
         <v>累计消除80个苹果，80个西瓜，40个BAR</v>
       </c>
       <c r="G49" s="118" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -36194,7 +36194,7 @@
         <v>521</v>
       </c>
       <c r="D50" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E50" s="154">
         <v>3</v>
@@ -36204,7 +36204,7 @@
         <v>累计消除80个苹果，80个西瓜，40个BAR</v>
       </c>
       <c r="G50" s="118" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -36221,7 +36221,7 @@
         <v>31</v>
       </c>
       <c r="D51" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E51" s="154">
         <v>2</v>
@@ -36231,7 +36231,7 @@
         <v>累计消除80个苹果，40个7，40个BAR</v>
       </c>
       <c r="G51" s="118" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -36257,8 +36257,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>累计消除80个苹果，40个7，40个BAR</v>
       </c>
-      <c r="G52" s="118" t="s">
-        <v>617</v>
+      <c r="G52" s="164" t="s">
+        <v>692</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -36272,7 +36272,7 @@
         <v>12</v>
       </c>
       <c r="C53" s="156" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D53" s="163">
         <v>40</v>
@@ -36284,8 +36284,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>累计消除80个苹果，40个7，40个BAR</v>
       </c>
-      <c r="G53" s="118" t="s">
-        <v>691</v>
+      <c r="G53" s="164" t="s">
+        <v>693</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -36299,7 +36299,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="156" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D54" s="163">
         <v>40</v>
@@ -36329,7 +36329,7 @@
         <v>521</v>
       </c>
       <c r="D55" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E55" s="154">
         <v>3</v>
@@ -36339,7 +36339,7 @@
         <v>累计消除80个苹果，40个7，40个BAR</v>
       </c>
       <c r="G55" s="119" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -36356,7 +36356,7 @@
         <v>31</v>
       </c>
       <c r="D56" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E56" s="154">
         <v>2</v>
@@ -36366,7 +36366,7 @@
         <v>累计消除80个铃铛，40个7，40个BAR</v>
       </c>
       <c r="G56" s="119" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -36380,7 +36380,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="156" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D57" s="163">
         <v>80</v>
@@ -36393,7 +36393,7 @@
         <v>累计消除80个铃铛，40个7，40个BAR</v>
       </c>
       <c r="G57" s="119" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -36407,7 +36407,7 @@
         <v>13</v>
       </c>
       <c r="C58" s="156" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D58" s="163">
         <v>40</v>
@@ -36420,7 +36420,7 @@
         <v>累计消除80个铃铛，40个7，40个BAR</v>
       </c>
       <c r="G58" s="119" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -36434,7 +36434,7 @@
         <v>13</v>
       </c>
       <c r="C59" s="156" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D59" s="163">
         <v>40</v>
@@ -36447,7 +36447,7 @@
         <v>累计消除80个铃铛，40个7，40个BAR</v>
       </c>
       <c r="G59" s="119" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -36464,7 +36464,7 @@
         <v>521</v>
       </c>
       <c r="D60" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E60" s="154">
         <v>3</v>
@@ -36474,7 +36474,7 @@
         <v>累计消除80个铃铛，40个7，40个BAR</v>
       </c>
       <c r="G60" s="119" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -36491,7 +36491,7 @@
         <v>31</v>
       </c>
       <c r="D61" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E61" s="154">
         <v>2</v>
@@ -36501,7 +36501,7 @@
         <v>累计消除80个铃铛，80个西瓜，40个7</v>
       </c>
       <c r="G61" s="119" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -36515,7 +36515,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="156" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D62" s="163">
         <v>80</v>
@@ -36528,7 +36528,7 @@
         <v>累计消除80个铃铛，80个西瓜，40个7</v>
       </c>
       <c r="G62" s="119" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -36542,7 +36542,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="156" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D63" s="163">
         <v>80</v>
@@ -36555,7 +36555,7 @@
         <v>累计消除80个铃铛，80个西瓜，40个7</v>
       </c>
       <c r="G63" s="119" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -36569,7 +36569,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="156" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D64" s="163">
         <v>40</v>
@@ -36582,7 +36582,7 @@
         <v>累计消除80个铃铛，80个西瓜，40个7</v>
       </c>
       <c r="G64" s="119" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -36599,7 +36599,7 @@
         <v>521</v>
       </c>
       <c r="D65" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E65" s="154">
         <v>3</v>
@@ -36609,7 +36609,7 @@
         <v>累计消除80个铃铛，80个西瓜，40个7</v>
       </c>
       <c r="G65" s="119" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -36626,7 +36626,7 @@
         <v>31</v>
       </c>
       <c r="D66" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E66" s="154">
         <v>2</v>
@@ -36635,8 +36635,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>累计消除80个铃铛，80个西瓜，40个BAR</v>
       </c>
-      <c r="G66" s="119" t="s">
-        <v>693</v>
+      <c r="G66" s="164" t="s">
+        <v>696</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
@@ -36650,7 +36650,7 @@
         <v>15</v>
       </c>
       <c r="C67" s="156" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D67" s="163">
         <v>80</v>
@@ -36677,7 +36677,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="156" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D68" s="163">
         <v>80</v>
@@ -36690,7 +36690,7 @@
         <v>累计消除80个铃铛，80个西瓜，40个BAR</v>
       </c>
       <c r="G68" s="118" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -36704,7 +36704,7 @@
         <v>15</v>
       </c>
       <c r="C69" s="156" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D69" s="163">
         <v>40</v>
@@ -36717,7 +36717,7 @@
         <v>累计消除80个铃铛，80个西瓜，40个BAR</v>
       </c>
       <c r="G69" s="118" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -36734,7 +36734,7 @@
         <v>521</v>
       </c>
       <c r="D70" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E70" s="154">
         <v>3</v>
@@ -36744,7 +36744,7 @@
         <v>累计消除80个铃铛，80个西瓜，40个BAR</v>
       </c>
       <c r="G70" s="118" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -36761,7 +36761,7 @@
         <v>31</v>
       </c>
       <c r="D71" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E71" s="154">
         <v>2</v>
@@ -36771,7 +36771,7 @@
         <v>累计消除80个西瓜，40个7，40个BAR</v>
       </c>
       <c r="G71" s="118" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -36785,7 +36785,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="156" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D72" s="163">
         <v>80</v>
@@ -36798,7 +36798,7 @@
         <v>累计消除80个西瓜，40个7，40个BAR</v>
       </c>
       <c r="G72" s="118" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -36812,7 +36812,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="156" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D73" s="163">
         <v>40</v>
@@ -36825,7 +36825,7 @@
         <v>累计消除80个西瓜，40个7，40个BAR</v>
       </c>
       <c r="G73" s="118" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -36839,7 +36839,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="156" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D74" s="163">
         <v>40</v>
@@ -36852,7 +36852,7 @@
         <v>累计消除80个西瓜，40个7，40个BAR</v>
       </c>
       <c r="G74" s="118" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -36869,7 +36869,7 @@
         <v>521</v>
       </c>
       <c r="D75" s="163" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E75" s="154">
         <v>3</v>
@@ -36879,7 +36879,7 @@
         <v>累计消除80个西瓜，40个7，40个BAR</v>
       </c>
       <c r="G75" s="118" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -36896,7 +36896,7 @@
         <v>31</v>
       </c>
       <c r="D76" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E76" s="149">
         <v>2</v>
@@ -36906,7 +36906,7 @@
         <v>累计消除100个苹果，100个铃铛，100个西瓜</v>
       </c>
       <c r="G76" s="118" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="H76" s="125"/>
       <c r="I76" s="125"/>
@@ -36933,7 +36933,7 @@
         <v>累计消除100个苹果，100个铃铛，100个西瓜</v>
       </c>
       <c r="G77" s="118" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="H77" s="125"/>
       <c r="I77" s="125"/>
@@ -36960,7 +36960,7 @@
         <v>累计消除100个苹果，100个铃铛，100个西瓜</v>
       </c>
       <c r="G78" s="118" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H78" s="125"/>
       <c r="I78" s="125"/>
@@ -36974,7 +36974,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="151" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D79" s="163">
         <v>100</v>
@@ -36986,8 +36986,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>累计消除100个苹果，100个铃铛，100个西瓜</v>
       </c>
-      <c r="G79" s="118" t="s">
-        <v>693</v>
+      <c r="G79" s="164" t="s">
+        <v>696</v>
       </c>
       <c r="H79" s="125"/>
       <c r="I79" s="125"/>
@@ -37001,7 +37001,7 @@
         <v>17</v>
       </c>
       <c r="C80" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D80" s="163">
         <v>30000</v>
@@ -37031,7 +37031,7 @@
         <v>31</v>
       </c>
       <c r="D81" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E81" s="149">
         <v>2</v>
@@ -37041,7 +37041,7 @@
         <v>累计消除100个苹果，100个铃铛，50个7</v>
       </c>
       <c r="G81" s="119" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="H81" s="125"/>
       <c r="I81" s="125"/>
@@ -37068,7 +37068,7 @@
         <v>累计消除100个苹果，100个铃铛，50个7</v>
       </c>
       <c r="G82" s="119" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="H82" s="125"/>
       <c r="I82" s="125"/>
@@ -37095,7 +37095,7 @@
         <v>累计消除100个苹果，100个铃铛，50个7</v>
       </c>
       <c r="G83" s="119" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="H83" s="125"/>
       <c r="I83" s="125"/>
@@ -37109,7 +37109,7 @@
         <v>18</v>
       </c>
       <c r="C84" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D84" s="163">
         <v>50</v>
@@ -37122,7 +37122,7 @@
         <v>累计消除100个苹果，100个铃铛，50个7</v>
       </c>
       <c r="G84" s="119" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="H84" s="125"/>
       <c r="I84" s="125"/>
@@ -37136,7 +37136,7 @@
         <v>18</v>
       </c>
       <c r="C85" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D85" s="163">
         <v>30000</v>
@@ -37149,7 +37149,7 @@
         <v>累计消除100个苹果，100个铃铛，50个7</v>
       </c>
       <c r="G85" s="119" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="H85" s="125"/>
       <c r="I85" s="125"/>
@@ -37166,7 +37166,7 @@
         <v>31</v>
       </c>
       <c r="D86" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E86" s="149">
         <v>2</v>
@@ -37176,7 +37176,7 @@
         <v>累计消除100个苹果，100个铃铛，50个BAR</v>
       </c>
       <c r="G86" s="119" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="H86" s="125"/>
       <c r="I86" s="125"/>
@@ -37203,7 +37203,7 @@
         <v>累计消除100个苹果，100个铃铛，50个BAR</v>
       </c>
       <c r="G87" s="119" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="H87" s="125"/>
       <c r="I87" s="125"/>
@@ -37230,7 +37230,7 @@
         <v>累计消除100个苹果，100个铃铛，50个BAR</v>
       </c>
       <c r="G88" s="119" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="H88" s="125"/>
       <c r="I88" s="125"/>
@@ -37244,7 +37244,7 @@
         <v>19</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D89" s="163">
         <v>50</v>
@@ -37257,7 +37257,7 @@
         <v>累计消除100个苹果，100个铃铛，50个BAR</v>
       </c>
       <c r="G89" s="119" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="H89" s="125"/>
       <c r="I89" s="125"/>
@@ -37271,7 +37271,7 @@
         <v>19</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D90" s="163">
         <v>30000</v>
@@ -37284,7 +37284,7 @@
         <v>累计消除100个苹果，100个铃铛，50个BAR</v>
       </c>
       <c r="G90" s="119" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H90" s="125"/>
       <c r="I90" s="125"/>
@@ -37301,7 +37301,7 @@
         <v>31</v>
       </c>
       <c r="D91" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E91" s="149">
         <v>2</v>
@@ -37311,7 +37311,7 @@
         <v>累计消除100个苹果，100个西瓜，50个7</v>
       </c>
       <c r="G91" s="119" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H91" s="125"/>
       <c r="I91" s="125"/>
@@ -37338,7 +37338,7 @@
         <v>累计消除100个苹果，100个西瓜，50个7</v>
       </c>
       <c r="G92" s="119" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H92" s="125"/>
       <c r="I92" s="125"/>
@@ -37352,7 +37352,7 @@
         <v>20</v>
       </c>
       <c r="C93" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D93" s="163">
         <v>100</v>
@@ -37379,7 +37379,7 @@
         <v>20</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D94" s="163">
         <v>50</v>
@@ -37392,7 +37392,7 @@
         <v>累计消除100个苹果，100个西瓜，50个7</v>
       </c>
       <c r="G94" s="118" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="H94" s="125"/>
       <c r="I94" s="125"/>
@@ -37406,7 +37406,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D95" s="163">
         <v>30000</v>
@@ -37419,7 +37419,7 @@
         <v>累计消除100个苹果，100个西瓜，50个7</v>
       </c>
       <c r="G95" s="118" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="H95" s="125"/>
       <c r="I95" s="125"/>
@@ -37436,7 +37436,7 @@
         <v>31</v>
       </c>
       <c r="D96" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E96" s="149">
         <v>2</v>
@@ -37446,7 +37446,7 @@
         <v>累计消除100个苹果，100个西瓜，50个BAR</v>
       </c>
       <c r="G96" s="118" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="H96" s="125"/>
       <c r="I96" s="125"/>
@@ -37473,7 +37473,7 @@
         <v>累计消除100个苹果，100个西瓜，50个BAR</v>
       </c>
       <c r="G97" s="118" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="H97" s="125"/>
       <c r="I97" s="125"/>
@@ -37487,7 +37487,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D98" s="163">
         <v>100</v>
@@ -37500,7 +37500,7 @@
         <v>累计消除100个苹果，100个西瓜，50个BAR</v>
       </c>
       <c r="G98" s="118" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="H98" s="125"/>
       <c r="I98" s="125"/>
@@ -37514,7 +37514,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D99" s="163">
         <v>50</v>
@@ -37527,7 +37527,7 @@
         <v>累计消除100个苹果，100个西瓜，50个BAR</v>
       </c>
       <c r="G99" s="118" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="H99" s="125"/>
       <c r="I99" s="125"/>
@@ -37541,7 +37541,7 @@
         <v>21</v>
       </c>
       <c r="C100" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D100" s="163">
         <v>30000</v>
@@ -37554,7 +37554,7 @@
         <v>累计消除100个苹果，100个西瓜，50个BAR</v>
       </c>
       <c r="G100" s="118" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="H100" s="125"/>
       <c r="I100" s="125"/>
@@ -37571,7 +37571,7 @@
         <v>31</v>
       </c>
       <c r="D101" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E101" s="149">
         <v>2</v>
@@ -37581,7 +37581,7 @@
         <v>累计消除100个苹果，50个7，50个BAR</v>
       </c>
       <c r="G101" s="118" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="H101" s="125"/>
       <c r="I101" s="125"/>
@@ -37608,7 +37608,7 @@
         <v>累计消除100个苹果，50个7，50个BAR</v>
       </c>
       <c r="G102" s="118" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="H102" s="125"/>
       <c r="I102" s="125"/>
@@ -37622,7 +37622,7 @@
         <v>22</v>
       </c>
       <c r="C103" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D103" s="163">
         <v>50</v>
@@ -37635,7 +37635,7 @@
         <v>累计消除100个苹果，50个7，50个BAR</v>
       </c>
       <c r="G103" s="118" t="s">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="H103" s="125"/>
       <c r="I103" s="125"/>
@@ -37649,7 +37649,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D104" s="163">
         <v>50</v>
@@ -37662,7 +37662,7 @@
         <v>累计消除100个苹果，50个7，50个BAR</v>
       </c>
       <c r="G104" s="118" t="s">
-        <v>531</v>
+        <v>701</v>
       </c>
       <c r="H104" s="125"/>
       <c r="I104" s="125"/>
@@ -37676,7 +37676,7 @@
         <v>22</v>
       </c>
       <c r="C105" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D105" s="163">
         <v>30000</v>
@@ -37689,7 +37689,7 @@
         <v>累计消除100个苹果，50个7，50个BAR</v>
       </c>
       <c r="G105" s="118" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="H105" s="125"/>
       <c r="I105" s="125"/>
@@ -37706,7 +37706,7 @@
         <v>31</v>
       </c>
       <c r="D106" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E106" s="149">
         <v>2</v>
@@ -37741,7 +37741,7 @@
         <v>累计消除100个铃铛，50个7，50个BAR</v>
       </c>
       <c r="G107" s="119" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="131" customFormat="1">
@@ -37753,7 +37753,7 @@
         <v>23</v>
       </c>
       <c r="C108" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D108" s="163">
         <v>50</v>
@@ -37766,7 +37766,7 @@
         <v>累计消除100个铃铛，50个7，50个BAR</v>
       </c>
       <c r="G108" s="119" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="131" customFormat="1">
@@ -37778,7 +37778,7 @@
         <v>23</v>
       </c>
       <c r="C109" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D109" s="163">
         <v>50</v>
@@ -37791,7 +37791,7 @@
         <v>累计消除100个铃铛，50个7，50个BAR</v>
       </c>
       <c r="G109" s="119" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="131" customFormat="1">
@@ -37803,7 +37803,7 @@
         <v>23</v>
       </c>
       <c r="C110" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D110" s="163">
         <v>30000</v>
@@ -37816,7 +37816,7 @@
         <v>累计消除100个铃铛，50个7，50个BAR</v>
       </c>
       <c r="G110" s="119" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="131" customFormat="1">
@@ -37831,7 +37831,7 @@
         <v>31</v>
       </c>
       <c r="D111" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E111" s="149">
         <v>2</v>
@@ -37841,7 +37841,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个7</v>
       </c>
       <c r="G111" s="119" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="131" customFormat="1">
@@ -37866,7 +37866,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个7</v>
       </c>
       <c r="G112" s="119" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="131" customFormat="1">
@@ -37878,7 +37878,7 @@
         <v>24</v>
       </c>
       <c r="C113" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D113" s="163">
         <v>100</v>
@@ -37891,7 +37891,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个7</v>
       </c>
       <c r="G113" s="119" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="131" customFormat="1">
@@ -37903,7 +37903,7 @@
         <v>24</v>
       </c>
       <c r="C114" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D114" s="163">
         <v>50</v>
@@ -37916,7 +37916,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个7</v>
       </c>
       <c r="G114" s="119" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="131" customFormat="1">
@@ -37928,7 +37928,7 @@
         <v>24</v>
       </c>
       <c r="C115" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D115" s="163">
         <v>30000</v>
@@ -37941,7 +37941,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个7</v>
       </c>
       <c r="G115" s="119" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="131" customFormat="1">
@@ -37956,7 +37956,7 @@
         <v>31</v>
       </c>
       <c r="D116" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E116" s="149">
         <v>2</v>
@@ -37966,7 +37966,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个BAR</v>
       </c>
       <c r="G116" s="119" t="s">
-        <v>530</v>
+        <v>701</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="131" customFormat="1">
@@ -37991,7 +37991,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个BAR</v>
       </c>
       <c r="G117" s="119" t="s">
-        <v>531</v>
+        <v>703</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="131" customFormat="1">
@@ -38003,7 +38003,7 @@
         <v>25</v>
       </c>
       <c r="C118" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D118" s="163">
         <v>100</v>
@@ -38016,7 +38016,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个BAR</v>
       </c>
       <c r="G118" s="119" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="131" customFormat="1">
@@ -38028,7 +38028,7 @@
         <v>25</v>
       </c>
       <c r="C119" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D119" s="163">
         <v>50</v>
@@ -38053,7 +38053,7 @@
         <v>25</v>
       </c>
       <c r="C120" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D120" s="163">
         <v>30000</v>
@@ -38066,7 +38066,7 @@
         <v>累计消除100个铃铛，100个西瓜，50个BAR</v>
       </c>
       <c r="G120" s="118" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="131" customFormat="1">
@@ -38081,7 +38081,7 @@
         <v>31</v>
       </c>
       <c r="D121" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E121" s="149">
         <v>2</v>
@@ -38091,7 +38091,7 @@
         <v>累计消除100个西瓜，50个7，50个BAR</v>
       </c>
       <c r="G121" s="118" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="131" customFormat="1">
@@ -38103,7 +38103,7 @@
         <v>26</v>
       </c>
       <c r="C122" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D122" s="163">
         <v>100</v>
@@ -38116,7 +38116,7 @@
         <v>累计消除100个西瓜，50个7，50个BAR</v>
       </c>
       <c r="G122" s="118" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="131" customFormat="1">
@@ -38128,7 +38128,7 @@
         <v>26</v>
       </c>
       <c r="C123" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D123" s="163">
         <v>50</v>
@@ -38141,7 +38141,7 @@
         <v>累计消除100个西瓜，50个7，50个BAR</v>
       </c>
       <c r="G123" s="118" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="131" customFormat="1">
@@ -38153,7 +38153,7 @@
         <v>26</v>
       </c>
       <c r="C124" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D124" s="163">
         <v>50</v>
@@ -38166,7 +38166,7 @@
         <v>累计消除100个西瓜，50个7，50个BAR</v>
       </c>
       <c r="G124" s="118" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="131" customFormat="1">
@@ -38178,7 +38178,7 @@
         <v>26</v>
       </c>
       <c r="C125" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D125" s="163">
         <v>30000</v>
@@ -38191,7 +38191,7 @@
         <v>累计消除100个西瓜，50个7，50个BAR</v>
       </c>
       <c r="G125" s="118" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="131" customFormat="1">
@@ -38216,7 +38216,7 @@
         <v>单局消除6个及以上苹果</v>
       </c>
       <c r="G126" s="118" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="131" customFormat="1">
@@ -38241,7 +38241,7 @@
         <v>单局消除6个及以上铃铛</v>
       </c>
       <c r="G127" s="118" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="123" customFormat="1">
@@ -38256,7 +38256,7 @@
         <v>31</v>
       </c>
       <c r="D128" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E128" s="154">
         <v>2</v>
@@ -38266,7 +38266,7 @@
         <v>累计消除120个苹果，120个铃铛，120个西瓜</v>
       </c>
       <c r="G128" s="118" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="123" customFormat="1">
@@ -38328,7 +38328,7 @@
         <v>29</v>
       </c>
       <c r="C131" s="156" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D131" s="163">
         <v>120</v>
@@ -38341,7 +38341,7 @@
         <v>累计消除120个苹果，120个铃铛，120个西瓜</v>
       </c>
       <c r="G131" s="118" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="123" customFormat="1">
@@ -38353,7 +38353,7 @@
         <v>29</v>
       </c>
       <c r="C132" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D132" s="163">
         <v>60000</v>
@@ -38379,7 +38379,7 @@
         <v>31</v>
       </c>
       <c r="D133" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E133" s="154">
         <v>2</v>
@@ -38445,7 +38445,7 @@
         <v>30</v>
       </c>
       <c r="C136" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D136" s="163">
         <v>60</v>
@@ -38468,7 +38468,7 @@
         <v>30</v>
       </c>
       <c r="C137" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D137" s="163">
         <v>60000</v>
@@ -38494,7 +38494,7 @@
         <v>31</v>
       </c>
       <c r="D138" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E138" s="154">
         <v>2</v>
@@ -38560,7 +38560,7 @@
         <v>31</v>
       </c>
       <c r="C141" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D141" s="163">
         <v>60</v>
@@ -38583,7 +38583,7 @@
         <v>31</v>
       </c>
       <c r="C142" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D142" s="163">
         <v>60000</v>
@@ -38609,7 +38609,7 @@
         <v>31</v>
       </c>
       <c r="D143" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E143" s="154">
         <v>2</v>
@@ -38652,7 +38652,7 @@
         <v>32</v>
       </c>
       <c r="C145" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D145" s="163">
         <v>120</v>
@@ -38675,7 +38675,7 @@
         <v>32</v>
       </c>
       <c r="C146" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D146" s="163">
         <v>60</v>
@@ -38698,7 +38698,7 @@
         <v>32</v>
       </c>
       <c r="C147" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D147" s="163">
         <v>60000</v>
@@ -38724,7 +38724,7 @@
         <v>31</v>
       </c>
       <c r="D148" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E148" s="154">
         <v>2</v>
@@ -38767,7 +38767,7 @@
         <v>33</v>
       </c>
       <c r="C150" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D150" s="163">
         <v>120</v>
@@ -38790,7 +38790,7 @@
         <v>33</v>
       </c>
       <c r="C151" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D151" s="163">
         <v>60</v>
@@ -38813,7 +38813,7 @@
         <v>33</v>
       </c>
       <c r="C152" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D152" s="163">
         <v>60000</v>
@@ -38839,7 +38839,7 @@
         <v>31</v>
       </c>
       <c r="D153" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E153" s="154">
         <v>2</v>
@@ -38882,7 +38882,7 @@
         <v>34</v>
       </c>
       <c r="C155" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D155" s="163">
         <v>60</v>
@@ -38905,7 +38905,7 @@
         <v>34</v>
       </c>
       <c r="C156" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D156" s="163">
         <v>60</v>
@@ -38928,7 +38928,7 @@
         <v>34</v>
       </c>
       <c r="C157" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D157" s="163">
         <v>60000</v>
@@ -38954,7 +38954,7 @@
         <v>31</v>
       </c>
       <c r="D158" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E158" s="154">
         <v>2</v>
@@ -38997,7 +38997,7 @@
         <v>35</v>
       </c>
       <c r="C160" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D160" s="163">
         <v>60</v>
@@ -39020,7 +39020,7 @@
         <v>35</v>
       </c>
       <c r="C161" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D161" s="163">
         <v>60</v>
@@ -39043,7 +39043,7 @@
         <v>35</v>
       </c>
       <c r="C162" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D162" s="163">
         <v>60000</v>
@@ -39069,7 +39069,7 @@
         <v>31</v>
       </c>
       <c r="D163" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E163" s="154">
         <v>2</v>
@@ -39112,7 +39112,7 @@
         <v>36</v>
       </c>
       <c r="C165" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D165" s="163">
         <v>120</v>
@@ -39135,7 +39135,7 @@
         <v>36</v>
       </c>
       <c r="C166" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D166" s="163">
         <v>60</v>
@@ -39158,7 +39158,7 @@
         <v>36</v>
       </c>
       <c r="C167" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D167" s="163">
         <v>60000</v>
@@ -39184,7 +39184,7 @@
         <v>31</v>
       </c>
       <c r="D168" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E168" s="154">
         <v>2</v>
@@ -39227,7 +39227,7 @@
         <v>37</v>
       </c>
       <c r="C170" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D170" s="163">
         <v>120</v>
@@ -39250,7 +39250,7 @@
         <v>37</v>
       </c>
       <c r="C171" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D171" s="163">
         <v>60</v>
@@ -39273,7 +39273,7 @@
         <v>37</v>
       </c>
       <c r="C172" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D172" s="163">
         <v>60000</v>
@@ -39299,7 +39299,7 @@
         <v>31</v>
       </c>
       <c r="D173" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E173" s="154">
         <v>2</v>
@@ -39319,7 +39319,7 @@
         <v>38</v>
       </c>
       <c r="C174" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D174" s="163">
         <v>120</v>
@@ -39342,7 +39342,7 @@
         <v>38</v>
       </c>
       <c r="C175" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D175" s="163">
         <v>60</v>
@@ -39365,7 +39365,7 @@
         <v>38</v>
       </c>
       <c r="C176" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D176" s="163">
         <v>60</v>
@@ -39388,7 +39388,7 @@
         <v>38</v>
       </c>
       <c r="C177" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D177" s="163">
         <v>60000</v>
@@ -39460,7 +39460,7 @@
         <v>31</v>
       </c>
       <c r="D180" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E180" s="149">
         <v>2</v>
@@ -39526,7 +39526,7 @@
         <v>41</v>
       </c>
       <c r="C183" s="151" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D183" s="163">
         <v>150</v>
@@ -39549,7 +39549,7 @@
         <v>41</v>
       </c>
       <c r="C184" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D184" s="163">
         <v>120000</v>
@@ -39575,7 +39575,7 @@
         <v>31</v>
       </c>
       <c r="D185" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E185" s="149">
         <v>2</v>
@@ -39641,7 +39641,7 @@
         <v>42</v>
       </c>
       <c r="C188" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D188" s="163">
         <v>80</v>
@@ -39664,7 +39664,7 @@
         <v>42</v>
       </c>
       <c r="C189" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D189" s="163">
         <v>120000</v>
@@ -39690,7 +39690,7 @@
         <v>31</v>
       </c>
       <c r="D190" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E190" s="149">
         <v>2</v>
@@ -39756,7 +39756,7 @@
         <v>43</v>
       </c>
       <c r="C193" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D193" s="163">
         <v>80</v>
@@ -39779,7 +39779,7 @@
         <v>43</v>
       </c>
       <c r="C194" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D194" s="163">
         <v>120000</v>
@@ -39805,7 +39805,7 @@
         <v>31</v>
       </c>
       <c r="D195" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E195" s="149">
         <v>2</v>
@@ -39848,7 +39848,7 @@
         <v>44</v>
       </c>
       <c r="C197" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D197" s="163">
         <v>150</v>
@@ -39871,7 +39871,7 @@
         <v>44</v>
       </c>
       <c r="C198" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D198" s="163">
         <v>80</v>
@@ -39894,7 +39894,7 @@
         <v>44</v>
       </c>
       <c r="C199" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D199" s="163">
         <v>120000</v>
@@ -39920,7 +39920,7 @@
         <v>31</v>
       </c>
       <c r="D200" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E200" s="149">
         <v>2</v>
@@ -39963,7 +39963,7 @@
         <v>45</v>
       </c>
       <c r="C202" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D202" s="163">
         <v>150</v>
@@ -39986,7 +39986,7 @@
         <v>45</v>
       </c>
       <c r="C203" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D203" s="163">
         <v>80</v>
@@ -40009,7 +40009,7 @@
         <v>45</v>
       </c>
       <c r="C204" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D204" s="163">
         <v>120000</v>
@@ -40035,7 +40035,7 @@
         <v>31</v>
       </c>
       <c r="D205" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E205" s="149">
         <v>2</v>
@@ -40078,7 +40078,7 @@
         <v>46</v>
       </c>
       <c r="C207" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D207" s="163">
         <v>80</v>
@@ -40101,7 +40101,7 @@
         <v>46</v>
       </c>
       <c r="C208" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D208" s="163">
         <v>80</v>
@@ -40124,7 +40124,7 @@
         <v>46</v>
       </c>
       <c r="C209" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D209" s="163">
         <v>120000</v>
@@ -40150,7 +40150,7 @@
         <v>31</v>
       </c>
       <c r="D210" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E210" s="149">
         <v>2</v>
@@ -40193,7 +40193,7 @@
         <v>47</v>
       </c>
       <c r="C212" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D212" s="163">
         <v>80</v>
@@ -40216,7 +40216,7 @@
         <v>47</v>
       </c>
       <c r="C213" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D213" s="163">
         <v>80</v>
@@ -40239,7 +40239,7 @@
         <v>47</v>
       </c>
       <c r="C214" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D214" s="163">
         <v>120000</v>
@@ -40265,7 +40265,7 @@
         <v>31</v>
       </c>
       <c r="D215" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E215" s="149">
         <v>2</v>
@@ -40308,7 +40308,7 @@
         <v>48</v>
       </c>
       <c r="C217" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D217" s="163">
         <v>150</v>
@@ -40331,7 +40331,7 @@
         <v>48</v>
       </c>
       <c r="C218" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D218" s="163">
         <v>80</v>
@@ -40354,7 +40354,7 @@
         <v>48</v>
       </c>
       <c r="C219" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D219" s="163">
         <v>120000</v>
@@ -40380,7 +40380,7 @@
         <v>31</v>
       </c>
       <c r="D220" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E220" s="149">
         <v>2</v>
@@ -40423,7 +40423,7 @@
         <v>49</v>
       </c>
       <c r="C222" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D222" s="163">
         <v>150</v>
@@ -40446,7 +40446,7 @@
         <v>49</v>
       </c>
       <c r="C223" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D223" s="163">
         <v>80</v>
@@ -40469,7 +40469,7 @@
         <v>49</v>
       </c>
       <c r="C224" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D224" s="163">
         <v>120000</v>
@@ -40495,7 +40495,7 @@
         <v>31</v>
       </c>
       <c r="D225" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E225" s="149">
         <v>2</v>
@@ -40515,7 +40515,7 @@
         <v>50</v>
       </c>
       <c r="C226" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D226" s="163">
         <v>150</v>
@@ -40538,7 +40538,7 @@
         <v>50</v>
       </c>
       <c r="C227" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D227" s="163">
         <v>80</v>
@@ -40561,7 +40561,7 @@
         <v>50</v>
       </c>
       <c r="C228" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D228" s="163">
         <v>80</v>
@@ -40584,7 +40584,7 @@
         <v>50</v>
       </c>
       <c r="C229" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D229" s="163">
         <v>120000</v>
@@ -40656,7 +40656,7 @@
         <v>31</v>
       </c>
       <c r="D232" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E232" s="154">
         <v>2</v>
@@ -40722,7 +40722,7 @@
         <v>53</v>
       </c>
       <c r="C235" s="156" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D235" s="163">
         <v>200</v>
@@ -40745,7 +40745,7 @@
         <v>53</v>
       </c>
       <c r="C236" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D236" s="163">
         <v>240000</v>
@@ -40771,7 +40771,7 @@
         <v>31</v>
       </c>
       <c r="D237" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E237" s="154">
         <v>2</v>
@@ -40837,7 +40837,7 @@
         <v>54</v>
       </c>
       <c r="C240" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D240" s="163">
         <v>100</v>
@@ -40860,7 +40860,7 @@
         <v>54</v>
       </c>
       <c r="C241" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D241" s="163">
         <v>240000</v>
@@ -40886,7 +40886,7 @@
         <v>31</v>
       </c>
       <c r="D242" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E242" s="154">
         <v>2</v>
@@ -40952,7 +40952,7 @@
         <v>55</v>
       </c>
       <c r="C245" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D245" s="163">
         <v>100</v>
@@ -40975,7 +40975,7 @@
         <v>55</v>
       </c>
       <c r="C246" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D246" s="163">
         <v>240000</v>
@@ -41001,7 +41001,7 @@
         <v>31</v>
       </c>
       <c r="D247" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E247" s="154">
         <v>2</v>
@@ -41044,7 +41044,7 @@
         <v>56</v>
       </c>
       <c r="C249" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D249" s="163">
         <v>200</v>
@@ -41067,7 +41067,7 @@
         <v>56</v>
       </c>
       <c r="C250" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D250" s="163">
         <v>100</v>
@@ -41090,7 +41090,7 @@
         <v>56</v>
       </c>
       <c r="C251" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D251" s="163">
         <v>240000</v>
@@ -41116,7 +41116,7 @@
         <v>31</v>
       </c>
       <c r="D252" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E252" s="154">
         <v>2</v>
@@ -41159,7 +41159,7 @@
         <v>57</v>
       </c>
       <c r="C254" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D254" s="163">
         <v>200</v>
@@ -41182,7 +41182,7 @@
         <v>57</v>
       </c>
       <c r="C255" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D255" s="163">
         <v>100</v>
@@ -41205,7 +41205,7 @@
         <v>57</v>
       </c>
       <c r="C256" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D256" s="163">
         <v>240000</v>
@@ -41231,7 +41231,7 @@
         <v>31</v>
       </c>
       <c r="D257" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E257" s="154">
         <v>2</v>
@@ -41274,7 +41274,7 @@
         <v>58</v>
       </c>
       <c r="C259" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D259" s="163">
         <v>100</v>
@@ -41297,7 +41297,7 @@
         <v>58</v>
       </c>
       <c r="C260" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D260" s="163">
         <v>100</v>
@@ -41320,7 +41320,7 @@
         <v>58</v>
       </c>
       <c r="C261" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D261" s="163">
         <v>240000</v>
@@ -41346,7 +41346,7 @@
         <v>31</v>
       </c>
       <c r="D262" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E262" s="154">
         <v>2</v>
@@ -41389,7 +41389,7 @@
         <v>59</v>
       </c>
       <c r="C264" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D264" s="163">
         <v>100</v>
@@ -41412,7 +41412,7 @@
         <v>59</v>
       </c>
       <c r="C265" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D265" s="163">
         <v>100</v>
@@ -41435,7 +41435,7 @@
         <v>59</v>
       </c>
       <c r="C266" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D266" s="163">
         <v>240000</v>
@@ -41461,7 +41461,7 @@
         <v>31</v>
       </c>
       <c r="D267" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E267" s="154">
         <v>2</v>
@@ -41504,7 +41504,7 @@
         <v>60</v>
       </c>
       <c r="C269" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D269" s="163">
         <v>200</v>
@@ -41527,7 +41527,7 @@
         <v>60</v>
       </c>
       <c r="C270" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D270" s="163">
         <v>100</v>
@@ -41550,7 +41550,7 @@
         <v>60</v>
       </c>
       <c r="C271" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D271" s="163">
         <v>240000</v>
@@ -41576,7 +41576,7 @@
         <v>31</v>
       </c>
       <c r="D272" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E272" s="154">
         <v>2</v>
@@ -41619,7 +41619,7 @@
         <v>61</v>
       </c>
       <c r="C274" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D274" s="163">
         <v>200</v>
@@ -41642,7 +41642,7 @@
         <v>61</v>
       </c>
       <c r="C275" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D275" s="163">
         <v>100</v>
@@ -41665,7 +41665,7 @@
         <v>61</v>
       </c>
       <c r="C276" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D276" s="163">
         <v>240000</v>
@@ -41691,7 +41691,7 @@
         <v>31</v>
       </c>
       <c r="D277" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E277" s="154">
         <v>2</v>
@@ -41711,7 +41711,7 @@
         <v>62</v>
       </c>
       <c r="C278" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D278" s="163">
         <v>200</v>
@@ -41734,7 +41734,7 @@
         <v>62</v>
       </c>
       <c r="C279" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D279" s="163">
         <v>100</v>
@@ -41757,7 +41757,7 @@
         <v>62</v>
       </c>
       <c r="C280" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D280" s="163">
         <v>100</v>
@@ -41780,7 +41780,7 @@
         <v>62</v>
       </c>
       <c r="C281" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D281" s="163">
         <v>240000</v>
@@ -41805,15 +41805,15 @@
       <c r="C282" s="156" t="s">
         <v>527</v>
       </c>
-      <c r="D282" s="163" t="s">
-        <v>223</v>
+      <c r="D282" s="163">
+        <v>6</v>
       </c>
       <c r="E282" s="154">
         <v>3</v>
       </c>
       <c r="F282" s="119" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>单局消除9个及以上苹果</v>
+        <v>单局消除6个及以上苹果</v>
       </c>
       <c r="G282" s="158"/>
     </row>
@@ -41828,15 +41828,15 @@
       <c r="C283" s="156" t="s">
         <v>528</v>
       </c>
-      <c r="D283" s="163" t="s">
-        <v>223</v>
+      <c r="D283" s="163">
+        <v>6</v>
       </c>
       <c r="E283" s="154">
         <v>3</v>
       </c>
       <c r="F283" s="119" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>单局消除9个及以上铃铛</v>
+        <v>单局消除6个及以上铃铛</v>
       </c>
       <c r="G283" s="158"/>
     </row>
@@ -41852,7 +41852,7 @@
         <v>31</v>
       </c>
       <c r="D284" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E284" s="149">
         <v>2</v>
@@ -41918,7 +41918,7 @@
         <v>65</v>
       </c>
       <c r="C287" s="151" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D287" s="163">
         <v>300</v>
@@ -41941,7 +41941,7 @@
         <v>65</v>
       </c>
       <c r="C288" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D288" s="163">
         <v>480000</v>
@@ -41967,7 +41967,7 @@
         <v>31</v>
       </c>
       <c r="D289" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E289" s="149">
         <v>2</v>
@@ -42033,7 +42033,7 @@
         <v>66</v>
       </c>
       <c r="C292" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D292" s="163">
         <v>150</v>
@@ -42056,7 +42056,7 @@
         <v>66</v>
       </c>
       <c r="C293" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D293" s="163">
         <v>480000</v>
@@ -42082,7 +42082,7 @@
         <v>31</v>
       </c>
       <c r="D294" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E294" s="149">
         <v>2</v>
@@ -42148,7 +42148,7 @@
         <v>67</v>
       </c>
       <c r="C297" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D297" s="163">
         <v>150</v>
@@ -42171,7 +42171,7 @@
         <v>67</v>
       </c>
       <c r="C298" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D298" s="163">
         <v>480000</v>
@@ -42197,7 +42197,7 @@
         <v>31</v>
       </c>
       <c r="D299" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E299" s="149">
         <v>2</v>
@@ -42240,7 +42240,7 @@
         <v>68</v>
       </c>
       <c r="C301" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D301" s="163">
         <v>300</v>
@@ -42263,7 +42263,7 @@
         <v>68</v>
       </c>
       <c r="C302" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D302" s="163">
         <v>150</v>
@@ -42286,7 +42286,7 @@
         <v>68</v>
       </c>
       <c r="C303" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D303" s="163">
         <v>480000</v>
@@ -42312,7 +42312,7 @@
         <v>31</v>
       </c>
       <c r="D304" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E304" s="149">
         <v>2</v>
@@ -42355,7 +42355,7 @@
         <v>69</v>
       </c>
       <c r="C306" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D306" s="163">
         <v>300</v>
@@ -42378,7 +42378,7 @@
         <v>69</v>
       </c>
       <c r="C307" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D307" s="163">
         <v>150</v>
@@ -42401,7 +42401,7 @@
         <v>69</v>
       </c>
       <c r="C308" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D308" s="163">
         <v>480000</v>
@@ -42427,7 +42427,7 @@
         <v>31</v>
       </c>
       <c r="D309" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E309" s="149">
         <v>2</v>
@@ -42470,7 +42470,7 @@
         <v>70</v>
       </c>
       <c r="C311" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D311" s="163">
         <v>150</v>
@@ -42493,7 +42493,7 @@
         <v>70</v>
       </c>
       <c r="C312" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D312" s="163">
         <v>150</v>
@@ -42516,7 +42516,7 @@
         <v>70</v>
       </c>
       <c r="C313" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D313" s="163">
         <v>480000</v>
@@ -42542,7 +42542,7 @@
         <v>31</v>
       </c>
       <c r="D314" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E314" s="149">
         <v>2</v>
@@ -42585,7 +42585,7 @@
         <v>71</v>
       </c>
       <c r="C316" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D316" s="163">
         <v>150</v>
@@ -42608,7 +42608,7 @@
         <v>71</v>
       </c>
       <c r="C317" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D317" s="163">
         <v>150</v>
@@ -42631,7 +42631,7 @@
         <v>71</v>
       </c>
       <c r="C318" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D318" s="163">
         <v>480000</v>
@@ -42657,7 +42657,7 @@
         <v>31</v>
       </c>
       <c r="D319" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E319" s="149">
         <v>2</v>
@@ -42700,7 +42700,7 @@
         <v>72</v>
       </c>
       <c r="C321" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D321" s="163">
         <v>300</v>
@@ -42723,7 +42723,7 @@
         <v>72</v>
       </c>
       <c r="C322" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D322" s="163">
         <v>150</v>
@@ -42746,7 +42746,7 @@
         <v>72</v>
       </c>
       <c r="C323" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D323" s="163">
         <v>480000</v>
@@ -42772,7 +42772,7 @@
         <v>31</v>
       </c>
       <c r="D324" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E324" s="149">
         <v>2</v>
@@ -42815,7 +42815,7 @@
         <v>73</v>
       </c>
       <c r="C326" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D326" s="163">
         <v>300</v>
@@ -42838,7 +42838,7 @@
         <v>73</v>
       </c>
       <c r="C327" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D327" s="163">
         <v>150</v>
@@ -42861,7 +42861,7 @@
         <v>73</v>
       </c>
       <c r="C328" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D328" s="163">
         <v>480000</v>
@@ -42887,7 +42887,7 @@
         <v>31</v>
       </c>
       <c r="D329" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E329" s="149">
         <v>2</v>
@@ -42907,7 +42907,7 @@
         <v>74</v>
       </c>
       <c r="C330" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D330" s="163">
         <v>300</v>
@@ -42930,7 +42930,7 @@
         <v>74</v>
       </c>
       <c r="C331" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D331" s="163">
         <v>150</v>
@@ -42953,7 +42953,7 @@
         <v>74</v>
       </c>
       <c r="C332" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D332" s="163">
         <v>150</v>
@@ -42976,7 +42976,7 @@
         <v>74</v>
       </c>
       <c r="C333" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D333" s="163">
         <v>480000</v>
@@ -43001,15 +43001,15 @@
       <c r="C334" s="151" t="s">
         <v>523</v>
       </c>
-      <c r="D334" s="163" t="s">
-        <v>223</v>
+      <c r="D334" s="163">
+        <v>6</v>
       </c>
       <c r="E334" s="149">
         <v>3</v>
       </c>
       <c r="F334" s="118" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>单局消除9个及以上铃铛</v>
+        <v>单局消除6个及以上铃铛</v>
       </c>
       <c r="G334" s="159"/>
     </row>
@@ -43024,15 +43024,15 @@
       <c r="C335" s="151" t="s">
         <v>481</v>
       </c>
-      <c r="D335" s="163" t="s">
-        <v>223</v>
+      <c r="D335" s="163">
+        <v>6</v>
       </c>
       <c r="E335" s="149">
         <v>3</v>
       </c>
       <c r="F335" s="118" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>单局消除9个及以上西瓜</v>
+        <v>单局消除6个及以上西瓜</v>
       </c>
       <c r="G335" s="159"/>
     </row>
@@ -43048,7 +43048,7 @@
         <v>31</v>
       </c>
       <c r="D336" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E336" s="154">
         <v>2</v>
@@ -43111,7 +43111,7 @@
         <v>77</v>
       </c>
       <c r="C339" s="156" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D339" s="163">
         <v>400</v>
@@ -43133,7 +43133,7 @@
         <v>77</v>
       </c>
       <c r="C340" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D340" s="163">
         <v>960000</v>
@@ -43158,7 +43158,7 @@
         <v>31</v>
       </c>
       <c r="D341" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E341" s="154">
         <v>2</v>
@@ -43221,7 +43221,7 @@
         <v>78</v>
       </c>
       <c r="C344" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D344" s="163">
         <v>200</v>
@@ -43243,7 +43243,7 @@
         <v>78</v>
       </c>
       <c r="C345" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D345" s="163">
         <v>960000</v>
@@ -43268,7 +43268,7 @@
         <v>31</v>
       </c>
       <c r="D346" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E346" s="154">
         <v>2</v>
@@ -43331,7 +43331,7 @@
         <v>79</v>
       </c>
       <c r="C349" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D349" s="163">
         <v>200</v>
@@ -43353,7 +43353,7 @@
         <v>79</v>
       </c>
       <c r="C350" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D350" s="163">
         <v>960000</v>
@@ -43378,7 +43378,7 @@
         <v>31</v>
       </c>
       <c r="D351" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E351" s="154">
         <v>2</v>
@@ -43419,7 +43419,7 @@
         <v>80</v>
       </c>
       <c r="C353" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D353" s="163">
         <v>400</v>
@@ -43441,7 +43441,7 @@
         <v>80</v>
       </c>
       <c r="C354" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D354" s="163">
         <v>200</v>
@@ -43463,7 +43463,7 @@
         <v>80</v>
       </c>
       <c r="C355" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D355" s="163">
         <v>960000</v>
@@ -43488,7 +43488,7 @@
         <v>31</v>
       </c>
       <c r="D356" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E356" s="154">
         <v>2</v>
@@ -43529,7 +43529,7 @@
         <v>81</v>
       </c>
       <c r="C358" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D358" s="163">
         <v>400</v>
@@ -43551,7 +43551,7 @@
         <v>81</v>
       </c>
       <c r="C359" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D359" s="163">
         <v>200</v>
@@ -43573,7 +43573,7 @@
         <v>81</v>
       </c>
       <c r="C360" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D360" s="163">
         <v>960000</v>
@@ -43598,7 +43598,7 @@
         <v>31</v>
       </c>
       <c r="D361" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E361" s="154">
         <v>2</v>
@@ -43639,7 +43639,7 @@
         <v>82</v>
       </c>
       <c r="C363" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D363" s="163">
         <v>200</v>
@@ -43661,7 +43661,7 @@
         <v>82</v>
       </c>
       <c r="C364" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D364" s="163">
         <v>200</v>
@@ -43683,7 +43683,7 @@
         <v>82</v>
       </c>
       <c r="C365" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D365" s="163">
         <v>960000</v>
@@ -43708,7 +43708,7 @@
         <v>31</v>
       </c>
       <c r="D366" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E366" s="154">
         <v>2</v>
@@ -43749,7 +43749,7 @@
         <v>83</v>
       </c>
       <c r="C368" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D368" s="163">
         <v>200</v>
@@ -43771,7 +43771,7 @@
         <v>83</v>
       </c>
       <c r="C369" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D369" s="163">
         <v>200</v>
@@ -43793,7 +43793,7 @@
         <v>83</v>
       </c>
       <c r="C370" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D370" s="163">
         <v>960000</v>
@@ -43818,7 +43818,7 @@
         <v>31</v>
       </c>
       <c r="D371" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E371" s="154">
         <v>2</v>
@@ -43859,7 +43859,7 @@
         <v>84</v>
       </c>
       <c r="C373" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D373" s="163">
         <v>400</v>
@@ -43881,7 +43881,7 @@
         <v>84</v>
       </c>
       <c r="C374" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D374" s="163">
         <v>200</v>
@@ -43903,7 +43903,7 @@
         <v>84</v>
       </c>
       <c r="C375" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D375" s="163">
         <v>960000</v>
@@ -43928,7 +43928,7 @@
         <v>31</v>
       </c>
       <c r="D376" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E376" s="154">
         <v>2</v>
@@ -43969,7 +43969,7 @@
         <v>85</v>
       </c>
       <c r="C378" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D378" s="163">
         <v>400</v>
@@ -43991,7 +43991,7 @@
         <v>85</v>
       </c>
       <c r="C379" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D379" s="163">
         <v>200</v>
@@ -44013,7 +44013,7 @@
         <v>85</v>
       </c>
       <c r="C380" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D380" s="163">
         <v>960000</v>
@@ -44038,7 +44038,7 @@
         <v>31</v>
       </c>
       <c r="D381" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E381" s="154">
         <v>2</v>
@@ -44057,7 +44057,7 @@
         <v>86</v>
       </c>
       <c r="C382" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D382" s="163">
         <v>400</v>
@@ -44079,7 +44079,7 @@
         <v>86</v>
       </c>
       <c r="C383" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D383" s="163">
         <v>200</v>
@@ -44101,7 +44101,7 @@
         <v>86</v>
       </c>
       <c r="C384" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D384" s="163">
         <v>200</v>
@@ -44123,7 +44123,7 @@
         <v>86</v>
       </c>
       <c r="C385" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D385" s="163">
         <v>960000</v>
@@ -44147,15 +44147,15 @@
       <c r="C386" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D386" s="163" t="s">
-        <v>223</v>
+      <c r="D386" s="163">
+        <v>6</v>
       </c>
       <c r="E386" s="154">
         <v>3</v>
       </c>
       <c r="F386" s="118" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>单局消除9个及以上7</v>
+        <v>单局消除6个及以上7</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -44169,15 +44169,15 @@
       <c r="C387" s="156" t="s">
         <v>479</v>
       </c>
-      <c r="D387" s="163" t="s">
-        <v>223</v>
+      <c r="D387" s="163">
+        <v>6</v>
       </c>
       <c r="E387" s="154">
         <v>3</v>
       </c>
       <c r="F387" s="118" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>单局消除9个及以上BAR</v>
+        <v>单局消除6个及以上BAR</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -44192,7 +44192,7 @@
         <v>31</v>
       </c>
       <c r="D388" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E388" s="149">
         <v>2</v>
@@ -44255,7 +44255,7 @@
         <v>89</v>
       </c>
       <c r="C391" s="151" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D391" s="163">
         <v>500</v>
@@ -44277,7 +44277,7 @@
         <v>89</v>
       </c>
       <c r="C392" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D392" s="163">
         <v>1920000</v>
@@ -44302,7 +44302,7 @@
         <v>31</v>
       </c>
       <c r="D393" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E393" s="149">
         <v>2</v>
@@ -44365,7 +44365,7 @@
         <v>90</v>
       </c>
       <c r="C396" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D396" s="163">
         <v>250</v>
@@ -44387,7 +44387,7 @@
         <v>90</v>
       </c>
       <c r="C397" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D397" s="163">
         <v>1920000</v>
@@ -44412,7 +44412,7 @@
         <v>31</v>
       </c>
       <c r="D398" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E398" s="149">
         <v>2</v>
@@ -44475,7 +44475,7 @@
         <v>91</v>
       </c>
       <c r="C401" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D401" s="163">
         <v>250</v>
@@ -44497,7 +44497,7 @@
         <v>91</v>
       </c>
       <c r="C402" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D402" s="163">
         <v>1920000</v>
@@ -44522,7 +44522,7 @@
         <v>31</v>
       </c>
       <c r="D403" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E403" s="149">
         <v>2</v>
@@ -44563,7 +44563,7 @@
         <v>92</v>
       </c>
       <c r="C405" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D405" s="163">
         <v>500</v>
@@ -44585,7 +44585,7 @@
         <v>92</v>
       </c>
       <c r="C406" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D406" s="163">
         <v>250</v>
@@ -44607,7 +44607,7 @@
         <v>92</v>
       </c>
       <c r="C407" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D407" s="163">
         <v>1920000</v>
@@ -44632,7 +44632,7 @@
         <v>31</v>
       </c>
       <c r="D408" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E408" s="149">
         <v>2</v>
@@ -44673,7 +44673,7 @@
         <v>93</v>
       </c>
       <c r="C410" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D410" s="163">
         <v>500</v>
@@ -44695,7 +44695,7 @@
         <v>93</v>
       </c>
       <c r="C411" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D411" s="163">
         <v>250</v>
@@ -44717,7 +44717,7 @@
         <v>93</v>
       </c>
       <c r="C412" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D412" s="163">
         <v>1920000</v>
@@ -44742,7 +44742,7 @@
         <v>31</v>
       </c>
       <c r="D413" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E413" s="149">
         <v>2</v>
@@ -44783,7 +44783,7 @@
         <v>94</v>
       </c>
       <c r="C415" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D415" s="163">
         <v>250</v>
@@ -44805,7 +44805,7 @@
         <v>94</v>
       </c>
       <c r="C416" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D416" s="163">
         <v>250</v>
@@ -44827,7 +44827,7 @@
         <v>94</v>
       </c>
       <c r="C417" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D417" s="163">
         <v>1920000</v>
@@ -44852,7 +44852,7 @@
         <v>31</v>
       </c>
       <c r="D418" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E418" s="149">
         <v>2</v>
@@ -44893,7 +44893,7 @@
         <v>95</v>
       </c>
       <c r="C420" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D420" s="163">
         <v>250</v>
@@ -44915,7 +44915,7 @@
         <v>95</v>
       </c>
       <c r="C421" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D421" s="163">
         <v>250</v>
@@ -44937,7 +44937,7 @@
         <v>95</v>
       </c>
       <c r="C422" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D422" s="163">
         <v>1920000</v>
@@ -44962,7 +44962,7 @@
         <v>31</v>
       </c>
       <c r="D423" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E423" s="149">
         <v>2</v>
@@ -45003,7 +45003,7 @@
         <v>96</v>
       </c>
       <c r="C425" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D425" s="163">
         <v>500</v>
@@ -45025,7 +45025,7 @@
         <v>96</v>
       </c>
       <c r="C426" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D426" s="163">
         <v>250</v>
@@ -45047,7 +45047,7 @@
         <v>96</v>
       </c>
       <c r="C427" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D427" s="163">
         <v>1920000</v>
@@ -45072,7 +45072,7 @@
         <v>31</v>
       </c>
       <c r="D428" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E428" s="149">
         <v>2</v>
@@ -45113,7 +45113,7 @@
         <v>97</v>
       </c>
       <c r="C430" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D430" s="163">
         <v>500</v>
@@ -45135,7 +45135,7 @@
         <v>97</v>
       </c>
       <c r="C431" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D431" s="163">
         <v>250</v>
@@ -45157,7 +45157,7 @@
         <v>97</v>
       </c>
       <c r="C432" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D432" s="163">
         <v>1920000</v>
@@ -45182,7 +45182,7 @@
         <v>31</v>
       </c>
       <c r="D433" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E433" s="149">
         <v>2</v>
@@ -45201,7 +45201,7 @@
         <v>98</v>
       </c>
       <c r="C434" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D434" s="163">
         <v>500</v>
@@ -45223,7 +45223,7 @@
         <v>98</v>
       </c>
       <c r="C435" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D435" s="163">
         <v>250</v>
@@ -45245,7 +45245,7 @@
         <v>98</v>
       </c>
       <c r="C436" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D436" s="163">
         <v>250</v>
@@ -45267,7 +45267,7 @@
         <v>98</v>
       </c>
       <c r="C437" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D437" s="163">
         <v>1920000</v>
@@ -45289,7 +45289,7 @@
         <v>99</v>
       </c>
       <c r="C438" s="151" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="D438" s="163" t="s">
         <v>223</v>
@@ -45299,7 +45299,7 @@
       </c>
       <c r="F438" s="118" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>单局消除9个及以上7</v>
+        <v>单局消除9个及以上苹果</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -45311,7 +45311,7 @@
         <v>100</v>
       </c>
       <c r="C439" s="151" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D439" s="163" t="s">
         <v>223</v>
@@ -45321,7 +45321,7 @@
       </c>
       <c r="F439" s="118" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>单局消除9个及以上BAR</v>
+        <v>单局消除9个及以上铃铛</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -45336,7 +45336,7 @@
         <v>31</v>
       </c>
       <c r="D440" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E440" s="154">
         <v>2</v>
@@ -45399,7 +45399,7 @@
         <v>101</v>
       </c>
       <c r="C443" s="156" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D443" s="163">
         <v>600</v>
@@ -45421,7 +45421,7 @@
         <v>101</v>
       </c>
       <c r="C444" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D444" s="163">
         <v>5120000</v>
@@ -45446,7 +45446,7 @@
         <v>31</v>
       </c>
       <c r="D445" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E445" s="154">
         <v>2</v>
@@ -45509,7 +45509,7 @@
         <v>102</v>
       </c>
       <c r="C448" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D448" s="163">
         <v>300</v>
@@ -45531,7 +45531,7 @@
         <v>102</v>
       </c>
       <c r="C449" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D449" s="163">
         <v>5120000</v>
@@ -45556,7 +45556,7 @@
         <v>31</v>
       </c>
       <c r="D450" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E450" s="154">
         <v>2</v>
@@ -45619,7 +45619,7 @@
         <v>103</v>
       </c>
       <c r="C453" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D453" s="163">
         <v>300</v>
@@ -45641,7 +45641,7 @@
         <v>103</v>
       </c>
       <c r="C454" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D454" s="163">
         <v>5120000</v>
@@ -45666,7 +45666,7 @@
         <v>31</v>
       </c>
       <c r="D455" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E455" s="154">
         <v>2</v>
@@ -45707,7 +45707,7 @@
         <v>104</v>
       </c>
       <c r="C457" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D457" s="163">
         <v>600</v>
@@ -45729,7 +45729,7 @@
         <v>104</v>
       </c>
       <c r="C458" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D458" s="163">
         <v>300</v>
@@ -45751,7 +45751,7 @@
         <v>104</v>
       </c>
       <c r="C459" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D459" s="163">
         <v>5120000</v>
@@ -45776,7 +45776,7 @@
         <v>31</v>
       </c>
       <c r="D460" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E460" s="154">
         <v>2</v>
@@ -45817,7 +45817,7 @@
         <v>105</v>
       </c>
       <c r="C462" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D462" s="163">
         <v>600</v>
@@ -45839,7 +45839,7 @@
         <v>105</v>
       </c>
       <c r="C463" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D463" s="163">
         <v>300</v>
@@ -45861,7 +45861,7 @@
         <v>105</v>
       </c>
       <c r="C464" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D464" s="163">
         <v>5120000</v>
@@ -45886,7 +45886,7 @@
         <v>31</v>
       </c>
       <c r="D465" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E465" s="154">
         <v>2</v>
@@ -45927,7 +45927,7 @@
         <v>106</v>
       </c>
       <c r="C467" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D467" s="163">
         <v>300</v>
@@ -45949,7 +45949,7 @@
         <v>106</v>
       </c>
       <c r="C468" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D468" s="163">
         <v>300</v>
@@ -45971,7 +45971,7 @@
         <v>106</v>
       </c>
       <c r="C469" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D469" s="163">
         <v>5120000</v>
@@ -45996,7 +45996,7 @@
         <v>31</v>
       </c>
       <c r="D470" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E470" s="154">
         <v>2</v>
@@ -46037,7 +46037,7 @@
         <v>107</v>
       </c>
       <c r="C472" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D472" s="163">
         <v>300</v>
@@ -46059,7 +46059,7 @@
         <v>107</v>
       </c>
       <c r="C473" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D473" s="163">
         <v>300</v>
@@ -46081,7 +46081,7 @@
         <v>107</v>
       </c>
       <c r="C474" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D474" s="163">
         <v>5120000</v>
@@ -46106,7 +46106,7 @@
         <v>31</v>
       </c>
       <c r="D475" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E475" s="154">
         <v>2</v>
@@ -46147,7 +46147,7 @@
         <v>108</v>
       </c>
       <c r="C477" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D477" s="163">
         <v>600</v>
@@ -46169,7 +46169,7 @@
         <v>108</v>
       </c>
       <c r="C478" s="156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D478" s="163">
         <v>300</v>
@@ -46191,7 +46191,7 @@
         <v>108</v>
       </c>
       <c r="C479" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D479" s="163">
         <v>5120000</v>
@@ -46216,7 +46216,7 @@
         <v>31</v>
       </c>
       <c r="D480" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E480" s="154">
         <v>2</v>
@@ -46257,7 +46257,7 @@
         <v>109</v>
       </c>
       <c r="C482" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D482" s="163">
         <v>600</v>
@@ -46279,7 +46279,7 @@
         <v>109</v>
       </c>
       <c r="C483" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D483" s="163">
         <v>300</v>
@@ -46301,7 +46301,7 @@
         <v>109</v>
       </c>
       <c r="C484" s="156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D484" s="163">
         <v>5120000</v>
@@ -46326,7 +46326,7 @@
         <v>31</v>
       </c>
       <c r="D485" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E485" s="154">
         <v>2</v>
@@ -46345,7 +46345,7 @@
         <v>110</v>
       </c>
       <c r="C486" s="154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D486" s="163">
         <v>600</v>
@@ -46367,7 +46367,7 @@
         <v>110</v>
       </c>
       <c r="C487" s="154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D487" s="163">
         <v>300</v>
@@ -46390,7 +46390,7 @@
         <v>110</v>
       </c>
       <c r="C488" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D488" s="163">
         <v>300</v>
@@ -46436,7 +46436,7 @@
         <v>111</v>
       </c>
       <c r="C490" s="156" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="D490" s="163" t="s">
         <v>223</v>
@@ -46446,7 +46446,7 @@
       </c>
       <c r="F490" s="118" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>单局消除9个及以上7</v>
+        <v>单局消除9个及以上铃铛</v>
       </c>
       <c r="G490" s="153"/>
     </row>
@@ -46459,7 +46459,7 @@
         <v>112</v>
       </c>
       <c r="C491" s="156" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="D491" s="163" t="s">
         <v>223</v>
@@ -46469,7 +46469,7 @@
       </c>
       <c r="F491" s="118" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>单局消除9个及以上BAR</v>
+        <v>单局消除9个及以上西瓜</v>
       </c>
       <c r="G491" s="153"/>
     </row>
@@ -46485,7 +46485,7 @@
         <v>31</v>
       </c>
       <c r="D492" s="163" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E492" s="149">
         <v>2</v>
@@ -46551,7 +46551,7 @@
         <v>113</v>
       </c>
       <c r="C495" s="151" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D495" s="163">
         <v>800</v>
@@ -46573,7 +46573,7 @@
         <v>113</v>
       </c>
       <c r="C496" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D496" s="163">
         <v>10240000</v>
@@ -46598,7 +46598,7 @@
         <v>31</v>
       </c>
       <c r="D497" s="163" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E497" s="149">
         <v>2</v>
@@ -46663,7 +46663,7 @@
         <v>114</v>
       </c>
       <c r="C500" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D500" s="163">
         <v>400</v>
@@ -46686,7 +46686,7 @@
         <v>114</v>
       </c>
       <c r="C501" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D501" s="163">
         <v>10240000</v>
@@ -46712,7 +46712,7 @@
         <v>31</v>
       </c>
       <c r="D502" s="163" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="E502" s="149">
         <v>2</v>
@@ -46778,7 +46778,7 @@
         <v>115</v>
       </c>
       <c r="C505" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D505" s="163">
         <v>400</v>
@@ -46801,7 +46801,7 @@
         <v>115</v>
       </c>
       <c r="C506" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D506" s="163">
         <v>10240000</v>
@@ -46826,7 +46826,7 @@
         <v>31</v>
       </c>
       <c r="D507" s="163" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E507" s="149">
         <v>2</v>
@@ -46869,7 +46869,7 @@
         <v>116</v>
       </c>
       <c r="C509" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D509" s="163">
         <v>800</v>
@@ -46892,7 +46892,7 @@
         <v>116</v>
       </c>
       <c r="C510" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D510" s="163">
         <v>400</v>
@@ -46915,7 +46915,7 @@
         <v>116</v>
       </c>
       <c r="C511" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D511" s="163">
         <v>10240000</v>
@@ -46941,7 +46941,7 @@
         <v>31</v>
       </c>
       <c r="D512" s="163" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E512" s="149">
         <v>2</v>
@@ -46984,7 +46984,7 @@
         <v>117</v>
       </c>
       <c r="C514" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D514" s="163">
         <v>800</v>
@@ -47007,7 +47007,7 @@
         <v>117</v>
       </c>
       <c r="C515" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D515" s="163">
         <v>400</v>
@@ -47029,7 +47029,7 @@
         <v>117</v>
       </c>
       <c r="C516" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D516" s="163">
         <v>10240000</v>
@@ -47054,7 +47054,7 @@
         <v>31</v>
       </c>
       <c r="D517" s="163" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E517" s="149">
         <v>2</v>
@@ -47095,7 +47095,7 @@
         <v>118</v>
       </c>
       <c r="C519" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D519" s="163">
         <v>400</v>
@@ -47117,7 +47117,7 @@
         <v>118</v>
       </c>
       <c r="C520" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D520" s="163">
         <v>400</v>
@@ -47139,7 +47139,7 @@
         <v>118</v>
       </c>
       <c r="C521" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D521" s="163">
         <v>10240000</v>
@@ -47164,7 +47164,7 @@
         <v>31</v>
       </c>
       <c r="D522" s="163" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E522" s="149">
         <v>2</v>
@@ -47205,7 +47205,7 @@
         <v>119</v>
       </c>
       <c r="C524" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D524" s="163">
         <v>400</v>
@@ -47227,7 +47227,7 @@
         <v>119</v>
       </c>
       <c r="C525" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D525" s="163">
         <v>400</v>
@@ -47249,7 +47249,7 @@
         <v>119</v>
       </c>
       <c r="C526" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D526" s="163">
         <v>10240000</v>
@@ -47274,7 +47274,7 @@
         <v>31</v>
       </c>
       <c r="D527" s="163" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E527" s="149">
         <v>2</v>
@@ -47315,7 +47315,7 @@
         <v>120</v>
       </c>
       <c r="C529" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D529" s="163">
         <v>800</v>
@@ -47337,7 +47337,7 @@
         <v>120</v>
       </c>
       <c r="C530" s="151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D530" s="163">
         <v>400</v>
@@ -47359,7 +47359,7 @@
         <v>120</v>
       </c>
       <c r="C531" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D531" s="163">
         <v>10240000</v>
@@ -47384,7 +47384,7 @@
         <v>31</v>
       </c>
       <c r="D532" s="163" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E532" s="149">
         <v>2</v>
@@ -47425,7 +47425,7 @@
         <v>121</v>
       </c>
       <c r="C534" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D534" s="163">
         <v>800</v>
@@ -47447,7 +47447,7 @@
         <v>121</v>
       </c>
       <c r="C535" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D535" s="163">
         <v>400</v>
@@ -47469,7 +47469,7 @@
         <v>121</v>
       </c>
       <c r="C536" s="151" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D536" s="163">
         <v>10240000</v>
@@ -47494,7 +47494,7 @@
         <v>31</v>
       </c>
       <c r="D537" s="163" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E537" s="149">
         <v>2</v>
@@ -47513,7 +47513,7 @@
         <v>122</v>
       </c>
       <c r="C538" s="149" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D538" s="163">
         <v>800</v>
@@ -47535,7 +47535,7 @@
         <v>122</v>
       </c>
       <c r="C539" s="149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D539" s="163">
         <v>400</v>
@@ -47557,7 +47557,7 @@
         <v>122</v>
       </c>
       <c r="C540" s="151" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D540" s="163">
         <v>400</v>
@@ -47601,7 +47601,7 @@
         <v>123</v>
       </c>
       <c r="C542" s="151" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D542" s="163" t="s">
         <v>223</v>
@@ -49095,7 +49095,7 @@
         <v>207</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F50" s="8">
         <v>1</v>
@@ -49167,7 +49167,7 @@
         <v>207</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F53" s="8">
         <v>1</v>
@@ -49239,7 +49239,7 @@
         <v>207</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F56" s="8">
         <v>1</v>
@@ -49311,7 +49311,7 @@
         <v>207</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F59" s="8">
         <v>1</v>
@@ -49383,7 +49383,7 @@
         <v>207</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F62" s="8">
         <v>1</v>
@@ -49455,7 +49455,7 @@
         <v>207</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F65" s="8">
         <v>1</v>
@@ -49527,7 +49527,7 @@
         <v>207</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F68" s="8">
         <v>1</v>
@@ -49599,7 +49599,7 @@
         <v>207</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F71" s="8">
         <v>1</v>
@@ -49671,7 +49671,7 @@
         <v>207</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F74" s="8">
         <v>1</v>
@@ -49743,7 +49743,7 @@
         <v>207</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F77" s="8">
         <v>1</v>
@@ -49812,10 +49812,10 @@
         <v>206</v>
       </c>
       <c r="D80" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F80" s="8">
         <v>1</v>
@@ -49884,10 +49884,10 @@
         <v>206</v>
       </c>
       <c r="D83" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F83" s="8">
         <v>1</v>
@@ -50676,10 +50676,10 @@
         <v>260</v>
       </c>
       <c r="D116" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F116" s="8">
         <v>1</v>
@@ -50748,10 +50748,10 @@
         <v>260</v>
       </c>
       <c r="D119" s="72" t="s">
+        <v>539</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>542</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>545</v>
       </c>
       <c r="F119" s="8">
         <v>1</v>
@@ -51540,7 +51540,7 @@
         <v>260</v>
       </c>
       <c r="D152" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E152" s="11">
         <v>15</v>
@@ -51612,7 +51612,7 @@
         <v>260</v>
       </c>
       <c r="D155" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E155" s="11">
         <v>15</v>
@@ -51684,7 +51684,7 @@
         <v>260</v>
       </c>
       <c r="D158" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E158" s="11">
         <v>30</v>
@@ -51756,7 +51756,7 @@
         <v>260</v>
       </c>
       <c r="D161" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E161" s="11">
         <v>30</v>
@@ -51828,7 +51828,7 @@
         <v>260</v>
       </c>
       <c r="D164" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E164" s="11">
         <v>30</v>
@@ -51900,7 +51900,7 @@
         <v>260</v>
       </c>
       <c r="D167" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E167" s="11">
         <v>30</v>
@@ -51972,7 +51972,7 @@
         <v>260</v>
       </c>
       <c r="D170" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E170" s="11">
         <v>30</v>
@@ -52044,7 +52044,7 @@
         <v>260</v>
       </c>
       <c r="D173" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E173" s="11">
         <v>30</v>
@@ -52116,7 +52116,7 @@
         <v>260</v>
       </c>
       <c r="D176" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E176" s="11">
         <v>30</v>
@@ -52188,7 +52188,7 @@
         <v>260</v>
       </c>
       <c r="D179" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E179" s="11">
         <v>30</v>
@@ -52274,7 +52274,7 @@
         <v>260</v>
       </c>
       <c r="D182" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E182" s="11">
         <v>30</v>
@@ -52388,7 +52388,7 @@
         <v>260</v>
       </c>
       <c r="D185" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E185" s="11">
         <v>30</v>
@@ -52502,10 +52502,10 @@
         <v>260</v>
       </c>
       <c r="D188" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F188" s="8">
         <v>1</v>
@@ -52616,10 +52616,10 @@
         <v>260</v>
       </c>
       <c r="D191" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F191" s="8">
         <v>1</v>
@@ -52730,10 +52730,10 @@
         <v>260</v>
       </c>
       <c r="D194" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F194" s="8">
         <v>1</v>
@@ -52844,7 +52844,7 @@
         <v>260</v>
       </c>
       <c r="D197" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E197" s="11">
         <v>100</v>
@@ -52958,7 +52958,7 @@
         <v>260</v>
       </c>
       <c r="D200" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E200" s="11">
         <v>100</v>
@@ -53072,7 +53072,7 @@
         <v>260</v>
       </c>
       <c r="D203" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E203" s="11">
         <v>100</v>
@@ -53186,7 +53186,7 @@
         <v>260</v>
       </c>
       <c r="D206" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E206" s="11">
         <v>100</v>
@@ -53300,7 +53300,7 @@
         <v>260</v>
       </c>
       <c r="D209" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E209" s="11">
         <v>100</v>
@@ -53414,7 +53414,7 @@
         <v>260</v>
       </c>
       <c r="D212" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E212" s="11">
         <v>100</v>
@@ -53528,7 +53528,7 @@
         <v>260</v>
       </c>
       <c r="D215" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E215" s="11">
         <v>100</v>
@@ -53642,7 +53642,7 @@
         <v>260</v>
       </c>
       <c r="D218" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E218" s="11">
         <v>100</v>
@@ -53756,7 +53756,7 @@
         <v>260</v>
       </c>
       <c r="D221" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E221" s="11">
         <v>100</v>
@@ -53870,7 +53870,7 @@
         <v>260</v>
       </c>
       <c r="D224" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E224" s="11">
         <v>100</v>
@@ -53984,7 +53984,7 @@
         <v>260</v>
       </c>
       <c r="D227" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E227" s="11">
         <v>150</v>
@@ -54098,7 +54098,7 @@
         <v>260</v>
       </c>
       <c r="D230" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E230" s="11">
         <v>150</v>
@@ -54212,7 +54212,7 @@
         <v>260</v>
       </c>
       <c r="D233" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E233" s="11">
         <v>150</v>
@@ -54326,7 +54326,7 @@
         <v>260</v>
       </c>
       <c r="D236" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E236" s="11">
         <v>300</v>
@@ -54440,7 +54440,7 @@
         <v>260</v>
       </c>
       <c r="D239" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E239" s="11">
         <v>300</v>
@@ -54554,7 +54554,7 @@
         <v>260</v>
       </c>
       <c r="D242" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E242" s="11">
         <v>300</v>
@@ -54626,7 +54626,7 @@
         <v>260</v>
       </c>
       <c r="D245" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E245" s="11">
         <v>300</v>
@@ -54698,7 +54698,7 @@
         <v>260</v>
       </c>
       <c r="D248" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E248" s="11">
         <v>300</v>
@@ -54770,7 +54770,7 @@
         <v>260</v>
       </c>
       <c r="D251" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E251" s="11">
         <v>300</v>
@@ -54842,7 +54842,7 @@
         <v>260</v>
       </c>
       <c r="D254" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E254" s="11">
         <v>300</v>
@@ -54914,7 +54914,7 @@
         <v>260</v>
       </c>
       <c r="D257" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E257" s="11">
         <v>300</v>
@@ -54986,7 +54986,7 @@
         <v>260</v>
       </c>
       <c r="D260" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E260" s="11">
         <v>300</v>
@@ -55058,7 +55058,7 @@
         <v>260</v>
       </c>
       <c r="D263" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E263" s="11">
         <v>300</v>
@@ -55130,7 +55130,7 @@
         <v>260</v>
       </c>
       <c r="D266" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E266" s="11">
         <v>500</v>
@@ -55202,7 +55202,7 @@
         <v>260</v>
       </c>
       <c r="D269" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E269" s="11">
         <v>500</v>
@@ -55274,7 +55274,7 @@
         <v>260</v>
       </c>
       <c r="D272" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E272" s="11">
         <v>500</v>
@@ -55346,7 +55346,7 @@
         <v>260</v>
       </c>
       <c r="D275" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E275" s="11">
         <v>600</v>
@@ -55418,7 +55418,7 @@
         <v>260</v>
       </c>
       <c r="D278" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E278" s="11">
         <v>600</v>
@@ -55490,7 +55490,7 @@
         <v>260</v>
       </c>
       <c r="D281" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E281" s="11">
         <v>600</v>
@@ -55562,7 +55562,7 @@
         <v>260</v>
       </c>
       <c r="D284" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E284" s="11">
         <v>600</v>
@@ -55634,7 +55634,7 @@
         <v>260</v>
       </c>
       <c r="D287" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E287" s="11">
         <v>600</v>
@@ -55706,7 +55706,7 @@
         <v>260</v>
       </c>
       <c r="D290" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E290" s="11">
         <v>600</v>
@@ -55778,7 +55778,7 @@
         <v>260</v>
       </c>
       <c r="D293" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E293" s="11">
         <v>600</v>
@@ -55850,7 +55850,7 @@
         <v>260</v>
       </c>
       <c r="D296" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E296" s="11">
         <v>600</v>
@@ -55922,7 +55922,7 @@
         <v>260</v>
       </c>
       <c r="D299" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E299" s="11">
         <v>600</v>
@@ -55994,7 +55994,7 @@
         <v>260</v>
       </c>
       <c r="D302" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E302" s="11">
         <v>600</v>
@@ -56066,7 +56066,7 @@
         <v>260</v>
       </c>
       <c r="D305" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E305" s="11">
         <v>800</v>
@@ -56138,7 +56138,7 @@
         <v>260</v>
       </c>
       <c r="D308" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E308" s="11">
         <v>800</v>
@@ -56210,7 +56210,7 @@
         <v>260</v>
       </c>
       <c r="D311" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E311" s="11">
         <v>800</v>
@@ -56282,7 +56282,7 @@
         <v>260</v>
       </c>
       <c r="D314" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E314" s="11">
         <v>2000</v>
@@ -56354,7 +56354,7 @@
         <v>260</v>
       </c>
       <c r="D317" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E317" s="11">
         <v>2000</v>
@@ -56426,7 +56426,7 @@
         <v>260</v>
       </c>
       <c r="D320" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E320" s="11">
         <v>2000</v>
@@ -56498,7 +56498,7 @@
         <v>260</v>
       </c>
       <c r="D323" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E323" s="11">
         <v>2000</v>
@@ -56570,7 +56570,7 @@
         <v>260</v>
       </c>
       <c r="D326" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E326" s="11">
         <v>2000</v>
@@ -56642,7 +56642,7 @@
         <v>260</v>
       </c>
       <c r="D329" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E329" s="11">
         <v>2000</v>
@@ -56714,7 +56714,7 @@
         <v>260</v>
       </c>
       <c r="D332" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E332" s="11">
         <v>2000</v>
@@ -56786,7 +56786,7 @@
         <v>260</v>
       </c>
       <c r="D335" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E335" s="11">
         <v>2000</v>
@@ -56858,7 +56858,7 @@
         <v>260</v>
       </c>
       <c r="D338" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E338" s="11">
         <v>2000</v>
@@ -56930,7 +56930,7 @@
         <v>260</v>
       </c>
       <c r="D341" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E341" s="11">
         <v>2000</v>
@@ -57002,7 +57002,7 @@
         <v>260</v>
       </c>
       <c r="D344" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E344" s="11">
         <v>5000</v>
@@ -57074,7 +57074,7 @@
         <v>260</v>
       </c>
       <c r="D347" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E347" s="11">
         <v>5000</v>
@@ -57146,7 +57146,7 @@
         <v>260</v>
       </c>
       <c r="D350" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E350" s="11">
         <v>5000</v>
@@ -57218,7 +57218,7 @@
         <v>260</v>
       </c>
       <c r="D353" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E353" s="11">
         <v>6000</v>
@@ -57290,7 +57290,7 @@
         <v>260</v>
       </c>
       <c r="D356" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E356" s="11">
         <v>6000</v>
@@ -57362,7 +57362,7 @@
         <v>260</v>
       </c>
       <c r="D359" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E359" s="11">
         <v>6000</v>
@@ -57434,7 +57434,7 @@
         <v>260</v>
       </c>
       <c r="D362" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E362" s="11">
         <v>6000</v>
@@ -57506,7 +57506,7 @@
         <v>260</v>
       </c>
       <c r="D365" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E365" s="11">
         <v>6000</v>
@@ -57578,7 +57578,7 @@
         <v>260</v>
       </c>
       <c r="D368" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E368" s="11">
         <v>6000</v>
@@ -57650,7 +57650,7 @@
         <v>260</v>
       </c>
       <c r="D371" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E371" s="11">
         <v>6000</v>
@@ -57722,7 +57722,7 @@
         <v>260</v>
       </c>
       <c r="D374" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E374" s="11">
         <v>6000</v>
@@ -57794,7 +57794,7 @@
         <v>260</v>
       </c>
       <c r="D377" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E377" s="11">
         <v>6000</v>
@@ -57866,7 +57866,7 @@
         <v>260</v>
       </c>
       <c r="D380" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E380" s="11">
         <v>6000</v>
@@ -57938,7 +57938,7 @@
         <v>260</v>
       </c>
       <c r="D383" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E383" s="11">
         <v>10000</v>
@@ -58010,7 +58010,7 @@
         <v>260</v>
       </c>
       <c r="D386" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E386" s="11">
         <v>10000</v>
@@ -58082,7 +58082,7 @@
         <v>260</v>
       </c>
       <c r="D389" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E389" s="11">
         <v>10000</v>
